--- a/Curvas_Bomba.xlsx
+++ b/Curvas_Bomba.xlsx
@@ -196,7 +196,7 @@
           <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>Rotor 203_3000RPM</v>
+            <v>Rotor 203_3300RPM</v>
           </tx>
           <spPr>
             <a:ln>
@@ -225,6 +225,36 @@
         <ser>
           <idx val="2"/>
           <order val="2"/>
+          <tx>
+            <v>Rotor 203 - Paralelo</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Interpolados'!$A$211:$A$310</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Interpolados'!$B$211:$B$310</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <v>Curva do Sistema 1</v>
           </tx>
@@ -256,8 +286,8 @@
           </yVal>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <v>Curva do Sistema 2</v>
           </tx>
@@ -414,7 +444,7 @@
           <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>Rendimento 203_3000RPM</v>
+            <v>Rendimento 203_3300RPM</v>
           </tx>
           <spPr>
             <a:ln w="20000">
@@ -440,6 +470,39 @@
           <yVal>
             <numRef>
               <f>'Interpolados'!$C$107:$C$206</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>Rendimento 203 - Paralelo</v>
+          </tx>
+          <spPr>
+            <a:ln w="20000">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Interpolados'!$A$211:$A$310</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Interpolados'!$C$211:$C$310</f>
             </numRef>
           </yVal>
         </ser>
@@ -850,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,7 +921,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22.8" customWidth="1" min="1" max="1"/>
+    <col width="26.4" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -918,7 +981,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>7.71</v>
       </c>
       <c r="B4" t="n">
         <v>72.91</v>
@@ -927,188 +990,412 @@
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>1386.58597525</v>
+        <v>1527.2254098825</v>
       </c>
       <c r="E4" t="n">
-        <v>5333.022981730769</v>
+        <v>5873.943884163461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>1736.051175</v>
+        <v>1827.5329214475</v>
       </c>
       <c r="E5" t="n">
-        <v>5600.165080645162</v>
+        <v>5895.267488540323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>11.54</v>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>70.77</v>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>2091.95525</v>
+        <v>2218.792398585</v>
       </c>
       <c r="E6" t="n">
-        <v>5102.32987804878</v>
+        <v>6163.312218291666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>67.98</v>
       </c>
       <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2659.5325944</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6486.664864390244</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="B8" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" t="n">
         <v>43.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>2548.38185</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5858.34908045977</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="D8" t="n">
+        <v>2933.22011125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6743.034738505748</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3365.08661325</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7682.846148972602</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Rotor 203_3000RPM</t>
+          <t>Rotor 203_3300RPM</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Vazão (m³/h)</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Altura (m)</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Eficiência (%)</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Potência Hidráulica (W)</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Potência Mecânica (W)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="C13" t="n">
-        <v>26</v>
-      </c>
-      <c r="D13" t="n">
-        <v>873.2418915000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3358.622659615385</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>52.16</v>
+        <v>66.67</v>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1092.58095432</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3524.454691354839</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.43</v>
+        <v>7.27</v>
       </c>
       <c r="B15" t="n">
-        <v>51.43</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>1317.6191009425</v>
+        <v>1280.280416555</v>
       </c>
       <c r="E15" t="n">
-        <v>3213.70512425</v>
+        <v>4924.15544828846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>8.83</v>
       </c>
       <c r="B16" t="n">
-        <v>49.22</v>
+        <v>63.82</v>
       </c>
       <c r="C16" t="n">
+        <v>31</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1531.014022345</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4938.754910790322</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="B17" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1859.56021296</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5165.445036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60.43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>41</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2229.533637905</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5437.886921719512</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57.78</v>
+      </c>
+      <c r="C19" t="n">
         <v>43.5</v>
       </c>
-      <c r="D16" t="n">
-        <v>1604.665518</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3688.886248275862</v>
+      <c r="D19" t="n">
+        <v>2458.27780551</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5651.213346</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="B20" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="C20" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2820.6846011475</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6439.919180702054</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Rotor 203 - Paralelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Vazão (m³/h)</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Altura (m)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Eficiência (%)</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Potência Hidráulica (W)</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Potência Mecânica (W)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="B26" t="n">
+        <v>72.91</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3054.450819765</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11747.88776832692</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="B27" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3655.065842895</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11790.53497708065</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="B28" t="n">
+        <v>70.77</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4437.58479717</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12326.62443658333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="B29" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5319.0651888</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12973.32972878049</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="B30" t="n">
+        <v>65</v>
+      </c>
+      <c r="C30" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5866.4402225</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13486.0694770115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="B31" t="n">
+        <v>57</v>
+      </c>
+      <c r="C31" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6730.173226499999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15365.6922979452</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1120,7 +1407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,7 +1415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22.8" customWidth="1" min="1" max="1"/>
+    <col width="26.4" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -1188,1685 +1475,1685 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1414141414141414</v>
+        <v>0.2194949494949495</v>
       </c>
       <c r="B4" t="n">
-        <v>74.95777777777778</v>
+        <v>74.94050007205649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.7401904911632537</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7985889349046</v>
+        <v>44.689220907804</v>
       </c>
       <c r="E4" t="n">
-        <v>5482.808277991452</v>
+        <v>6037.529722595086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2828282828282828</v>
+        <v>0.438989898989899</v>
       </c>
       <c r="B5" t="n">
-        <v>74.91555555555556</v>
+        <v>74.88100014411299</v>
       </c>
       <c r="C5" t="n">
-        <v>1.050505050505051</v>
+        <v>1.480380982326507</v>
       </c>
       <c r="D5" t="n">
-        <v>57.56473452749719</v>
+        <v>89.30747870697357</v>
       </c>
       <c r="E5" t="n">
-        <v>5479.71992136752</v>
+        <v>6032.736151920941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4242424242424242</v>
+        <v>0.6584848484848485</v>
       </c>
       <c r="B6" t="n">
-        <v>74.87333333333333</v>
+        <v>74.82150021616948</v>
       </c>
       <c r="C6" t="n">
-        <v>1.575757575757576</v>
+        <v>2.220571473489761</v>
       </c>
       <c r="D6" t="n">
-        <v>86.29843677777777</v>
+        <v>133.8547733975087</v>
       </c>
       <c r="E6" t="n">
-        <v>5476.631564743589</v>
+        <v>6027.942581246795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.877979797979798</v>
       </c>
       <c r="B7" t="n">
-        <v>74.83111111111111</v>
+        <v>74.76200028822596</v>
       </c>
       <c r="C7" t="n">
-        <v>2.101010101010101</v>
+        <v>2.960761964653015</v>
       </c>
       <c r="D7" t="n">
-        <v>114.9996956857463</v>
+        <v>178.3311049794094</v>
       </c>
       <c r="E7" t="n">
-        <v>5473.543208119657</v>
+        <v>6023.14901057265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7070707070707071</v>
+        <v>1.097474747474747</v>
       </c>
       <c r="B8" t="n">
-        <v>74.78888888888889</v>
+        <v>74.70250036028246</v>
       </c>
       <c r="C8" t="n">
-        <v>2.626262626262626</v>
+        <v>3.700952455816269</v>
       </c>
       <c r="D8" t="n">
-        <v>143.6685112514029</v>
+        <v>222.7364734526757</v>
       </c>
       <c r="E8" t="n">
-        <v>5470.454851495727</v>
+        <v>6018.355439898503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8484848484848484</v>
+        <v>1.316969696969697</v>
       </c>
       <c r="B9" t="n">
-        <v>74.74666666666667</v>
+        <v>74.64300043233895</v>
       </c>
       <c r="C9" t="n">
-        <v>3.151515151515151</v>
+        <v>4.441142946979522</v>
       </c>
       <c r="D9" t="n">
-        <v>172.3048834747475</v>
+        <v>267.0708788173075</v>
       </c>
       <c r="E9" t="n">
-        <v>5467.366494871794</v>
+        <v>6013.561869224358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9898989898989898</v>
+        <v>1.536464646464647</v>
       </c>
       <c r="B10" t="n">
-        <v>74.70444444444445</v>
+        <v>74.58350050439545</v>
       </c>
       <c r="C10" t="n">
-        <v>3.676767676767676</v>
+        <v>5.181333438142777</v>
       </c>
       <c r="D10" t="n">
-        <v>200.90881235578</v>
+        <v>311.334321073305</v>
       </c>
       <c r="E10" t="n">
-        <v>5464.278138247864</v>
+        <v>6008.768298550214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.131313131313131</v>
+        <v>1.755959595959596</v>
       </c>
       <c r="B11" t="n">
-        <v>74.66222222222223</v>
+        <v>74.52400057645194</v>
       </c>
       <c r="C11" t="n">
-        <v>4.202020202020202</v>
+        <v>5.92152392930603</v>
       </c>
       <c r="D11" t="n">
-        <v>229.4802978945006</v>
+        <v>355.526800220668</v>
       </c>
       <c r="E11" t="n">
-        <v>5461.189781623931</v>
+        <v>6003.974727876069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.272727272727273</v>
+        <v>1.975454545454545</v>
       </c>
       <c r="B12" t="n">
-        <v>74.62</v>
+        <v>74.46450064850843</v>
       </c>
       <c r="C12" t="n">
-        <v>4.727272727272728</v>
+        <v>6.661714420469284</v>
       </c>
       <c r="D12" t="n">
-        <v>258.0193400909091</v>
+        <v>399.6483162593966</v>
       </c>
       <c r="E12" t="n">
-        <v>5458.101425000001</v>
+        <v>5999.181157201923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.414141414141414</v>
+        <v>2.194949494949495</v>
       </c>
       <c r="B13" t="n">
-        <v>74.57777777777778</v>
+        <v>74.40500072056493</v>
       </c>
       <c r="C13" t="n">
-        <v>5.252525252525253</v>
+        <v>7.401904911632538</v>
       </c>
       <c r="D13" t="n">
-        <v>286.5259389450056</v>
+        <v>443.6988691894907</v>
       </c>
       <c r="E13" t="n">
-        <v>5455.013068376069</v>
+        <v>5994.387586527777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.555555555555556</v>
+        <v>2.414444444444444</v>
       </c>
       <c r="B14" t="n">
-        <v>74.53555555555556</v>
+        <v>74.34550079262141</v>
       </c>
       <c r="C14" t="n">
-        <v>5.777777777777778</v>
+        <v>8.142095402795793</v>
       </c>
       <c r="D14" t="n">
-        <v>315.0000944567901</v>
+        <v>487.6784590109504</v>
       </c>
       <c r="E14" t="n">
-        <v>5451.924711752137</v>
+        <v>5989.59401585363</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.696969696969697</v>
+        <v>2.633939393939394</v>
       </c>
       <c r="B15" t="n">
-        <v>74.49333333333334</v>
+        <v>74.2860008646779</v>
       </c>
       <c r="C15" t="n">
-        <v>6.303030303030303</v>
+        <v>8.882285893959045</v>
       </c>
       <c r="D15" t="n">
-        <v>343.4418066262626</v>
+        <v>531.5870857237757</v>
       </c>
       <c r="E15" t="n">
-        <v>5448.836355128205</v>
+        <v>5984.800445179487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.838383838383838</v>
+        <v>2.853434343434343</v>
       </c>
       <c r="B16" t="n">
-        <v>74.4511111111111</v>
+        <v>74.2265009367344</v>
       </c>
       <c r="C16" t="n">
-        <v>6.828282828282828</v>
+        <v>9.622476385122299</v>
       </c>
       <c r="D16" t="n">
-        <v>371.8510754534231</v>
+        <v>575.4247493279665</v>
       </c>
       <c r="E16" t="n">
-        <v>5445.747998504273</v>
+        <v>5980.006874505341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.97979797979798</v>
+        <v>3.072929292929293</v>
       </c>
       <c r="B17" t="n">
-        <v>74.40888888888888</v>
+        <v>74.16700100879089</v>
       </c>
       <c r="C17" t="n">
-        <v>7.353535353535353</v>
+        <v>10.36266687628555</v>
       </c>
       <c r="D17" t="n">
-        <v>400.2279009382715</v>
+        <v>619.1914498235232</v>
       </c>
       <c r="E17" t="n">
-        <v>5442.659641880341</v>
+        <v>5975.213303831198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.121212121212121</v>
+        <v>3.292424242424242</v>
       </c>
       <c r="B18" t="n">
-        <v>74.36666666666666</v>
+        <v>74.10750108084738</v>
       </c>
       <c r="C18" t="n">
-        <v>7.878787878787879</v>
+        <v>11.10285736744881</v>
       </c>
       <c r="D18" t="n">
-        <v>428.5722830808079</v>
+        <v>662.8871872104451</v>
       </c>
       <c r="E18" t="n">
-        <v>5439.571285256408</v>
+        <v>5970.41973315705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.262626262626263</v>
+        <v>3.511919191919192</v>
       </c>
       <c r="B19" t="n">
-        <v>74.32444444444444</v>
+        <v>74.04800115290388</v>
       </c>
       <c r="C19" t="n">
-        <v>8.404040404040405</v>
+        <v>11.84304785861206</v>
       </c>
       <c r="D19" t="n">
-        <v>456.8842218810325</v>
+        <v>706.5119614887327</v>
       </c>
       <c r="E19" t="n">
-        <v>5436.482928632477</v>
+        <v>5965.626162482907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.404040404040404</v>
+        <v>3.731414141414141</v>
       </c>
       <c r="B20" t="n">
-        <v>74.28222222222222</v>
+        <v>73.98850122496037</v>
       </c>
       <c r="C20" t="n">
-        <v>8.929292929292929</v>
+        <v>12.58323834977531</v>
       </c>
       <c r="D20" t="n">
-        <v>485.1637173389449</v>
+        <v>750.065772658386</v>
       </c>
       <c r="E20" t="n">
-        <v>5433.394572008547</v>
+        <v>5960.832591808762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.545454545454545</v>
+        <v>3.950909090909091</v>
       </c>
       <c r="B21" t="n">
-        <v>74.23999999999999</v>
+        <v>73.92900129701685</v>
       </c>
       <c r="C21" t="n">
-        <v>9.454545454545455</v>
+        <v>13.32342884093857</v>
       </c>
       <c r="D21" t="n">
-        <v>513.4107694545454</v>
+        <v>793.5486207194043</v>
       </c>
       <c r="E21" t="n">
-        <v>5430.306215384615</v>
+        <v>5956.039021134614</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.686868686868687</v>
+        <v>4.170404040404041</v>
       </c>
       <c r="B22" t="n">
-        <v>74.19777777777777</v>
+        <v>73.86950136907335</v>
       </c>
       <c r="C22" t="n">
-        <v>9.979797979797979</v>
+        <v>14.06361933210182</v>
       </c>
       <c r="D22" t="n">
-        <v>541.6253782278338</v>
+        <v>836.9605056717888</v>
       </c>
       <c r="E22" t="n">
-        <v>5427.217858760684</v>
+        <v>5951.245450460469</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.828282828282828</v>
+        <v>4.38989898989899</v>
       </c>
       <c r="B23" t="n">
-        <v>74.15555555555555</v>
+        <v>73.81000144112984</v>
       </c>
       <c r="C23" t="n">
-        <v>10.50505050505051</v>
+        <v>14.80380982326508</v>
       </c>
       <c r="D23" t="n">
-        <v>569.8075436588102</v>
+        <v>880.3014275155386</v>
       </c>
       <c r="E23" t="n">
-        <v>5424.129502136751</v>
+        <v>5946.451879786324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.96969696969697</v>
+        <v>4.609393939393939</v>
       </c>
       <c r="B24" t="n">
-        <v>74.11333333333333</v>
+        <v>73.75050151318634</v>
       </c>
       <c r="C24" t="n">
-        <v>11.03030303030303</v>
+        <v>15.54400031442833</v>
       </c>
       <c r="D24" t="n">
-        <v>597.9572657474748</v>
+        <v>923.5713862506541</v>
       </c>
       <c r="E24" t="n">
-        <v>5421.041145512821</v>
+        <v>5941.658309112179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.111111111111111</v>
+        <v>4.828888888888889</v>
       </c>
       <c r="B25" t="n">
-        <v>74.07111111111111</v>
+        <v>73.69100158524283</v>
       </c>
       <c r="C25" t="n">
-        <v>11.55555555555556</v>
+        <v>16.28419080559159</v>
       </c>
       <c r="D25" t="n">
-        <v>626.0745444938271</v>
+        <v>966.7703818771352</v>
       </c>
       <c r="E25" t="n">
-        <v>5417.952788888889</v>
+        <v>5936.864738438033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.252525252525253</v>
+        <v>5.048383838383838</v>
       </c>
       <c r="B26" t="n">
-        <v>74.02888888888889</v>
+        <v>73.63150165729932</v>
       </c>
       <c r="C26" t="n">
-        <v>12.08080808080808</v>
+        <v>17.02438129675484</v>
       </c>
       <c r="D26" t="n">
-        <v>654.1593798978676</v>
+        <v>1009.898414394982</v>
       </c>
       <c r="E26" t="n">
-        <v>5414.864432264957</v>
+        <v>5932.071167763889</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.393939393939394</v>
+        <v>5.267878787878788</v>
       </c>
       <c r="B27" t="n">
-        <v>73.98666666666666</v>
+        <v>73.57200172935582</v>
       </c>
       <c r="C27" t="n">
-        <v>12.60606060606061</v>
+        <v>17.76457178791809</v>
       </c>
       <c r="D27" t="n">
-        <v>682.2117719595959</v>
+        <v>1052.955483804194</v>
       </c>
       <c r="E27" t="n">
-        <v>5411.776075641025</v>
+        <v>5927.277597089743</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.535353535353535</v>
+        <v>5.487373737373737</v>
       </c>
       <c r="B28" t="n">
-        <v>73.94444444444444</v>
+        <v>73.5125018014123</v>
       </c>
       <c r="C28" t="n">
-        <v>13.13131313131313</v>
+        <v>18.50476227908134</v>
       </c>
       <c r="D28" t="n">
-        <v>710.2317206790121</v>
+        <v>1095.941590104771</v>
       </c>
       <c r="E28" t="n">
-        <v>5408.687719017094</v>
+        <v>5922.484026415597</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.676767676767676</v>
+        <v>5.706868686868686</v>
       </c>
       <c r="B29" t="n">
-        <v>73.90222222222222</v>
+        <v>73.45300187346879</v>
       </c>
       <c r="C29" t="n">
-        <v>13.65656565656566</v>
+        <v>19.2449527702446</v>
       </c>
       <c r="D29" t="n">
-        <v>738.2192260561167</v>
+        <v>1138.856733296715</v>
       </c>
       <c r="E29" t="n">
-        <v>5405.599362393163</v>
+        <v>5917.690455741453</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.818181818181818</v>
+        <v>5.926363636363637</v>
       </c>
       <c r="B30" t="n">
-        <v>73.86</v>
+        <v>73.39350194552529</v>
       </c>
       <c r="C30" t="n">
-        <v>14.18181818181818</v>
+        <v>19.98514326140785</v>
       </c>
       <c r="D30" t="n">
-        <v>766.1742880909089</v>
+        <v>1181.700913380024</v>
       </c>
       <c r="E30" t="n">
-        <v>5402.51100576923</v>
+        <v>5912.896885067306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.959595959595959</v>
+        <v>6.145858585858586</v>
       </c>
       <c r="B31" t="n">
-        <v>73.81777777777778</v>
+        <v>73.33400201758178</v>
       </c>
       <c r="C31" t="n">
-        <v>14.70707070707071</v>
+        <v>20.72533375257111</v>
       </c>
       <c r="D31" t="n">
-        <v>794.0969067833894</v>
+        <v>1224.474130354698</v>
       </c>
       <c r="E31" t="n">
-        <v>5399.4226491453</v>
+        <v>5908.103314393163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.101010101010101</v>
+        <v>6.365353535353536</v>
       </c>
       <c r="B32" t="n">
-        <v>73.77555555555556</v>
+        <v>73.27450208963828</v>
       </c>
       <c r="C32" t="n">
-        <v>15.23232323232323</v>
+        <v>21.46552424373436</v>
       </c>
       <c r="D32" t="n">
-        <v>821.9870821335579</v>
+        <v>1267.176384220738</v>
       </c>
       <c r="E32" t="n">
-        <v>5396.334292521368</v>
+        <v>5903.309743719017</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.242424242424242</v>
+        <v>6.584848484848485</v>
       </c>
       <c r="B33" t="n">
-        <v>73.73333333333333</v>
+        <v>73.21500216169477</v>
       </c>
       <c r="C33" t="n">
-        <v>15.75757575757576</v>
+        <v>22.20571473489762</v>
       </c>
       <c r="D33" t="n">
-        <v>849.844814141414</v>
+        <v>1309.807674978144</v>
       </c>
       <c r="E33" t="n">
-        <v>5393.245935897434</v>
+        <v>5898.516173044871</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.383838383838384</v>
+        <v>6.804343434343434</v>
       </c>
       <c r="B34" t="n">
-        <v>73.69111111111111</v>
+        <v>73.15550223375126</v>
       </c>
       <c r="C34" t="n">
-        <v>16.28282828282828</v>
+        <v>22.94590522606087</v>
       </c>
       <c r="D34" t="n">
-        <v>877.6701028069585</v>
+        <v>1352.368002626915</v>
       </c>
       <c r="E34" t="n">
-        <v>5390.157579273504</v>
+        <v>5893.722602370726</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.525252525252525</v>
+        <v>7.023838383838384</v>
       </c>
       <c r="B35" t="n">
-        <v>73.64888888888889</v>
+        <v>73.09600230580774</v>
       </c>
       <c r="C35" t="n">
-        <v>16.80808080808081</v>
+        <v>23.68609571722412</v>
       </c>
       <c r="D35" t="n">
-        <v>905.4629481301907</v>
+        <v>1394.857367167052</v>
       </c>
       <c r="E35" t="n">
-        <v>5387.069222649571</v>
+        <v>5888.929031696581</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.666666666666666</v>
+        <v>7.243333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>73.60666666666667</v>
+        <v>73.03650237786424</v>
       </c>
       <c r="C36" t="n">
-        <v>17.33333333333333</v>
+        <v>24.42628620838737</v>
       </c>
       <c r="D36" t="n">
-        <v>933.2233501111109</v>
+        <v>1437.275768598554</v>
       </c>
       <c r="E36" t="n">
-        <v>5383.98086602564</v>
+        <v>5884.135461022435</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.808080808080808</v>
+        <v>7.462828282828283</v>
       </c>
       <c r="B37" t="n">
-        <v>73.56444444444445</v>
+        <v>72.97700244992073</v>
       </c>
       <c r="C37" t="n">
-        <v>17.85858585858586</v>
+        <v>25.16647669955063</v>
       </c>
       <c r="D37" t="n">
-        <v>960.9513087497194</v>
+        <v>1479.623206921422</v>
       </c>
       <c r="E37" t="n">
-        <v>5380.89250940171</v>
+        <v>5879.341890348291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.949494949494949</v>
+        <v>7.682323232323232</v>
       </c>
       <c r="B38" t="n">
-        <v>73.52222222222223</v>
+        <v>72.91750252197723</v>
       </c>
       <c r="C38" t="n">
-        <v>18.38383838383838</v>
+        <v>25.90666719071388</v>
       </c>
       <c r="D38" t="n">
-        <v>988.6468240460156</v>
+        <v>1521.899682135655</v>
       </c>
       <c r="E38" t="n">
-        <v>5377.804152777778</v>
+        <v>5874.548319674144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.090909090909091</v>
+        <v>7.901818181818181</v>
       </c>
       <c r="B39" t="n">
-        <v>73.48</v>
+        <v>72.78058050383352</v>
       </c>
       <c r="C39" t="n">
-        <v>18.90909090909091</v>
+        <v>26.57776560788609</v>
       </c>
       <c r="D39" t="n">
-        <v>1016.309896</v>
+        <v>1562.443107866118</v>
       </c>
       <c r="E39" t="n">
-        <v>5374.715796153846</v>
+        <v>5878.760204742396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.232323232323232</v>
+        <v>8.121313131313132</v>
       </c>
       <c r="B40" t="n">
-        <v>73.43777777777778</v>
+        <v>72.63248752586102</v>
       </c>
       <c r="C40" t="n">
-        <v>19.43434343434343</v>
+        <v>27.23889497383474</v>
       </c>
       <c r="D40" t="n">
-        <v>1043.940524611672</v>
+        <v>1602.576754214413</v>
       </c>
       <c r="E40" t="n">
-        <v>5371.627439529914</v>
+        <v>5883.413243282534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.373737373737374</v>
+        <v>8.340808080808081</v>
       </c>
       <c r="B41" t="n">
-        <v>73.39555555555555</v>
+        <v>72.48439454788853</v>
       </c>
       <c r="C41" t="n">
-        <v>19.95959595959596</v>
+        <v>27.90002433978338</v>
       </c>
       <c r="D41" t="n">
-        <v>1071.538709881032</v>
+        <v>1642.533776179333</v>
       </c>
       <c r="E41" t="n">
-        <v>5368.539082905982</v>
+        <v>5887.212699801129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.515151515151515</v>
+        <v>8.560303030303031</v>
       </c>
       <c r="B42" t="n">
-        <v>73.35333333333332</v>
+        <v>72.33630156991603</v>
       </c>
       <c r="C42" t="n">
-        <v>20.48484848484848</v>
+        <v>28.56115370573202</v>
       </c>
       <c r="D42" t="n">
-        <v>1099.104451808081</v>
+        <v>1682.314173760878</v>
       </c>
       <c r="E42" t="n">
-        <v>5365.45072628205</v>
+        <v>5890.217850069725</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.656565656565657</v>
+        <v>8.77979797979798</v>
       </c>
       <c r="B43" t="n">
-        <v>73.3111111111111</v>
+        <v>72.18820859194354</v>
       </c>
       <c r="C43" t="n">
-        <v>21.01010101010101</v>
+        <v>29.22228307168066</v>
       </c>
       <c r="D43" t="n">
-        <v>1126.637750392817</v>
+        <v>1721.917946959049</v>
       </c>
       <c r="E43" t="n">
-        <v>5362.36236965812</v>
+        <v>5892.482605603669</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.797979797979798</v>
+        <v>8.999292929292929</v>
       </c>
       <c r="B44" t="n">
-        <v>73.26888888888888</v>
+        <v>72.04011561397104</v>
       </c>
       <c r="C44" t="n">
-        <v>21.53535353535353</v>
+        <v>29.88341243762931</v>
       </c>
       <c r="D44" t="n">
-        <v>1154.138605635241</v>
+        <v>1761.345095773845</v>
       </c>
       <c r="E44" t="n">
-        <v>5359.274013034187</v>
+        <v>5894.056107046035</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.939393939393939</v>
+        <v>9.218787878787879</v>
       </c>
       <c r="B45" t="n">
-        <v>73.22666666666666</v>
+        <v>71.89202263599854</v>
       </c>
       <c r="C45" t="n">
-        <v>22.06060606060606</v>
+        <v>30.54454180357795</v>
       </c>
       <c r="D45" t="n">
-        <v>1181.607017535353</v>
+        <v>1800.595620205266</v>
       </c>
       <c r="E45" t="n">
-        <v>5356.185656410255</v>
+        <v>5894.98324048962</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.08080808080808</v>
+        <v>9.438282828282828</v>
       </c>
       <c r="B46" t="n">
-        <v>73.18444444444444</v>
+        <v>71.75790392403296</v>
       </c>
       <c r="C46" t="n">
-        <v>22.58585858585858</v>
+        <v>31.15733370572081</v>
       </c>
       <c r="D46" t="n">
-        <v>1209.042986093153</v>
+        <v>1840.027850656503</v>
       </c>
       <c r="E46" t="n">
-        <v>5353.097299786324</v>
+        <v>5905.601127604366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.222222222222222</v>
+        <v>9.657777777777778</v>
       </c>
       <c r="B47" t="n">
-        <v>73.14222222222222</v>
+        <v>71.6547311827957</v>
       </c>
       <c r="C47" t="n">
-        <v>23.11111111111111</v>
+        <v>31.66308243727599</v>
       </c>
       <c r="D47" t="n">
-        <v>1236.446511308642</v>
+        <v>1880.112098863572</v>
       </c>
       <c r="E47" t="n">
-        <v>5350.008943162393</v>
+        <v>5937.868186358804</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.363636363636363</v>
+        <v>9.877272727272727</v>
       </c>
       <c r="B48" t="n">
-        <v>73.09999999999999</v>
+        <v>71.55155844155844</v>
       </c>
       <c r="C48" t="n">
-        <v>23.63636363636364</v>
+        <v>32.16883116883117</v>
       </c>
       <c r="D48" t="n">
-        <v>1263.817593181818</v>
+        <v>1920.073297199867</v>
       </c>
       <c r="E48" t="n">
-        <v>5346.920586538461</v>
+        <v>5968.738146321751</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.505050505050505</v>
+        <v>10.09676767676768</v>
       </c>
       <c r="B49" t="n">
-        <v>73.05777777777777</v>
+        <v>71.44838570032118</v>
       </c>
       <c r="C49" t="n">
-        <v>24.16161616161616</v>
+        <v>32.67457990038636</v>
       </c>
       <c r="D49" t="n">
-        <v>1291.156231712682</v>
+        <v>1959.911445665388</v>
       </c>
       <c r="E49" t="n">
-        <v>5343.832229914529</v>
+        <v>5998.2758818644</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.646464646464646</v>
+        <v>10.31626262626263</v>
       </c>
       <c r="B50" t="n">
-        <v>73.01555555555555</v>
+        <v>71.34521295908392</v>
       </c>
       <c r="C50" t="n">
-        <v>24.68686868686869</v>
+        <v>33.18032863194153</v>
       </c>
       <c r="D50" t="n">
-        <v>1318.462426901234</v>
+        <v>1999.626544260134</v>
       </c>
       <c r="E50" t="n">
-        <v>5340.743873290598</v>
+        <v>6026.542311986517</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.787878787878787</v>
+        <v>10.53575757575758</v>
       </c>
       <c r="B51" t="n">
-        <v>72.97333333333333</v>
+        <v>71.24204021784666</v>
       </c>
       <c r="C51" t="n">
-        <v>25.21212121212121</v>
+        <v>33.68607736349672</v>
       </c>
       <c r="D51" t="n">
-        <v>1345.736178747474</v>
+        <v>2039.218592984105</v>
       </c>
       <c r="E51" t="n">
-        <v>5337.655516666665</v>
+        <v>6053.594697237934</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.929292929292929</v>
+        <v>10.75525252525252</v>
       </c>
       <c r="B52" t="n">
-        <v>72.93111111111111</v>
+        <v>71.13886747660941</v>
       </c>
       <c r="C52" t="n">
-        <v>25.73737373737374</v>
+        <v>34.1918260950519</v>
       </c>
       <c r="D52" t="n">
-        <v>1372.977487251403</v>
+        <v>2078.687591837303</v>
       </c>
       <c r="E52" t="n">
-        <v>5334.567160042734</v>
+        <v>6079.486910288544</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.07070707070707</v>
+        <v>10.97474747474747</v>
       </c>
       <c r="B53" t="n">
-        <v>72.84247474747474</v>
+        <v>71.03569473537215</v>
       </c>
       <c r="C53" t="n">
-        <v>26.17676767676767</v>
+        <v>34.69757482660709</v>
       </c>
       <c r="D53" t="n">
-        <v>1399.294742616824</v>
+        <v>2118.033540819726</v>
       </c>
       <c r="E53" t="n">
-        <v>5345.559695892943</v>
+        <v>6104.269682835464</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7.212121212121212</v>
+        <v>11.19424242424242</v>
       </c>
       <c r="B54" t="n">
-        <v>72.70742424242424</v>
+        <v>70.9325219941349</v>
       </c>
       <c r="C54" t="n">
-        <v>26.53030303030303</v>
+        <v>35.20332355816227</v>
       </c>
       <c r="D54" t="n">
-        <v>1424.634448255968</v>
+        <v>2157.256439931375</v>
       </c>
       <c r="E54" t="n">
-        <v>5369.838582803764</v>
+        <v>6127.990831227047</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7.353535353535353</v>
+        <v>11.41373737373737</v>
       </c>
       <c r="B55" t="n">
-        <v>72.57237373737374</v>
+        <v>70.82934925289764</v>
       </c>
       <c r="C55" t="n">
-        <v>26.88383838383838</v>
+        <v>35.70907228971745</v>
       </c>
       <c r="D55" t="n">
-        <v>1449.870381769105</v>
+        <v>2196.35628917225</v>
       </c>
       <c r="E55" t="n">
-        <v>5393.0929098306</v>
+        <v>6150.695462913771</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.494949494949495</v>
+        <v>11.63323232323232</v>
       </c>
       <c r="B56" t="n">
-        <v>72.43732323232322</v>
+        <v>70.67904958677686</v>
       </c>
       <c r="C56" t="n">
-        <v>27.23737373737374</v>
+        <v>36.16299357208448</v>
       </c>
       <c r="D56" t="n">
-        <v>1475.002543156234</v>
+        <v>2233.843620572368</v>
       </c>
       <c r="E56" t="n">
-        <v>5415.362572685597</v>
+        <v>6177.153492892116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.636363636363636</v>
+        <v>11.85272727272727</v>
       </c>
       <c r="B57" t="n">
-        <v>72.30227272727272</v>
+        <v>70.46492689129052</v>
       </c>
       <c r="C57" t="n">
-        <v>27.59090909090909</v>
+        <v>36.54672600127146</v>
       </c>
       <c r="D57" t="n">
-        <v>1500.030932417355</v>
+        <v>2269.096480244226</v>
       </c>
       <c r="E57" t="n">
-        <v>5436.68542227048</v>
+        <v>6208.754459059574</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.777777777777778</v>
+        <v>12.07222222222222</v>
       </c>
       <c r="B58" t="n">
-        <v>72.16722222222222</v>
+        <v>70.25080419580419</v>
       </c>
       <c r="C58" t="n">
-        <v>27.94444444444444</v>
+        <v>36.93045843045843</v>
       </c>
       <c r="D58" t="n">
-        <v>1524.955549552469</v>
+        <v>2304.093964613525</v>
       </c>
       <c r="E58" t="n">
-        <v>5457.09739402474</v>
+        <v>6239.007211221676</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.919191919191919</v>
+        <v>12.29171717171717</v>
       </c>
       <c r="B59" t="n">
-        <v>72.03217171717172</v>
+        <v>70.03668150031785</v>
       </c>
       <c r="C59" t="n">
-        <v>28.2979797979798</v>
+        <v>37.31419085964541</v>
       </c>
       <c r="D59" t="n">
-        <v>1549.776394561575</v>
+        <v>2338.836073680262</v>
       </c>
       <c r="E59" t="n">
-        <v>5476.632627577939</v>
+        <v>6267.953343749627</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8.060606060606061</v>
+        <v>12.51121212121212</v>
       </c>
       <c r="B60" t="n">
-        <v>71.89712121212121</v>
+        <v>69.82255880483153</v>
       </c>
       <c r="C60" t="n">
-        <v>28.65151515151515</v>
+        <v>37.69792328883238</v>
       </c>
       <c r="D60" t="n">
-        <v>1574.493467444674</v>
+        <v>2373.322807444439</v>
       </c>
       <c r="E60" t="n">
-        <v>5495.323577543546</v>
+        <v>6295.632757434973</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.202020202020202</v>
+        <v>12.73070707070707</v>
       </c>
       <c r="B61" t="n">
-        <v>71.76207070707071</v>
+        <v>69.60843610934521</v>
       </c>
       <c r="C61" t="n">
-        <v>29.00505050505051</v>
+        <v>38.08165571801936</v>
       </c>
       <c r="D61" t="n">
-        <v>1599.106768201765</v>
+        <v>2407.554165906057</v>
       </c>
       <c r="E61" t="n">
-        <v>5513.20111621016</v>
+        <v>6322.083744816951</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8.343434343434343</v>
+        <v>12.95020202020202</v>
       </c>
       <c r="B62" t="n">
-        <v>71.6270202020202</v>
+        <v>69.39431341385887</v>
       </c>
       <c r="C62" t="n">
-        <v>29.35858585858585</v>
+        <v>38.46538814720633</v>
       </c>
       <c r="D62" t="n">
-        <v>1623.616296832849</v>
+        <v>2441.530149065113</v>
       </c>
       <c r="E62" t="n">
-        <v>5530.294628813075</v>
+        <v>6347.343070402468</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8.484848484848484</v>
+        <v>13.16969696969697</v>
       </c>
       <c r="B63" t="n">
-        <v>71.49196969696969</v>
+        <v>69.18019071837254</v>
       </c>
       <c r="C63" t="n">
-        <v>29.71212121212121</v>
+        <v>38.8491205763933</v>
       </c>
       <c r="D63" t="n">
-        <v>1648.022053337924</v>
+        <v>2475.250756921609</v>
       </c>
       <c r="E63" t="n">
-        <v>5546.632102004232</v>
+        <v>6371.446046131858</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8.626262626262626</v>
+        <v>13.38919191919192</v>
       </c>
       <c r="B64" t="n">
-        <v>71.35691919191919</v>
+        <v>68.9660680228862</v>
       </c>
       <c r="C64" t="n">
-        <v>30.06565656565657</v>
+        <v>39.23285300558028</v>
       </c>
       <c r="D64" t="n">
-        <v>1672.324037716993</v>
+        <v>2508.715989475545</v>
       </c>
       <c r="E64" t="n">
-        <v>5562.240206080372</v>
+        <v>6394.426602415883</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8.767676767676768</v>
+        <v>13.60868686868687</v>
       </c>
       <c r="B65" t="n">
-        <v>71.22186868686869</v>
+        <v>68.75194532739988</v>
       </c>
       <c r="C65" t="n">
-        <v>30.41919191919192</v>
+        <v>39.61658543476725</v>
       </c>
       <c r="D65" t="n">
-        <v>1696.522249970054</v>
+        <v>2541.925846726921</v>
       </c>
       <c r="E65" t="n">
-        <v>5577.144371477183</v>
+        <v>6416.317355044293</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8.909090909090908</v>
+        <v>13.82818181818182</v>
       </c>
       <c r="B66" t="n">
-        <v>71.08681818181819</v>
+        <v>68.53782263191354</v>
       </c>
       <c r="C66" t="n">
-        <v>30.77272727272727</v>
+        <v>40.00031786395423</v>
       </c>
       <c r="D66" t="n">
-        <v>1720.616690097107</v>
+        <v>2574.880328675735</v>
       </c>
       <c r="E66" t="n">
-        <v>5591.368859990601</v>
+        <v>6437.149668243149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.05050505050505</v>
+        <v>14.04767676767677</v>
       </c>
       <c r="B67" t="n">
-        <v>70.97474747474747</v>
+        <v>68.32369993642722</v>
       </c>
       <c r="C67" t="n">
-        <v>31.25252525252525</v>
+        <v>40.3840502931412</v>
       </c>
       <c r="D67" t="n">
-        <v>1745.172400040812</v>
+        <v>2607.57943532199</v>
       </c>
       <c r="E67" t="n">
-        <v>5584.100439691028</v>
+        <v>6456.953714137137</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.191919191919192</v>
+        <v>14.26717171717172</v>
       </c>
       <c r="B68" t="n">
-        <v>70.9040404040404</v>
+        <v>68.10957724094088</v>
       </c>
       <c r="C68" t="n">
-        <v>31.95959595959596</v>
+        <v>40.76778272232818</v>
       </c>
       <c r="D68" t="n">
-        <v>1770.67496272064</v>
+        <v>2640.023166665684</v>
       </c>
       <c r="E68" t="n">
-        <v>5540.354655794671</v>
+        <v>6475.758528853631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.333333333333332</v>
+        <v>14.48666666666667</v>
       </c>
       <c r="B69" t="n">
-        <v>70.83333333333333</v>
+        <v>67.86313725490197</v>
       </c>
       <c r="C69" t="n">
-        <v>32.66666666666666</v>
+        <v>41.09803921568627</v>
       </c>
       <c r="D69" t="n">
-        <v>1796.123194444444</v>
+        <v>2670.939587246994</v>
       </c>
       <c r="E69" t="n">
-        <v>5498.33630952381</v>
+        <v>6498.946514770834</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.474747474747474</v>
+        <v>14.70616161616162</v>
       </c>
       <c r="B70" t="n">
-        <v>70.76262626262627</v>
+        <v>67.56716668951964</v>
       </c>
       <c r="C70" t="n">
-        <v>33.37373737373737</v>
+        <v>41.34633666986608</v>
       </c>
       <c r="D70" t="n">
-        <v>1821.517095212223</v>
+        <v>2699.583140914933</v>
       </c>
       <c r="E70" t="n">
-        <v>5457.935606114108</v>
+        <v>6529.195470133235</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.616161616161616</v>
+        <v>14.92565656565657</v>
       </c>
       <c r="B71" t="n">
-        <v>70.6919191919192</v>
+        <v>67.2711961241373</v>
       </c>
       <c r="C71" t="n">
-        <v>34.08080808080808</v>
+        <v>41.59463412404589</v>
       </c>
       <c r="D71" t="n">
-        <v>1846.856665023977</v>
+        <v>2727.873702703559</v>
       </c>
       <c r="E71" t="n">
-        <v>5419.051862399932</v>
+        <v>6558.234638074562</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9.757575757575758</v>
+        <v>15.14515151515151</v>
       </c>
       <c r="B72" t="n">
-        <v>70.62121212121212</v>
+        <v>66.97522555875497</v>
       </c>
       <c r="C72" t="n">
-        <v>34.78787878787879</v>
+        <v>41.84293157822569</v>
       </c>
       <c r="D72" t="n">
-        <v>1872.141903879706</v>
+        <v>2755.81127261287</v>
       </c>
       <c r="E72" t="n">
-        <v>5381.592580838876</v>
+        <v>6586.085555360428</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.898989898989898</v>
+        <v>15.36464646464646</v>
       </c>
       <c r="B73" t="n">
-        <v>70.55050505050505</v>
+        <v>66.67925499337264</v>
       </c>
       <c r="C73" t="n">
-        <v>35.49494949494949</v>
+        <v>42.0912290324055</v>
       </c>
       <c r="D73" t="n">
-        <v>1897.37281177941</v>
+        <v>2783.395850642868</v>
       </c>
       <c r="E73" t="n">
-        <v>5345.472634210632</v>
+        <v>6612.76925057229</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10.04040404040404</v>
+        <v>15.58414141414141</v>
       </c>
       <c r="B74" t="n">
-        <v>70.47979797979798</v>
+        <v>66.38328442799032</v>
       </c>
       <c r="C74" t="n">
-        <v>36.2020202020202</v>
+        <v>42.33952648658531</v>
       </c>
       <c r="D74" t="n">
-        <v>1922.549388723089</v>
+        <v>2810.627436793552</v>
       </c>
       <c r="E74" t="n">
-        <v>5310.61354585898</v>
+        <v>6638.306259008496</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.18181818181818</v>
+        <v>15.80363636363636</v>
       </c>
       <c r="B75" t="n">
-        <v>70.40909090909091</v>
+        <v>66.08731386260799</v>
       </c>
       <c r="C75" t="n">
-        <v>36.90909090909091</v>
+        <v>42.58782394076512</v>
       </c>
       <c r="D75" t="n">
-        <v>1947.671634710744</v>
+        <v>2837.506031064922</v>
       </c>
       <c r="E75" t="n">
-        <v>5276.942852664576</v>
+        <v>6662.716637064092</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.32323232323232</v>
+        <v>16.02313131313131</v>
       </c>
       <c r="B76" t="n">
-        <v>70.33838383838383</v>
+        <v>65.79134329722565</v>
       </c>
       <c r="C76" t="n">
-        <v>37.61616161616162</v>
+        <v>42.83612139494493</v>
       </c>
       <c r="D76" t="n">
-        <v>1972.739549742373</v>
+        <v>2864.031633456978</v>
       </c>
       <c r="E76" t="n">
-        <v>5244.393539862914</v>
+        <v>6686.019976110539</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.46464646464646</v>
+        <v>16.24262626262626</v>
       </c>
       <c r="B77" t="n">
-        <v>70.26767676767676</v>
+        <v>65.49537273184332</v>
       </c>
       <c r="C77" t="n">
-        <v>38.32323232323232</v>
+        <v>43.08441884912473</v>
       </c>
       <c r="D77" t="n">
-        <v>1997.753133817977</v>
+        <v>2890.20424396972</v>
       </c>
       <c r="E77" t="n">
-        <v>5212.903538428565</v>
+        <v>6708.23541589545</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10.60606060606061</v>
+        <v>16.46212121212121</v>
       </c>
       <c r="B78" t="n">
-        <v>70.1969696969697</v>
+        <v>65.19940216646098</v>
       </c>
       <c r="C78" t="n">
-        <v>39.03030303030303</v>
+        <v>43.33271630330454</v>
       </c>
       <c r="D78" t="n">
-        <v>2022.712386937557</v>
+        <v>2916.023862603148</v>
       </c>
       <c r="E78" t="n">
-        <v>5182.415277091567</v>
+        <v>6729.381657481678</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10.74747474747475</v>
+        <v>16.68161616161616</v>
       </c>
       <c r="B79" t="n">
-        <v>70.12626262626263</v>
+        <v>64.88809974747474</v>
       </c>
       <c r="C79" t="n">
-        <v>39.73737373737374</v>
+        <v>43.50419625946969</v>
       </c>
       <c r="D79" t="n">
-        <v>2047.617309101112</v>
+        <v>2940.795633932094</v>
       </c>
       <c r="E79" t="n">
-        <v>5152.875282181243</v>
+        <v>6759.797644329452</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.88888888888889</v>
+        <v>16.90111111111111</v>
       </c>
       <c r="B80" t="n">
-        <v>70.05555555555556</v>
+        <v>64.54513888888889</v>
       </c>
       <c r="C80" t="n">
-        <v>40.44444444444444</v>
+        <v>43.51705729166667</v>
       </c>
       <c r="D80" t="n">
-        <v>2072.467900308642</v>
+        <v>2963.742455706693</v>
       </c>
       <c r="E80" t="n">
-        <v>5124.233819444445</v>
+        <v>6810.530491164984</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>11.03030303030303</v>
+        <v>17.12060606060606</v>
       </c>
       <c r="B81" t="n">
-        <v>69.96969696969697</v>
+        <v>64.20217803030303</v>
       </c>
       <c r="C81" t="n">
-        <v>41.02525252525253</v>
+        <v>43.52991832386363</v>
       </c>
       <c r="D81" t="n">
-        <v>2096.810108999081</v>
+        <v>2986.280242218456</v>
       </c>
       <c r="E81" t="n">
-        <v>5111.02304052466</v>
+        <v>6860.293695017895</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11.17171717171717</v>
+        <v>17.34010101010101</v>
       </c>
       <c r="B82" t="n">
-        <v>69.82828282828282</v>
+        <v>63.85921717171718</v>
       </c>
       <c r="C82" t="n">
-        <v>41.14309764309764</v>
+        <v>43.54277935606061</v>
       </c>
       <c r="D82" t="n">
-        <v>2119.400144357719</v>
+        <v>3008.408993467381</v>
       </c>
       <c r="E82" t="n">
-        <v>5151.289683491488</v>
+        <v>6909.088115085258</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11.31313131313131</v>
+        <v>17.55959595959596</v>
       </c>
       <c r="B83" t="n">
-        <v>69.68686868686869</v>
+        <v>63.51625631313131</v>
       </c>
       <c r="C83" t="n">
-        <v>41.26094276094276</v>
+        <v>43.55564038825757</v>
       </c>
       <c r="D83" t="n">
-        <v>2141.881517804306</v>
+        <v>3030.128709453468</v>
       </c>
       <c r="E83" t="n">
-        <v>5191.062962894275</v>
+        <v>6956.914609549349</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>11.45454545454545</v>
+        <v>17.77909090909091</v>
       </c>
       <c r="B84" t="n">
-        <v>69.54545454545455</v>
+        <v>63.17329545454545</v>
       </c>
       <c r="C84" t="n">
-        <v>41.37878787878788</v>
+        <v>43.56850142045455</v>
       </c>
       <c r="D84" t="n">
-        <v>2164.254229338843</v>
+        <v>3051.439390176717</v>
       </c>
       <c r="E84" t="n">
-        <v>5230.347093971573</v>
+        <v>7003.774035579123</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.5959595959596</v>
+        <v>17.99858585858586</v>
       </c>
       <c r="B85" t="n">
-        <v>69.4040404040404</v>
+        <v>62.8303345959596</v>
       </c>
       <c r="C85" t="n">
-        <v>41.496632996633</v>
+        <v>43.58136245265151</v>
       </c>
       <c r="D85" t="n">
-        <v>2186.51827896133</v>
+        <v>3072.34103563713</v>
       </c>
       <c r="E85" t="n">
-        <v>5269.146244078989</v>
+        <v>7049.667249331732</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11.73737373737374</v>
+        <v>18.21808080808081</v>
       </c>
       <c r="B86" t="n">
-        <v>69.26262626262627</v>
+        <v>62.48737373737374</v>
       </c>
       <c r="C86" t="n">
-        <v>41.61447811447812</v>
+        <v>43.59422348484848</v>
       </c>
       <c r="D86" t="n">
-        <v>2208.673666671768</v>
+        <v>3092.833645834704</v>
       </c>
       <c r="E86" t="n">
-        <v>5307.464533367169</v>
+        <v>7094.595105953987</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>11.87878787878788</v>
+        <v>18.43757575757576</v>
       </c>
       <c r="B87" t="n">
-        <v>69.12121212121212</v>
+        <v>62.14441287878788</v>
       </c>
       <c r="C87" t="n">
-        <v>41.73232323232323</v>
+        <v>43.60708451704545</v>
       </c>
       <c r="D87" t="n">
-        <v>2230.720392470156</v>
+        <v>3112.917220769441</v>
       </c>
       <c r="E87" t="n">
-        <v>5345.306035448275</v>
+        <v>7138.558459583881</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>12.02020202020202</v>
+        <v>18.65707070707071</v>
       </c>
       <c r="B88" t="n">
-        <v>68.97979797979798</v>
+        <v>61.80145202020202</v>
       </c>
       <c r="C88" t="n">
-        <v>41.85016835016835</v>
+        <v>43.61994554924242</v>
       </c>
       <c r="D88" t="n">
-        <v>2252.658456356494</v>
+        <v>3132.591760441341</v>
       </c>
       <c r="E88" t="n">
-        <v>5382.674778051239</v>
+        <v>7181.558163352056</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>12.16161616161616</v>
+        <v>18.87656565656566</v>
       </c>
       <c r="B89" t="n">
-        <v>68.83838383838383</v>
+        <v>61.45849116161616</v>
       </c>
       <c r="C89" t="n">
-        <v>41.96801346801347</v>
+        <v>43.63280658143939</v>
       </c>
       <c r="D89" t="n">
-        <v>2274.487858330782</v>
+        <v>3151.857264850403</v>
       </c>
       <c r="E89" t="n">
-        <v>5419.574743665949</v>
+        <v>7223.59506938329</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>12.3030303030303</v>
+        <v>19.09606060606061</v>
       </c>
       <c r="B90" t="n">
-        <v>68.6969696969697</v>
+        <v>61.1155303030303</v>
       </c>
       <c r="C90" t="n">
-        <v>42.08585858585859</v>
+        <v>43.64566761363636</v>
       </c>
       <c r="D90" t="n">
-        <v>2296.208598393021</v>
+        <v>3170.713733996628</v>
       </c>
       <c r="E90" t="n">
-        <v>5456.009870176626</v>
+        <v>7264.67002879798</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12.44444444444444</v>
+        <v>19.31555555555556</v>
       </c>
       <c r="B91" t="n">
-        <v>68.55555555555556</v>
+        <v>60.77256944444444</v>
       </c>
       <c r="C91" t="n">
-        <v>42.2037037037037</v>
+        <v>43.65852864583333</v>
       </c>
       <c r="D91" t="n">
-        <v>2317.82067654321</v>
+        <v>3189.161167880015</v>
       </c>
       <c r="E91" t="n">
-        <v>5491.984051484568</v>
+        <v>7304.783891713634</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>12.58585858585858</v>
+        <v>19.53505050505051</v>
       </c>
       <c r="B92" t="n">
-        <v>68.41414141414141</v>
+        <v>60.42960858585858</v>
       </c>
       <c r="C92" t="n">
-        <v>42.32154882154882</v>
+        <v>43.6713896780303</v>
       </c>
       <c r="D92" t="n">
-        <v>2339.324092781349</v>
+        <v>3207.199566500565</v>
       </c>
       <c r="E92" t="n">
-        <v>5527.501138120534</v>
+        <v>7343.93750724632</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>12.72727272727273</v>
+        <v>19.75454545454545</v>
       </c>
       <c r="B93" t="n">
-        <v>68.27272727272728</v>
+        <v>60.08664772727273</v>
       </c>
       <c r="C93" t="n">
-        <v>42.43939393939394</v>
+        <v>43.68425071022727</v>
       </c>
       <c r="D93" t="n">
-        <v>2360.718847107438</v>
+        <v>3224.828929858277</v>
       </c>
       <c r="E93" t="n">
-        <v>5562.564937846872</v>
+        <v>7382.131723512169</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12.86868686868687</v>
+        <v>19.97404040404041</v>
       </c>
       <c r="B94" t="n">
-        <v>68.13131313131314</v>
+        <v>59.74368686868686</v>
       </c>
       <c r="C94" t="n">
-        <v>42.55723905723906</v>
+        <v>43.69711174242424</v>
       </c>
       <c r="D94" t="n">
-        <v>2382.004939521477</v>
+        <v>3242.049257953152</v>
       </c>
       <c r="E94" t="n">
-        <v>5597.179216249683</v>
+        <v>7419.367387628831</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>13.01010101010101</v>
+        <v>20.19353535353535</v>
       </c>
       <c r="B95" t="n">
-        <v>67.98989898989899</v>
+        <v>59.40072601010101</v>
       </c>
       <c r="C95" t="n">
-        <v>42.67508417508417</v>
+        <v>43.70997277462121</v>
       </c>
       <c r="D95" t="n">
-        <v>2403.182370023467</v>
+        <v>3258.860550785189</v>
       </c>
       <c r="E95" t="n">
-        <v>5631.347697321155</v>
+        <v>7455.645345716943</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13.15151515151515</v>
+        <v>20.4130303030303</v>
       </c>
       <c r="B96" t="n">
-        <v>67.84848484848484</v>
+        <v>59.05776515151515</v>
       </c>
       <c r="C96" t="n">
-        <v>42.79292929292929</v>
+        <v>43.72283380681818</v>
       </c>
       <c r="D96" t="n">
-        <v>2424.251138613407</v>
+        <v>3275.262808354389</v>
       </c>
       <c r="E96" t="n">
-        <v>5665.074064032273</v>
+        <v>7490.966442901607</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>13.29292929292929</v>
+        <v>20.63252525252525</v>
       </c>
       <c r="B97" t="n">
-        <v>67.70707070707071</v>
+        <v>58.71480429292929</v>
       </c>
       <c r="C97" t="n">
-        <v>42.91077441077441</v>
+        <v>43.73569483901515</v>
       </c>
       <c r="D97" t="n">
-        <v>2445.211245291297</v>
+        <v>3291.256030660752</v>
       </c>
       <c r="E97" t="n">
-        <v>5698.361958896114</v>
+        <v>7525.331523313842</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13.43434343434343</v>
+        <v>20.8520202020202</v>
       </c>
       <c r="B98" t="n">
-        <v>67.56565656565657</v>
+        <v>58.37184343434343</v>
       </c>
       <c r="C98" t="n">
-        <v>43.02861952861953</v>
+        <v>43.74855587121212</v>
       </c>
       <c r="D98" t="n">
-        <v>2466.062690057137</v>
+        <v>3306.840217704276</v>
       </c>
       <c r="E98" t="n">
-        <v>5731.214984521849</v>
+        <v>7558.741430092044</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13.57575757575757</v>
+        <v>21.07151515151515</v>
       </c>
       <c r="B99" t="n">
-        <v>67.42424242424242</v>
+        <v>58.02888257575758</v>
       </c>
       <c r="C99" t="n">
-        <v>43.14646464646464</v>
+        <v>43.76141690340908</v>
       </c>
       <c r="D99" t="n">
-        <v>2486.805472910927</v>
+        <v>3322.015369484963</v>
       </c>
       <c r="E99" t="n">
-        <v>5763.636704159705</v>
+        <v>7591.197005383464</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>13.71717171717172</v>
+        <v>21.2910101010101</v>
       </c>
       <c r="B100" t="n">
-        <v>67.28282828282829</v>
+        <v>57.68592171717172</v>
       </c>
       <c r="C100" t="n">
-        <v>43.26430976430976</v>
+        <v>43.77427793560606</v>
       </c>
       <c r="D100" t="n">
-        <v>2507.439593852668</v>
+        <v>3336.781486002813</v>
       </c>
       <c r="E100" t="n">
-        <v>5795.630642236993</v>
+        <v>7622.699090345635</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>13.85858585858586</v>
+        <v>21.51050505050505</v>
       </c>
       <c r="B101" t="n">
-        <v>67.14141414141415</v>
+        <v>57.34296085858586</v>
       </c>
       <c r="C101" t="n">
-        <v>43.38215488215488</v>
+        <v>43.78713896780302</v>
       </c>
       <c r="D101" t="n">
-        <v>2527.965052882359</v>
+        <v>3351.138567257825</v>
       </c>
       <c r="E101" t="n">
-        <v>5827.200284885409</v>
+        <v>7653.248525147851</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>14</v>
+        <v>21.73</v>
       </c>
       <c r="B102" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C102" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="D102" t="n">
-        <v>2548.38185</v>
+        <v>3365.08661325</v>
       </c>
       <c r="E102" t="n">
-        <v>5858.34908045977</v>
+        <v>7682.846148972602</v>
       </c>
     </row>
     <row r="103"/>
@@ -2874,7 +3161,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Rotor 203_3000RPM</t>
+          <t>Rotor 203_3300RPM</t>
         </is>
       </c>
     </row>
@@ -2910,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>55.1</v>
+        <v>66.67</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -2924,1691 +3211,3428 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.2069696969696969</v>
       </c>
       <c r="B108" t="n">
-        <v>55.06909090909091</v>
+        <v>66.6173323329582</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5252525252525252</v>
+        <v>0.7401942395064816</v>
       </c>
       <c r="D108" t="n">
-        <v>18.13491914049587</v>
+        <v>37.45895574675123</v>
       </c>
       <c r="E108" t="n">
-        <v>3452.609605594406</v>
+        <v>5060.692686790791</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.4139393939393939</v>
       </c>
       <c r="B109" t="n">
-        <v>55.03818181818182</v>
+        <v>66.56466466591638</v>
       </c>
       <c r="C109" t="n">
-        <v>1.05050505050505</v>
+        <v>1.480388479012963</v>
       </c>
       <c r="D109" t="n">
-        <v>36.24948080440771</v>
+        <v>74.85868138806553</v>
       </c>
       <c r="E109" t="n">
-        <v>3450.671730419581</v>
+        <v>5056.691702841199</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.6209090909090909</v>
       </c>
       <c r="B110" t="n">
-        <v>55.00727272727273</v>
+        <v>66.51199699887458</v>
       </c>
       <c r="C110" t="n">
-        <v>1.575757575757576</v>
+        <v>2.220582718519445</v>
       </c>
       <c r="D110" t="n">
-        <v>54.34368499173554</v>
+        <v>112.1991769239429</v>
       </c>
       <c r="E110" t="n">
-        <v>3448.733855244755</v>
+        <v>5052.690718891608</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.8278787878787878</v>
       </c>
       <c r="B111" t="n">
-        <v>54.97636363636364</v>
+        <v>66.45932933183278</v>
       </c>
       <c r="C111" t="n">
-        <v>2.101010101010101</v>
+        <v>2.960776958025926</v>
       </c>
       <c r="D111" t="n">
-        <v>72.41753170247932</v>
+        <v>149.4804423543834</v>
       </c>
       <c r="E111" t="n">
-        <v>3446.79598006993</v>
+        <v>5048.689734942016</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.034848484848485</v>
       </c>
       <c r="B112" t="n">
-        <v>54.94545454545455</v>
+        <v>66.40666166479096</v>
       </c>
       <c r="C112" t="n">
-        <v>2.626262626262626</v>
+        <v>3.700971197532408</v>
       </c>
       <c r="D112" t="n">
-        <v>90.47102093663912</v>
+        <v>186.7024776793869</v>
       </c>
       <c r="E112" t="n">
-        <v>3444.858104895105</v>
+        <v>5044.688750992423</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7272727272727273</v>
+        <v>1.241818181818182</v>
       </c>
       <c r="B113" t="n">
-        <v>54.91454545454545</v>
+        <v>66.35399399774916</v>
       </c>
       <c r="C113" t="n">
-        <v>3.151515151515151</v>
+        <v>4.441165437038889</v>
       </c>
       <c r="D113" t="n">
-        <v>108.5041526942149</v>
+        <v>223.8652828989536</v>
       </c>
       <c r="E113" t="n">
-        <v>3442.920229720279</v>
+        <v>5040.687767042831</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.8484848484848485</v>
+        <v>1.448787878787879</v>
       </c>
       <c r="B114" t="n">
-        <v>54.88363636363636</v>
+        <v>66.30132633070735</v>
       </c>
       <c r="C114" t="n">
-        <v>3.676767676767676</v>
+        <v>5.18135967654537</v>
       </c>
       <c r="D114" t="n">
-        <v>126.5169269752066</v>
+        <v>260.9688580130834</v>
       </c>
       <c r="E114" t="n">
-        <v>3440.982354545456</v>
+        <v>5036.686783093242</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.9696969696969697</v>
+        <v>1.655757575757576</v>
       </c>
       <c r="B115" t="n">
-        <v>54.85272727272727</v>
+        <v>66.24865866366554</v>
       </c>
       <c r="C115" t="n">
-        <v>4.202020202020202</v>
+        <v>5.921553916051852</v>
       </c>
       <c r="D115" t="n">
-        <v>144.5093437796143</v>
+        <v>298.0132030217761</v>
       </c>
       <c r="E115" t="n">
-        <v>3439.04447937063</v>
+        <v>5032.685799143646</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.090909090909091</v>
+        <v>1.862727272727273</v>
       </c>
       <c r="B116" t="n">
-        <v>54.82181818181818</v>
+        <v>66.19599099662373</v>
       </c>
       <c r="C116" t="n">
-        <v>4.727272727272727</v>
+        <v>6.661748155558334</v>
       </c>
       <c r="D116" t="n">
-        <v>162.481403107438</v>
+        <v>334.998317925032</v>
       </c>
       <c r="E116" t="n">
-        <v>3437.106604195805</v>
+        <v>5028.684815194055</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.212121212121212</v>
+        <v>2.069696969696969</v>
       </c>
       <c r="B117" t="n">
-        <v>54.79090909090909</v>
+        <v>66.14332332958193</v>
       </c>
       <c r="C117" t="n">
-        <v>5.252525252525253</v>
+        <v>7.401942395064816</v>
       </c>
       <c r="D117" t="n">
-        <v>180.4331049586777</v>
+        <v>371.924202722851</v>
       </c>
       <c r="E117" t="n">
-        <v>3435.168729020979</v>
+        <v>5024.683831244463</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.333333333333333</v>
+        <v>2.276666666666666</v>
       </c>
       <c r="B118" t="n">
-        <v>54.76</v>
+        <v>66.09065566254012</v>
       </c>
       <c r="C118" t="n">
-        <v>5.777777777777778</v>
+        <v>8.142136634571298</v>
       </c>
       <c r="D118" t="n">
-        <v>198.3644493333333</v>
+        <v>408.7908574152331</v>
       </c>
       <c r="E118" t="n">
-        <v>3433.230853846154</v>
+        <v>5020.682847294871</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.454545454545455</v>
+        <v>2.483636363636363</v>
       </c>
       <c r="B119" t="n">
-        <v>54.72909090909091</v>
+        <v>66.03798799549831</v>
       </c>
       <c r="C119" t="n">
-        <v>6.303030303030303</v>
+        <v>8.882330874077779</v>
       </c>
       <c r="D119" t="n">
-        <v>216.2754362314049</v>
+        <v>445.5982820021782</v>
       </c>
       <c r="E119" t="n">
-        <v>3431.292978671328</v>
+        <v>5016.681863345279</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.575757575757576</v>
+        <v>2.69060606060606</v>
       </c>
       <c r="B120" t="n">
-        <v>54.69818181818182</v>
+        <v>65.98532032845651</v>
       </c>
       <c r="C120" t="n">
-        <v>6.828282828282828</v>
+        <v>9.622525113584262</v>
       </c>
       <c r="D120" t="n">
-        <v>234.1660656528926</v>
+        <v>482.3464764836864</v>
       </c>
       <c r="E120" t="n">
-        <v>3429.355103496504</v>
+        <v>5012.680879395688</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.696969696969697</v>
+        <v>2.897575757575757</v>
       </c>
       <c r="B121" t="n">
-        <v>54.66727272727273</v>
+        <v>65.93265266141469</v>
       </c>
       <c r="C121" t="n">
-        <v>7.353535353535353</v>
+        <v>10.36271935309074</v>
       </c>
       <c r="D121" t="n">
-        <v>252.0363375977962</v>
+        <v>519.0354408597576</v>
       </c>
       <c r="E121" t="n">
-        <v>3427.417228321679</v>
+        <v>5008.679895446096</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.818181818181818</v>
+        <v>3.104545454545454</v>
       </c>
       <c r="B122" t="n">
-        <v>54.63636363636364</v>
+        <v>65.87998499437289</v>
       </c>
       <c r="C122" t="n">
-        <v>7.878787878787879</v>
+        <v>11.10291359259722</v>
       </c>
       <c r="D122" t="n">
-        <v>269.8862520661157</v>
+        <v>555.665175130392</v>
       </c>
       <c r="E122" t="n">
-        <v>3425.479353146853</v>
+        <v>5004.678911496502</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.939393939393939</v>
+        <v>3.311515151515151</v>
       </c>
       <c r="B123" t="n">
-        <v>54.60545454545455</v>
+        <v>65.82731732733109</v>
       </c>
       <c r="C123" t="n">
-        <v>8.404040404040403</v>
+        <v>11.8431078321037</v>
       </c>
       <c r="D123" t="n">
-        <v>287.7158090578512</v>
+        <v>592.2356792955894</v>
       </c>
       <c r="E123" t="n">
-        <v>3423.541477972029</v>
+        <v>5000.677927546911</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.060606060606061</v>
+        <v>3.518484848484848</v>
       </c>
       <c r="B124" t="n">
-        <v>54.57454545454546</v>
+        <v>65.77464966028927</v>
       </c>
       <c r="C124" t="n">
-        <v>8.929292929292929</v>
+        <v>12.58330207161019</v>
       </c>
       <c r="D124" t="n">
-        <v>305.5250085730028</v>
+        <v>628.7469533553499</v>
       </c>
       <c r="E124" t="n">
-        <v>3421.603602797203</v>
+        <v>4996.676943597317</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.181818181818182</v>
+        <v>3.725454545454545</v>
       </c>
       <c r="B125" t="n">
-        <v>54.54363636363637</v>
+        <v>65.72198199324747</v>
       </c>
       <c r="C125" t="n">
-        <v>9.454545454545453</v>
+        <v>13.32349631111667</v>
       </c>
       <c r="D125" t="n">
-        <v>323.3138506115703</v>
+        <v>665.1989973096737</v>
       </c>
       <c r="E125" t="n">
-        <v>3419.665727622379</v>
+        <v>4992.675959647727</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.303030303030303</v>
+        <v>3.932424242424242</v>
       </c>
       <c r="B126" t="n">
-        <v>54.51272727272728</v>
+        <v>65.66931432620565</v>
       </c>
       <c r="C126" t="n">
-        <v>9.979797979797979</v>
+        <v>14.06369055062315</v>
       </c>
       <c r="D126" t="n">
-        <v>341.0823351735538</v>
+        <v>701.5918111585601</v>
       </c>
       <c r="E126" t="n">
-        <v>3417.727852447553</v>
+        <v>4988.674975698133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.424242424242424</v>
+        <v>4.139393939393939</v>
       </c>
       <c r="B127" t="n">
-        <v>54.48181818181818</v>
+        <v>65.61664665916385</v>
       </c>
       <c r="C127" t="n">
-        <v>10.50505050505051</v>
+        <v>14.80388479012963</v>
       </c>
       <c r="D127" t="n">
-        <v>358.8304622589532</v>
+        <v>737.9253949020099</v>
       </c>
       <c r="E127" t="n">
-        <v>3415.789977272728</v>
+        <v>4984.673991748541</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.545454545454545</v>
+        <v>4.346363636363636</v>
       </c>
       <c r="B128" t="n">
-        <v>54.45090909090909</v>
+        <v>65.56397899212205</v>
       </c>
       <c r="C128" t="n">
-        <v>11.03030303030303</v>
+        <v>15.54407902963611</v>
       </c>
       <c r="D128" t="n">
-        <v>376.5582318677686</v>
+        <v>774.1997485400229</v>
       </c>
       <c r="E128" t="n">
-        <v>3413.852102097902</v>
+        <v>4980.67300779895</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.666666666666667</v>
+        <v>4.553333333333333</v>
       </c>
       <c r="B129" t="n">
-        <v>54.42</v>
+        <v>65.51131132508023</v>
       </c>
       <c r="C129" t="n">
-        <v>11.55555555555556</v>
+        <v>16.2842732691426</v>
       </c>
       <c r="D129" t="n">
-        <v>394.265644</v>
+        <v>810.4148720725988</v>
       </c>
       <c r="E129" t="n">
-        <v>3411.914226923077</v>
+        <v>4976.672023849357</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.787878787878788</v>
+        <v>4.76030303030303</v>
       </c>
       <c r="B130" t="n">
-        <v>54.38909090909091</v>
+        <v>65.45864365803843</v>
       </c>
       <c r="C130" t="n">
-        <v>12.08080808080808</v>
+        <v>17.02446750864908</v>
       </c>
       <c r="D130" t="n">
-        <v>411.9526986556474</v>
+        <v>846.5707654997378</v>
       </c>
       <c r="E130" t="n">
-        <v>3409.976351748252</v>
+        <v>4972.671039899766</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.909090909090909</v>
+        <v>4.967272727272727</v>
       </c>
       <c r="B131" t="n">
-        <v>54.35818181818182</v>
+        <v>65.40597599099662</v>
       </c>
       <c r="C131" t="n">
-        <v>12.60606060606061</v>
+        <v>17.76466174815556</v>
       </c>
       <c r="D131" t="n">
-        <v>429.6193958347108</v>
+        <v>882.66742882144</v>
       </c>
       <c r="E131" t="n">
-        <v>3408.038476573427</v>
+        <v>4968.670055950174</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.03030303030303</v>
+        <v>5.174242424242424</v>
       </c>
       <c r="B132" t="n">
-        <v>54.32727272727273</v>
+        <v>65.35330832395481</v>
       </c>
       <c r="C132" t="n">
-        <v>13.13131313131313</v>
+        <v>18.50485598766204</v>
       </c>
       <c r="D132" t="n">
-        <v>447.2657355371901</v>
+        <v>918.7048620377051</v>
       </c>
       <c r="E132" t="n">
-        <v>3406.100601398602</v>
+        <v>4964.669072000582</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3.151515151515151</v>
+        <v>5.381212121212121</v>
       </c>
       <c r="B133" t="n">
-        <v>54.29636363636364</v>
+        <v>65.300640656913</v>
       </c>
       <c r="C133" t="n">
-        <v>13.65656565656566</v>
+        <v>19.24505022716852</v>
       </c>
       <c r="D133" t="n">
-        <v>464.8917177630854</v>
+        <v>954.6830651485334</v>
       </c>
       <c r="E133" t="n">
-        <v>3404.162726223776</v>
+        <v>4960.668088050989</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3.272727272727273</v>
+        <v>5.588181818181817</v>
       </c>
       <c r="B134" t="n">
-        <v>54.26545454545455</v>
+        <v>65.2479729898712</v>
       </c>
       <c r="C134" t="n">
-        <v>14.18181818181818</v>
+        <v>19.985244466675</v>
       </c>
       <c r="D134" t="n">
-        <v>482.4973425123968</v>
+        <v>990.6020381539247</v>
       </c>
       <c r="E134" t="n">
-        <v>3402.224851048952</v>
+        <v>4956.667104101398</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.393939393939394</v>
+        <v>5.795151515151514</v>
       </c>
       <c r="B135" t="n">
-        <v>54.23454545454545</v>
+        <v>65.19530532282938</v>
       </c>
       <c r="C135" t="n">
-        <v>14.70707070707071</v>
+        <v>20.72543870618148</v>
       </c>
       <c r="D135" t="n">
-        <v>500.082609785124</v>
+        <v>1026.461781053879</v>
       </c>
       <c r="E135" t="n">
-        <v>3400.286975874127</v>
+        <v>4952.666120151806</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.515151515151515</v>
+        <v>6.002121212121211</v>
       </c>
       <c r="B136" t="n">
-        <v>54.20363636363636</v>
+        <v>65.14263765578758</v>
       </c>
       <c r="C136" t="n">
-        <v>15.23232323232323</v>
+        <v>21.46563294568796</v>
       </c>
       <c r="D136" t="n">
-        <v>517.6475195812673</v>
+        <v>1062.262293848396</v>
       </c>
       <c r="E136" t="n">
-        <v>3398.349100699301</v>
+        <v>4948.665136202213</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.636363636363637</v>
+        <v>6.209090909090908</v>
       </c>
       <c r="B137" t="n">
-        <v>54.17272727272727</v>
+        <v>65.08996998874578</v>
       </c>
       <c r="C137" t="n">
-        <v>15.75757575757576</v>
+        <v>22.20582718519445</v>
       </c>
       <c r="D137" t="n">
-        <v>535.1920719008264</v>
+        <v>1098.003576537477</v>
       </c>
       <c r="E137" t="n">
-        <v>3396.411225524475</v>
+        <v>4944.664152252621</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.757575757575758</v>
+        <v>6.416060606060605</v>
       </c>
       <c r="B138" t="n">
-        <v>54.14181818181818</v>
+        <v>65.03730232170396</v>
       </c>
       <c r="C138" t="n">
-        <v>16.28282828282828</v>
+        <v>22.94602142470093</v>
       </c>
       <c r="D138" t="n">
-        <v>552.7162667438017</v>
+        <v>1133.685629121121</v>
       </c>
       <c r="E138" t="n">
-        <v>3394.47335034965</v>
+        <v>4940.663168303028</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.878787878787879</v>
+        <v>6.623030303030302</v>
       </c>
       <c r="B139" t="n">
-        <v>54.11090909090909</v>
+        <v>64.98463465466216</v>
       </c>
       <c r="C139" t="n">
-        <v>16.80808080808081</v>
+        <v>23.68621566420741</v>
       </c>
       <c r="D139" t="n">
-        <v>570.2201041101928</v>
+        <v>1169.308451599327</v>
       </c>
       <c r="E139" t="n">
-        <v>3392.535475174825</v>
+        <v>4936.662184353436</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4</v>
+        <v>6.829999999999999</v>
       </c>
       <c r="B140" t="n">
-        <v>54.08</v>
+        <v>64.93196698762036</v>
       </c>
       <c r="C140" t="n">
-        <v>17.33333333333333</v>
+        <v>24.42640990371389</v>
       </c>
       <c r="D140" t="n">
-        <v>587.703584</v>
+        <v>1204.872043972097</v>
       </c>
       <c r="E140" t="n">
-        <v>3390.597600000001</v>
+        <v>4932.661200403845</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.121212121212121</v>
+        <v>7.036969696969696</v>
       </c>
       <c r="B141" t="n">
-        <v>54.04909090909091</v>
+        <v>64.87929932057854</v>
       </c>
       <c r="C141" t="n">
-        <v>17.85858585858586</v>
+        <v>25.16660414322038</v>
       </c>
       <c r="D141" t="n">
-        <v>605.1667064132231</v>
+        <v>1240.37640623943</v>
       </c>
       <c r="E141" t="n">
-        <v>3388.659724825175</v>
+        <v>4928.660216454251</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4.242424242424242</v>
+        <v>7.243939393939393</v>
       </c>
       <c r="B142" t="n">
-        <v>54.01818181818182</v>
+        <v>64.82663165353674</v>
       </c>
       <c r="C142" t="n">
-        <v>18.38383838383838</v>
+        <v>25.90679838272685</v>
       </c>
       <c r="D142" t="n">
-        <v>622.6094713498621</v>
+        <v>1275.821538401327</v>
       </c>
       <c r="E142" t="n">
-        <v>3386.72184965035</v>
+        <v>4924.659232504662</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4.363636363636363</v>
+        <v>7.45090909090909</v>
       </c>
       <c r="B143" t="n">
-        <v>53.98727272727272</v>
+        <v>64.70403263403263</v>
       </c>
       <c r="C143" t="n">
-        <v>18.90909090909091</v>
+        <v>26.57983682983683</v>
       </c>
       <c r="D143" t="n">
-        <v>640.0318788099173</v>
+        <v>1309.791832950903</v>
       </c>
       <c r="E143" t="n">
-        <v>3384.783974475525</v>
+        <v>4927.764761447346</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4.484848484848485</v>
+        <v>7.657878787878787</v>
       </c>
       <c r="B144" t="n">
-        <v>53.95636363636363</v>
+        <v>64.57135975135975</v>
       </c>
       <c r="C144" t="n">
-        <v>19.43434343434344</v>
+        <v>27.24320124320124</v>
       </c>
       <c r="D144" t="n">
-        <v>657.4339287933884</v>
+        <v>1343.414664636336</v>
       </c>
       <c r="E144" t="n">
-        <v>3382.846099300699</v>
+        <v>4931.19238316971</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4.606060606060606</v>
+        <v>7.864848484848483</v>
       </c>
       <c r="B145" t="n">
-        <v>53.92545454545455</v>
+        <v>64.43868686868687</v>
       </c>
       <c r="C145" t="n">
-        <v>19.95959595959596</v>
+        <v>27.90656565656565</v>
       </c>
       <c r="D145" t="n">
-        <v>674.8156213002756</v>
+        <v>1376.888292279313</v>
       </c>
       <c r="E145" t="n">
-        <v>3380.908224125875</v>
+        <v>4933.922393834113</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>4.727272727272728</v>
+        <v>8.07181818181818</v>
       </c>
       <c r="B146" t="n">
-        <v>53.89454545454546</v>
+        <v>64.30601398601398</v>
       </c>
       <c r="C146" t="n">
-        <v>20.48484848484848</v>
+        <v>28.56993006993007</v>
       </c>
       <c r="D146" t="n">
-        <v>692.1769563305785</v>
+        <v>1410.212715879834</v>
       </c>
       <c r="E146" t="n">
-        <v>3378.970348951049</v>
+        <v>4936.003386875935</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4.848484848484849</v>
+        <v>8.278787878787877</v>
       </c>
       <c r="B147" t="n">
-        <v>53.86363636363637</v>
+        <v>64.1733411033411</v>
       </c>
       <c r="C147" t="n">
-        <v>21.01010101010101</v>
+        <v>29.23329448329448</v>
       </c>
       <c r="D147" t="n">
-        <v>709.5179338842976</v>
+        <v>1443.387935437901</v>
       </c>
       <c r="E147" t="n">
-        <v>3377.032473776224</v>
+        <v>4937.479544985025</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4.96969696969697</v>
+        <v>8.485757575757575</v>
       </c>
       <c r="B148" t="n">
-        <v>53.83272727272728</v>
+        <v>64.04066822066822</v>
       </c>
       <c r="C148" t="n">
-        <v>21.53535353535353</v>
+        <v>29.89665889665889</v>
       </c>
       <c r="D148" t="n">
-        <v>726.8385539614325</v>
+        <v>1476.413950953512</v>
       </c>
       <c r="E148" t="n">
-        <v>3375.094598601399</v>
+        <v>4938.391129446606</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5.090909090909091</v>
+        <v>8.692727272727272</v>
       </c>
       <c r="B149" t="n">
-        <v>53.80181818181818</v>
+        <v>63.90799533799534</v>
       </c>
       <c r="C149" t="n">
-        <v>22.06060606060606</v>
+        <v>30.5600233100233</v>
       </c>
       <c r="D149" t="n">
-        <v>744.1388165619834</v>
+        <v>1509.290762426668</v>
       </c>
       <c r="E149" t="n">
-        <v>3373.156723426574</v>
+        <v>4938.774905749628</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5.212121212121212</v>
+        <v>8.899696969696969</v>
       </c>
       <c r="B150" t="n">
-        <v>53.77090909090909</v>
+        <v>63.78906134515891</v>
       </c>
       <c r="C150" t="n">
-        <v>22.58585858585858</v>
+        <v>31.169992609017</v>
       </c>
       <c r="D150" t="n">
-        <v>761.4187216859503</v>
+        <v>1542.350561364892</v>
       </c>
       <c r="E150" t="n">
-        <v>3371.218848251748</v>
+        <v>4948.190333926205</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5.333333333333334</v>
+        <v>9.106666666666666</v>
       </c>
       <c r="B151" t="n">
-        <v>53.74</v>
+        <v>63.69718699186992</v>
       </c>
       <c r="C151" t="n">
-        <v>23.11111111111111</v>
+        <v>31.67479674796748</v>
       </c>
       <c r="D151" t="n">
-        <v>778.6782693333333</v>
+        <v>1575.946095514596</v>
       </c>
       <c r="E151" t="n">
-        <v>3369.280973076923</v>
+        <v>4975.394500726266</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5.454545454545455</v>
+        <v>9.313636363636363</v>
       </c>
       <c r="B152" t="n">
-        <v>53.70909090909091</v>
+        <v>63.60531263858093</v>
       </c>
       <c r="C152" t="n">
-        <v>23.63636363636364</v>
+        <v>32.17960088691796</v>
       </c>
       <c r="D152" t="n">
-        <v>795.9174595041324</v>
+        <v>1609.438307684462</v>
       </c>
       <c r="E152" t="n">
-        <v>3367.343097902099</v>
+        <v>5001.424080243177</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5.575757575757576</v>
+        <v>9.52060606060606</v>
       </c>
       <c r="B153" t="n">
-        <v>53.67818181818182</v>
+        <v>63.51343828529194</v>
       </c>
       <c r="C153" t="n">
-        <v>24.16161616161616</v>
+        <v>32.68440502586844</v>
       </c>
       <c r="D153" t="n">
-        <v>813.1362921983472</v>
+        <v>1642.827197874488</v>
       </c>
       <c r="E153" t="n">
-        <v>3365.405222727273</v>
+        <v>5026.333496278284</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5.696969696969697</v>
+        <v>9.727575757575757</v>
       </c>
       <c r="B154" t="n">
-        <v>53.64727272727273</v>
+        <v>63.42156393200295</v>
       </c>
       <c r="C154" t="n">
-        <v>24.68686868686869</v>
+        <v>33.18920916481892</v>
       </c>
       <c r="D154" t="n">
-        <v>830.334767415978</v>
+        <v>1676.112766084676</v>
       </c>
       <c r="E154" t="n">
-        <v>3363.467347552448</v>
+        <v>5050.173861513344</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5.818181818181818</v>
+        <v>9.934545454545454</v>
       </c>
       <c r="B155" t="n">
-        <v>53.61636363636364</v>
+        <v>63.32968957871397</v>
       </c>
       <c r="C155" t="n">
-        <v>25.21212121212121</v>
+        <v>33.6940133037694</v>
       </c>
       <c r="D155" t="n">
-        <v>847.5128851570248</v>
+        <v>1709.295012315025</v>
       </c>
       <c r="E155" t="n">
-        <v>3361.529472377622</v>
+        <v>5072.993225546699</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5.939393939393939</v>
+        <v>10.14151515151515</v>
       </c>
       <c r="B156" t="n">
-        <v>53.58545454545455</v>
+        <v>63.23781522542498</v>
       </c>
       <c r="C156" t="n">
-        <v>25.73737373737374</v>
+        <v>34.19881744271988</v>
       </c>
       <c r="D156" t="n">
-        <v>864.6706454214876</v>
+        <v>1742.373936565535</v>
       </c>
       <c r="E156" t="n">
-        <v>3359.591597202797</v>
+        <v>5094.83680096209</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.060606060606061</v>
+        <v>10.34848484848485</v>
       </c>
       <c r="B157" t="n">
-        <v>53.52002658160553</v>
+        <v>63.14594087213599</v>
       </c>
       <c r="C157" t="n">
-        <v>26.17721070352649</v>
+        <v>34.70362158167036</v>
       </c>
       <c r="D157" t="n">
-        <v>881.2396740458814</v>
+        <v>1775.349538836206</v>
       </c>
       <c r="E157" t="n">
-        <v>3366.438403336701</v>
+        <v>5115.74716966688</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>6.181818181818182</v>
+        <v>10.55545454545454</v>
       </c>
       <c r="B158" t="n">
-        <v>53.42007974481659</v>
+        <v>63.054066518847</v>
       </c>
       <c r="C158" t="n">
-        <v>26.53163211057948</v>
+        <v>35.20842572062084</v>
       </c>
       <c r="D158" t="n">
-        <v>897.1858685803974</v>
+        <v>1808.221819127038</v>
       </c>
       <c r="E158" t="n">
-        <v>3381.570590309236</v>
+        <v>5135.764471479906</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6.303030303030303</v>
+        <v>10.76242424242424</v>
       </c>
       <c r="B159" t="n">
-        <v>53.32013290802765</v>
+        <v>62.96219216555802</v>
       </c>
       <c r="C159" t="n">
-        <v>26.88605351763247</v>
+        <v>35.71322985957132</v>
       </c>
       <c r="D159" t="n">
-        <v>913.0662357052502</v>
+        <v>1840.990777438032</v>
       </c>
       <c r="E159" t="n">
-        <v>3396.058983169253</v>
+        <v>5154.926576725283</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>6.424242424242425</v>
+        <v>10.96939393939394</v>
       </c>
       <c r="B160" t="n">
-        <v>53.2201860712387</v>
+        <v>62.82789001122335</v>
       </c>
       <c r="C160" t="n">
-        <v>27.24047492468545</v>
+        <v>36.165544332211</v>
       </c>
       <c r="D160" t="n">
-        <v>928.8807754204404</v>
+        <v>1872.391983680114</v>
       </c>
       <c r="E160" t="n">
-        <v>3409.928710819517</v>
+        <v>5177.281355094827</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6.545454545454546</v>
+        <v>11.17636363636363</v>
       </c>
       <c r="B161" t="n">
-        <v>53.12023923444976</v>
+        <v>62.63778451178451</v>
       </c>
       <c r="C161" t="n">
-        <v>27.59489633173844</v>
+        <v>36.54882154882154</v>
       </c>
       <c r="D161" t="n">
-        <v>944.6294877259679</v>
+        <v>1901.947728321071</v>
       </c>
       <c r="E161" t="n">
-        <v>3423.20361116739</v>
+        <v>5203.855138750422</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>6.666666666666667</v>
+        <v>11.38333333333333</v>
       </c>
       <c r="B162" t="n">
-        <v>53.02029239766082</v>
+        <v>62.44767901234568</v>
       </c>
       <c r="C162" t="n">
-        <v>27.94931773879143</v>
+        <v>36.93209876543209</v>
       </c>
       <c r="D162" t="n">
-        <v>960.3123726218323</v>
+        <v>1931.289680147418</v>
       </c>
       <c r="E162" t="n">
-        <v>3435.906312979495</v>
+        <v>5229.298482097304</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>6.787878787878788</v>
+        <v>11.59030303030303</v>
       </c>
       <c r="B163" t="n">
-        <v>52.92034556087187</v>
+        <v>62.25757351290684</v>
       </c>
       <c r="C163" t="n">
-        <v>28.30373914584441</v>
+        <v>37.31537598204265</v>
       </c>
       <c r="D163" t="n">
-        <v>975.9294301080341</v>
+        <v>1960.417839159152</v>
       </c>
       <c r="E163" t="n">
-        <v>3448.058311586444</v>
+        <v>5253.646218391495</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>6.909090909090909</v>
+        <v>11.79727272727273</v>
       </c>
       <c r="B164" t="n">
-        <v>52.82039872408293</v>
+        <v>62.06746801346802</v>
       </c>
       <c r="C164" t="n">
-        <v>28.6581605528974</v>
+        <v>37.69865319865319</v>
       </c>
       <c r="D164" t="n">
-        <v>991.480660184573</v>
+        <v>1989.332205356274</v>
       </c>
       <c r="E164" t="n">
-        <v>3459.680038970026</v>
+        <v>5276.931764308611</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>7.03030303030303</v>
+        <v>12.00424242424242</v>
       </c>
       <c r="B165" t="n">
-        <v>52.72045188729399</v>
+        <v>61.87736251402918</v>
       </c>
       <c r="C165" t="n">
-        <v>29.01258195995038</v>
+        <v>38.08193041526374</v>
       </c>
       <c r="D165" t="n">
-        <v>1006.966062851449</v>
+        <v>2018.032778738785</v>
       </c>
       <c r="E165" t="n">
-        <v>3470.790928713231</v>
+        <v>5299.187191230019</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>7.151515151515151</v>
+        <v>12.21121212121212</v>
       </c>
       <c r="B166" t="n">
-        <v>52.62050505050505</v>
+        <v>61.68725701459035</v>
       </c>
       <c r="C166" t="n">
-        <v>29.36700336700337</v>
+        <v>38.46520763187429</v>
       </c>
       <c r="D166" t="n">
-        <v>1022.385638108662</v>
+        <v>2046.519559306685</v>
       </c>
       <c r="E166" t="n">
-        <v>3481.409476247107</v>
+        <v>5320.443292267142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7.272727272727273</v>
+        <v>12.41818181818182</v>
       </c>
       <c r="B167" t="n">
-        <v>52.52055821371611</v>
+        <v>61.49715151515151</v>
       </c>
       <c r="C167" t="n">
-        <v>29.72142477405636</v>
+        <v>38.84848484848484</v>
       </c>
       <c r="D167" t="n">
-        <v>1037.739385956213</v>
+        <v>2074.792547059972</v>
       </c>
       <c r="E167" t="n">
-        <v>3491.553294787029</v>
+        <v>5340.729645318181</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7.393939393939394</v>
+        <v>12.62515151515151</v>
       </c>
       <c r="B168" t="n">
-        <v>52.42061137692716</v>
+        <v>61.30704601571269</v>
       </c>
       <c r="C168" t="n">
-        <v>30.07584618110934</v>
+        <v>39.2317620650954</v>
       </c>
       <c r="D168" t="n">
-        <v>1053.0273063941</v>
+        <v>2102.851741998648</v>
       </c>
       <c r="E168" t="n">
-        <v>3501.239167313961</v>
+        <v>5360.074672428646</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>7.515151515151516</v>
+        <v>12.83212121212121</v>
       </c>
       <c r="B169" t="n">
-        <v>52.32066454013822</v>
+        <v>61.11694051627385</v>
       </c>
       <c r="C169" t="n">
-        <v>30.43026758816233</v>
+        <v>39.61503928170595</v>
       </c>
       <c r="D169" t="n">
-        <v>1068.249399422325</v>
+        <v>2130.697144122712</v>
       </c>
       <c r="E169" t="n">
-        <v>3510.483094923177</v>
+        <v>5378.505695705971</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7.636363636363637</v>
+        <v>13.03909090909091</v>
       </c>
       <c r="B170" t="n">
-        <v>52.22071770334928</v>
+        <v>60.92683501683502</v>
       </c>
       <c r="C170" t="n">
-        <v>30.78468899521531</v>
+        <v>39.9983164983165</v>
       </c>
       <c r="D170" t="n">
-        <v>1083.405665040887</v>
+        <v>2158.328753432165</v>
       </c>
       <c r="E170" t="n">
-        <v>3519.300341833159</v>
+        <v>5396.048990019386</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>7.757575757575758</v>
+        <v>13.2460606060606</v>
       </c>
       <c r="B171" t="n">
-        <v>52.13980796335447</v>
+        <v>60.73672951739618</v>
       </c>
       <c r="C171" t="n">
-        <v>31.27660324171952</v>
+        <v>40.38159371492704</v>
       </c>
       <c r="D171" t="n">
-        <v>1098.897328640314</v>
+        <v>2185.746569927005</v>
       </c>
       <c r="E171" t="n">
-        <v>3513.48041265078</v>
+        <v>5412.729832698616</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>7.878787878787879</v>
+        <v>13.4530303030303</v>
       </c>
       <c r="B172" t="n">
-        <v>52.08836328400282</v>
+        <v>60.54662401795736</v>
       </c>
       <c r="C172" t="n">
-        <v>31.98132487667371</v>
+        <v>40.76487093153759</v>
       </c>
       <c r="D172" t="n">
-        <v>1114.966411228965</v>
+        <v>2212.950593607235</v>
       </c>
       <c r="E172" t="n">
-        <v>3486.304634121616</v>
+        <v>5428.572550428937</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8</v>
+        <v>13.66</v>
       </c>
       <c r="B173" t="n">
-        <v>52.03691860465116</v>
+        <v>60.32807692307693</v>
       </c>
       <c r="C173" t="n">
-        <v>32.68604651162791</v>
+        <v>41.09615384615385</v>
       </c>
       <c r="D173" t="n">
-        <v>1131.001611104651</v>
+        <v>2238.885304832115</v>
       </c>
       <c r="E173" t="n">
-        <v>3460.197031483458</v>
+        <v>5447.919319198409</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8.121212121212121</v>
+        <v>13.8669696969697</v>
       </c>
       <c r="B174" t="n">
-        <v>51.9854739252995</v>
+        <v>60.06438956876457</v>
       </c>
       <c r="C174" t="n">
-        <v>33.3907681465821</v>
+        <v>41.3449155011655</v>
       </c>
       <c r="D174" t="n">
-        <v>1147.002928267372</v>
+        <v>2262.873617799047</v>
       </c>
       <c r="E174" t="n">
-        <v>3435.089972270615</v>
+        <v>5473.160581825974</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8.242424242424242</v>
+        <v>14.07393939393939</v>
       </c>
       <c r="B175" t="n">
-        <v>51.93402924594785</v>
+        <v>59.80070221445222</v>
       </c>
       <c r="C175" t="n">
-        <v>34.09548978153629</v>
+        <v>41.59367715617715</v>
       </c>
       <c r="D175" t="n">
-        <v>1162.970362717129</v>
+        <v>2286.565387731599</v>
       </c>
       <c r="E175" t="n">
-        <v>3410.921415614658</v>
+        <v>5497.38696856721</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8.363636363636363</v>
+        <v>14.28090909090909</v>
       </c>
       <c r="B176" t="n">
-        <v>51.88258456659619</v>
+        <v>59.53701486013986</v>
       </c>
       <c r="C176" t="n">
-        <v>34.80021141649048</v>
+        <v>41.84243881118881</v>
       </c>
       <c r="D176" t="n">
-        <v>1178.903914453921</v>
+        <v>2309.960614629771</v>
       </c>
       <c r="E176" t="n">
-        <v>3387.634346081252</v>
+        <v>5520.616580341583</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8.484848484848484</v>
+        <v>14.48787878787879</v>
       </c>
       <c r="B177" t="n">
-        <v>51.83113988724454</v>
+        <v>59.27332750582751</v>
       </c>
       <c r="C177" t="n">
-        <v>35.50493305144468</v>
+        <v>42.09120046620046</v>
       </c>
       <c r="D177" t="n">
-        <v>1194.803583477748</v>
+        <v>2333.059298493563</v>
       </c>
       <c r="E177" t="n">
-        <v>3365.176274932116</v>
+        <v>5542.867090158254</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8.606060606060606</v>
+        <v>14.69484848484848</v>
       </c>
       <c r="B178" t="n">
-        <v>51.77969520789288</v>
+        <v>59.00964015151516</v>
       </c>
       <c r="C178" t="n">
-        <v>36.20965468639887</v>
+        <v>42.33996212121212</v>
       </c>
       <c r="D178" t="n">
-        <v>1210.66936978861</v>
+        <v>2355.861439322974</v>
       </c>
       <c r="E178" t="n">
-        <v>3343.498799626398</v>
+        <v>5564.155755686656</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8.727272727272727</v>
+        <v>14.90181818181818</v>
       </c>
       <c r="B179" t="n">
-        <v>51.72825052854122</v>
+        <v>58.7459527972028</v>
       </c>
       <c r="C179" t="n">
-        <v>36.91437632135306</v>
+        <v>42.58872377622377</v>
       </c>
       <c r="D179" t="n">
-        <v>1226.501273386508</v>
+        <v>2378.367037118006</v>
       </c>
       <c r="E179" t="n">
-        <v>3322.557213778633</v>
+        <v>5584.499431386551</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>8.84848484848485</v>
+        <v>15.10878787878788</v>
       </c>
       <c r="B180" t="n">
-        <v>51.67680584918957</v>
+        <v>58.48226544289044</v>
       </c>
       <c r="C180" t="n">
-        <v>37.61909795630726</v>
+        <v>42.83748543123543</v>
       </c>
       <c r="D180" t="n">
-        <v>1242.299294271441</v>
+        <v>2400.576091878656</v>
       </c>
       <c r="E180" t="n">
-        <v>3302.310160956838</v>
+        <v>5603.914580215415</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>8.969696969696971</v>
+        <v>15.31575757575757</v>
       </c>
       <c r="B181" t="n">
-        <v>51.62536116983792</v>
+        <v>58.21857808857809</v>
       </c>
       <c r="C181" t="n">
-        <v>38.32381959126145</v>
+        <v>43.08624708624708</v>
       </c>
       <c r="D181" t="n">
-        <v>1258.063432443409</v>
+        <v>2422.488603604927</v>
       </c>
       <c r="E181" t="n">
-        <v>3282.719326677633</v>
+        <v>5622.417284930285</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>9.090909090909092</v>
+        <v>15.52272727272727</v>
       </c>
       <c r="B182" t="n">
-        <v>51.57391649048625</v>
+        <v>57.95489073426574</v>
       </c>
       <c r="C182" t="n">
-        <v>39.02854122621565</v>
+        <v>43.33500874125874</v>
       </c>
       <c r="D182" t="n">
-        <v>1273.793687902412</v>
+        <v>2444.104572296817</v>
       </c>
       <c r="E182" t="n">
-        <v>3263.749163770433</v>
+        <v>5640.023259000326</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9.212121212121213</v>
+        <v>15.72969696969697</v>
       </c>
       <c r="B183" t="n">
-        <v>51.5224718111346</v>
+        <v>57.6774025974026</v>
       </c>
       <c r="C183" t="n">
-        <v>39.73326286116984</v>
+        <v>43.504329004329</v>
       </c>
       <c r="D183" t="n">
-        <v>1289.490060648451</v>
+        <v>2464.834223803368</v>
       </c>
       <c r="E183" t="n">
-        <v>3245.366646967802</v>
+        <v>5665.721734400498</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.333333333333334</v>
+        <v>15.93666666666666</v>
       </c>
       <c r="B184" t="n">
-        <v>51.47102713178295</v>
+        <v>57.37273291925467</v>
       </c>
       <c r="C184" t="n">
-        <v>40.43798449612404</v>
+        <v>43.51718426501035</v>
       </c>
       <c r="D184" t="n">
-        <v>1305.152550681525</v>
+        <v>2484.074929056485</v>
       </c>
       <c r="E184" t="n">
-        <v>3227.541053156651</v>
+        <v>5708.262083155473</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.454545454545455</v>
+        <v>16.14363636363636</v>
       </c>
       <c r="B185" t="n">
-        <v>51.40889281924301</v>
+        <v>57.06806324110673</v>
       </c>
       <c r="C185" t="n">
-        <v>41.02387690130881</v>
+        <v>43.5300395256917</v>
       </c>
       <c r="D185" t="n">
-        <v>1320.506580390777</v>
+        <v>2502.973002517201</v>
       </c>
       <c r="E185" t="n">
-        <v>3218.873202958173</v>
+        <v>5749.990190199415</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.575757575757576</v>
+        <v>16.35060606060606</v>
       </c>
       <c r="B186" t="n">
-        <v>51.30465982785049</v>
+        <v>56.76339356295878</v>
       </c>
       <c r="C186" t="n">
-        <v>41.14178752505601</v>
+        <v>43.54289478637305</v>
       </c>
       <c r="D186" t="n">
-        <v>1334.724462122084</v>
+        <v>2521.528444185515</v>
       </c>
       <c r="E186" t="n">
-        <v>3244.206298302463</v>
+        <v>5790.906774931828</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9.696969696969697</v>
+        <v>16.55757575757575</v>
       </c>
       <c r="B187" t="n">
-        <v>51.20042683645796</v>
+        <v>56.45872388481084</v>
       </c>
       <c r="C187" t="n">
-        <v>41.25969814880321</v>
+        <v>43.5557500470544</v>
       </c>
       <c r="D187" t="n">
-        <v>1348.873693478399</v>
+        <v>2539.741254061427</v>
       </c>
       <c r="E187" t="n">
-        <v>3269.228215421457</v>
+        <v>5831.012555902904</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9.818181818181818</v>
+        <v>16.76454545454545</v>
       </c>
       <c r="B188" t="n">
-        <v>51.09619384506544</v>
+        <v>56.15405420666291</v>
       </c>
       <c r="C188" t="n">
-        <v>41.37760877255041</v>
+        <v>43.56860530773574</v>
       </c>
       <c r="D188" t="n">
-        <v>1362.954274459723</v>
+        <v>2557.611432144938</v>
       </c>
       <c r="E188" t="n">
-        <v>3293.9416145379</v>
+        <v>5870.308250814782</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9.939393939393939</v>
+        <v>16.97151515151515</v>
       </c>
       <c r="B189" t="n">
-        <v>50.99196085367291</v>
+        <v>55.84938452851497</v>
       </c>
       <c r="C189" t="n">
-        <v>41.49551939629761</v>
+        <v>43.58146056841709</v>
       </c>
       <c r="D189" t="n">
-        <v>1376.966205066055</v>
+        <v>2575.138978436048</v>
       </c>
       <c r="E189" t="n">
-        <v>3318.34912563816</v>
+        <v>5908.794576522792</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>10.06060606060606</v>
+        <v>17.17848484848485</v>
       </c>
       <c r="B190" t="n">
-        <v>50.88772786228039</v>
+        <v>55.54471485036703</v>
       </c>
       <c r="C190" t="n">
-        <v>41.61343002004481</v>
+        <v>43.59431582909843</v>
       </c>
       <c r="D190" t="n">
-        <v>1390.909485297396</v>
+        <v>2592.323892934757</v>
       </c>
       <c r="E190" t="n">
-        <v>3342.4533489006</v>
+        <v>5946.472249036711</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>10.18181818181818</v>
+        <v>17.38545454545454</v>
       </c>
       <c r="B191" t="n">
-        <v>50.78349487088786</v>
+        <v>55.24004517221909</v>
       </c>
       <c r="C191" t="n">
-        <v>41.731340643792</v>
+        <v>43.60717108977978</v>
       </c>
       <c r="D191" t="n">
-        <v>1404.784115153745</v>
+        <v>2609.166175641064</v>
       </c>
       <c r="E191" t="n">
-        <v>3366.256855116687</v>
+        <v>5983.341983522004</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.3030303030303</v>
+        <v>17.59242424242424</v>
       </c>
       <c r="B192" t="n">
-        <v>50.67926187949534</v>
+        <v>54.93537549407115</v>
       </c>
       <c r="C192" t="n">
-        <v>41.8492512675392</v>
+        <v>43.62002635046113</v>
       </c>
       <c r="D192" t="n">
-        <v>1418.590094635102</v>
+        <v>2625.665826554969</v>
       </c>
       <c r="E192" t="n">
-        <v>3389.762186104979</v>
+        <v>6019.404494301071</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.42424242424242</v>
+        <v>17.79939393939394</v>
       </c>
       <c r="B193" t="n">
-        <v>50.57502888810282</v>
+        <v>54.63070581592321</v>
       </c>
       <c r="C193" t="n">
-        <v>41.9671618912864</v>
+        <v>43.63288161114248</v>
       </c>
       <c r="D193" t="n">
-        <v>1432.327423741468</v>
+        <v>2641.822845676474</v>
       </c>
       <c r="E193" t="n">
-        <v>3412.971855118135</v>
+        <v>6054.660494854491</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>10.54545454545454</v>
+        <v>18.00636363636363</v>
       </c>
       <c r="B194" t="n">
-        <v>50.47079589671029</v>
+        <v>54.32603613777527</v>
       </c>
       <c r="C194" t="n">
-        <v>42.0850725150336</v>
+        <v>43.64573687182383</v>
       </c>
       <c r="D194" t="n">
-        <v>1445.996102472843</v>
+        <v>2657.637233005576</v>
       </c>
       <c r="E194" t="n">
-        <v>3435.888347243087</v>
+        <v>6089.110697822252</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>10.66666666666667</v>
+        <v>18.21333333333333</v>
       </c>
       <c r="B195" t="n">
-        <v>50.36656290531776</v>
+        <v>54.02136645962733</v>
       </c>
       <c r="C195" t="n">
-        <v>42.20298313878081</v>
+        <v>43.65859213250518</v>
       </c>
       <c r="D195" t="n">
-        <v>1459.596130829226</v>
+        <v>2673.108988542278</v>
       </c>
       <c r="E195" t="n">
-        <v>3458.514119794499</v>
+        <v>6122.755815005004</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>10.78787878787879</v>
+        <v>18.42030303030303</v>
       </c>
       <c r="B196" t="n">
-        <v>50.26232991392524</v>
+        <v>53.71669678147939</v>
       </c>
       <c r="C196" t="n">
-        <v>42.320893762528</v>
+        <v>43.67144739318652</v>
       </c>
       <c r="D196" t="n">
-        <v>1473.127508810618</v>
+        <v>2688.238112286577</v>
       </c>
       <c r="E196" t="n">
-        <v>3480.851602701648</v>
+        <v>6155.596557365277</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.90909090909091</v>
+        <v>18.62727272727273</v>
       </c>
       <c r="B197" t="n">
-        <v>50.15809692253272</v>
+        <v>53.41202710333145</v>
       </c>
       <c r="C197" t="n">
-        <v>42.4388043862752</v>
+        <v>43.68430265386787</v>
       </c>
       <c r="D197" t="n">
-        <v>1486.590236417018</v>
+        <v>2703.024604238476</v>
       </c>
       <c r="E197" t="n">
-        <v>3502.903198888855</v>
+        <v>6187.633635028729</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11.03030303030303</v>
+        <v>18.83424242424242</v>
       </c>
       <c r="B198" t="n">
-        <v>50.05386393114019</v>
+        <v>53.10735742518352</v>
       </c>
       <c r="C198" t="n">
-        <v>42.5567150100224</v>
+        <v>43.69715791454922</v>
       </c>
       <c r="D198" t="n">
-        <v>1499.984313648426</v>
+        <v>2717.468464397973</v>
       </c>
       <c r="E198" t="n">
-        <v>3524.671284649601</v>
+        <v>6218.867757285368</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.15151515151515</v>
+        <v>19.04121212121212</v>
       </c>
       <c r="B199" t="n">
-        <v>49.94963093974767</v>
+        <v>52.80268774703558</v>
       </c>
       <c r="C199" t="n">
-        <v>42.6746256337696</v>
+        <v>43.71001317523056</v>
       </c>
       <c r="D199" t="n">
-        <v>1513.309740504843</v>
+        <v>2731.569692765069</v>
       </c>
       <c r="E199" t="n">
-        <v>3546.15821001443</v>
+        <v>6249.299632590788</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.27272727272727</v>
+        <v>19.24818181818182</v>
       </c>
       <c r="B200" t="n">
-        <v>49.84539794835514</v>
+        <v>52.49801806888764</v>
       </c>
       <c r="C200" t="n">
-        <v>42.7925362575168</v>
+        <v>43.72286843591191</v>
       </c>
       <c r="D200" t="n">
-        <v>1526.566516986269</v>
+        <v>2745.328289339763</v>
       </c>
       <c r="E200" t="n">
-        <v>3567.366299112773</v>
+        <v>6278.929968567385</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.39393939393939</v>
+        <v>19.45515151515151</v>
       </c>
       <c r="B201" t="n">
-        <v>49.74116495696262</v>
+        <v>52.1933483907397</v>
       </c>
       <c r="C201" t="n">
-        <v>42.910446881264</v>
+        <v>43.73572369659326</v>
       </c>
       <c r="D201" t="n">
-        <v>1539.754643092703</v>
+        <v>2758.744254122056</v>
       </c>
       <c r="E201" t="n">
-        <v>3588.29785052881</v>
+        <v>6307.759472005593</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>11.51515151515152</v>
+        <v>19.66212121212121</v>
       </c>
       <c r="B202" t="n">
-        <v>49.6369319655701</v>
+        <v>51.88867871259176</v>
       </c>
       <c r="C202" t="n">
-        <v>43.0283575050112</v>
+        <v>43.74857895727461</v>
       </c>
       <c r="D202" t="n">
-        <v>1552.874118824145</v>
+        <v>2771.817587111947</v>
       </c>
       <c r="E202" t="n">
-        <v>3608.955137651474</v>
+        <v>6335.788848865097</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>11.63636363636364</v>
+        <v>19.86909090909091</v>
       </c>
       <c r="B203" t="n">
-        <v>49.53269897417757</v>
+        <v>51.58400903444382</v>
       </c>
       <c r="C203" t="n">
-        <v>43.1462681287584</v>
+        <v>43.76143421795595</v>
       </c>
       <c r="D203" t="n">
-        <v>1565.924944180596</v>
+        <v>2784.548288309438</v>
       </c>
       <c r="E203" t="n">
-        <v>3629.340409018725</v>
+        <v>6363.018804276066</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>11.75757575757576</v>
+        <v>20.0760606060606</v>
       </c>
       <c r="B204" t="n">
-        <v>49.42846598278505</v>
+        <v>51.27933935629588</v>
       </c>
       <c r="C204" t="n">
-        <v>43.2641787525056</v>
+        <v>43.7742894786373</v>
       </c>
       <c r="D204" t="n">
-        <v>1578.907119162056</v>
+        <v>2796.936357714526</v>
       </c>
       <c r="E204" t="n">
-        <v>3649.45588865619</v>
+        <v>6389.450042540348</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>11.87878787878788</v>
+        <v>20.2830303030303</v>
       </c>
       <c r="B205" t="n">
-        <v>49.32423299139252</v>
+        <v>50.97466967814794</v>
       </c>
       <c r="C205" t="n">
-        <v>43.3820893762528</v>
+        <v>43.78714473931865</v>
       </c>
       <c r="D205" t="n">
-        <v>1591.820643768523</v>
+        <v>2808.981795327214</v>
       </c>
       <c r="E205" t="n">
-        <v>3669.303776410272</v>
+        <v>6415.083267132715</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>12</v>
+        <v>20.49</v>
       </c>
       <c r="B206" t="n">
-        <v>49.22</v>
+        <v>50.67</v>
       </c>
       <c r="C206" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="D206" t="n">
-        <v>1604.665518</v>
+        <v>2820.6846011475</v>
       </c>
       <c r="E206" t="n">
-        <v>3688.886248275862</v>
+        <v>6439.919180702054</v>
+      </c>
+    </row>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>Rotor 203 - Paralelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Vazão (m³/h)</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>Altura (m)</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>Eficiência (%)</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>Potência Hidráulica (W)</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>Potência Mecânica (W)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>75</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.438989898989899</v>
+      </c>
+      <c r="B212" t="n">
+        <v>74.94050007205649</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.7401904911632537</v>
+      </c>
+      <c r="D212" t="n">
+        <v>89.378441815608</v>
+      </c>
+      <c r="E212" t="n">
+        <v>12075.05944519017</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.877979797979798</v>
+      </c>
+      <c r="B213" t="n">
+        <v>74.88100014411299</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.480380982326507</v>
+      </c>
+      <c r="D213" t="n">
+        <v>178.6149574139471</v>
+      </c>
+      <c r="E213" t="n">
+        <v>12065.47230384188</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1.316969696969697</v>
+      </c>
+      <c r="B214" t="n">
+        <v>74.82150021616948</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.220571473489761</v>
+      </c>
+      <c r="D214" t="n">
+        <v>267.7095467950174</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12055.88516249359</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.755959595959596</v>
+      </c>
+      <c r="B215" t="n">
+        <v>74.76200028822596</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.960761964653015</v>
+      </c>
+      <c r="D215" t="n">
+        <v>356.6622099588188</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12046.2980211453</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2.194949494949495</v>
+      </c>
+      <c r="B216" t="n">
+        <v>74.70250036028246</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.700952455816269</v>
+      </c>
+      <c r="D216" t="n">
+        <v>445.4729469053514</v>
+      </c>
+      <c r="E216" t="n">
+        <v>12036.71087979701</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2.633939393939394</v>
+      </c>
+      <c r="B217" t="n">
+        <v>74.64300043233895</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.441142946979522</v>
+      </c>
+      <c r="D217" t="n">
+        <v>534.141757634615</v>
+      </c>
+      <c r="E217" t="n">
+        <v>12027.12373844872</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>3.072929292929293</v>
+      </c>
+      <c r="B218" t="n">
+        <v>74.58350050439545</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.181333438142777</v>
+      </c>
+      <c r="D218" t="n">
+        <v>622.6686421466101</v>
+      </c>
+      <c r="E218" t="n">
+        <v>12017.53659710043</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>3.511919191919192</v>
+      </c>
+      <c r="B219" t="n">
+        <v>74.52400057645194</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.92152392930603</v>
+      </c>
+      <c r="D219" t="n">
+        <v>711.053600441336</v>
+      </c>
+      <c r="E219" t="n">
+        <v>12007.94945575214</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>3.950909090909091</v>
+      </c>
+      <c r="B220" t="n">
+        <v>74.46450064850843</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6.661714420469284</v>
+      </c>
+      <c r="D220" t="n">
+        <v>799.2966325187931</v>
+      </c>
+      <c r="E220" t="n">
+        <v>11998.36231440385</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4.38989898989899</v>
+      </c>
+      <c r="B221" t="n">
+        <v>74.40500072056493</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.401904911632538</v>
+      </c>
+      <c r="D221" t="n">
+        <v>887.3977383789814</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11988.77517305555</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>4.828888888888889</v>
+      </c>
+      <c r="B222" t="n">
+        <v>74.34550079262141</v>
+      </c>
+      <c r="C222" t="n">
+        <v>8.142095402795793</v>
+      </c>
+      <c r="D222" t="n">
+        <v>975.3569180219008</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11979.18803170726</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>5.267878787878788</v>
+      </c>
+      <c r="B223" t="n">
+        <v>74.2860008646779</v>
+      </c>
+      <c r="C223" t="n">
+        <v>8.882285893959045</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1063.174171447551</v>
+      </c>
+      <c r="E223" t="n">
+        <v>11969.60089035897</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>5.706868686868686</v>
+      </c>
+      <c r="B224" t="n">
+        <v>74.2265009367344</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9.622476385122299</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1150.849498655933</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11960.01374901068</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>6.145858585858586</v>
+      </c>
+      <c r="B225" t="n">
+        <v>74.16700100879089</v>
+      </c>
+      <c r="C225" t="n">
+        <v>10.36266687628555</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1238.382899647046</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11950.4266076624</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>6.584848484848485</v>
+      </c>
+      <c r="B226" t="n">
+        <v>74.10750108084738</v>
+      </c>
+      <c r="C226" t="n">
+        <v>11.10285736744881</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1325.77437442089</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11940.8394663141</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>7.023838383838384</v>
+      </c>
+      <c r="B227" t="n">
+        <v>74.04800115290388</v>
+      </c>
+      <c r="C227" t="n">
+        <v>11.84304785861206</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1413.023922977465</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11931.25232496581</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>7.462828282828283</v>
+      </c>
+      <c r="B228" t="n">
+        <v>73.98850122496037</v>
+      </c>
+      <c r="C228" t="n">
+        <v>12.58323834977531</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1500.131545316772</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11921.66518361752</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>7.901818181818181</v>
+      </c>
+      <c r="B229" t="n">
+        <v>73.92900129701685</v>
+      </c>
+      <c r="C229" t="n">
+        <v>13.32342884093857</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1587.097241438809</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11912.07804226923</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>8.340808080808081</v>
+      </c>
+      <c r="B230" t="n">
+        <v>73.86950136907335</v>
+      </c>
+      <c r="C230" t="n">
+        <v>14.06361933210182</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1673.921011343578</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11902.49090092094</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>8.77979797979798</v>
+      </c>
+      <c r="B231" t="n">
+        <v>73.81000144112984</v>
+      </c>
+      <c r="C231" t="n">
+        <v>14.80380982326508</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1760.602855031077</v>
+      </c>
+      <c r="E231" t="n">
+        <v>11892.90375957265</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>9.218787878787879</v>
+      </c>
+      <c r="B232" t="n">
+        <v>73.75050151318634</v>
+      </c>
+      <c r="C232" t="n">
+        <v>15.54400031442833</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1847.142772501308</v>
+      </c>
+      <c r="E232" t="n">
+        <v>11883.31661822436</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>9.657777777777778</v>
+      </c>
+      <c r="B233" t="n">
+        <v>73.69100158524283</v>
+      </c>
+      <c r="C233" t="n">
+        <v>16.28419080559159</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1933.54076375427</v>
+      </c>
+      <c r="E233" t="n">
+        <v>11873.72947687607</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>10.09676767676768</v>
+      </c>
+      <c r="B234" t="n">
+        <v>73.63150165729932</v>
+      </c>
+      <c r="C234" t="n">
+        <v>17.02438129675484</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2019.796828789963</v>
+      </c>
+      <c r="E234" t="n">
+        <v>11864.14233552778</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>10.53575757575758</v>
+      </c>
+      <c r="B235" t="n">
+        <v>73.57200172935582</v>
+      </c>
+      <c r="C235" t="n">
+        <v>17.76457178791809</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2105.910967608388</v>
+      </c>
+      <c r="E235" t="n">
+        <v>11854.55519417949</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>10.97474747474747</v>
+      </c>
+      <c r="B236" t="n">
+        <v>73.5125018014123</v>
+      </c>
+      <c r="C236" t="n">
+        <v>18.50476227908134</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2191.883180209543</v>
+      </c>
+      <c r="E236" t="n">
+        <v>11844.96805283119</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>11.41373737373737</v>
+      </c>
+      <c r="B237" t="n">
+        <v>73.45300187346879</v>
+      </c>
+      <c r="C237" t="n">
+        <v>19.2449527702446</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2277.71346659343</v>
+      </c>
+      <c r="E237" t="n">
+        <v>11835.38091148291</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>11.85272727272727</v>
+      </c>
+      <c r="B238" t="n">
+        <v>73.39350194552529</v>
+      </c>
+      <c r="C238" t="n">
+        <v>19.98514326140785</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2363.401826760047</v>
+      </c>
+      <c r="E238" t="n">
+        <v>11825.79377013461</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>12.29171717171717</v>
+      </c>
+      <c r="B239" t="n">
+        <v>73.33400201758178</v>
+      </c>
+      <c r="C239" t="n">
+        <v>20.72533375257111</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2448.948260709397</v>
+      </c>
+      <c r="E239" t="n">
+        <v>11816.20662878633</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>12.73070707070707</v>
+      </c>
+      <c r="B240" t="n">
+        <v>73.27450208963828</v>
+      </c>
+      <c r="C240" t="n">
+        <v>21.46552424373436</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2534.352768441477</v>
+      </c>
+      <c r="E240" t="n">
+        <v>11806.61948743803</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>13.16969696969697</v>
+      </c>
+      <c r="B241" t="n">
+        <v>73.21500216169477</v>
+      </c>
+      <c r="C241" t="n">
+        <v>22.20571473489762</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2619.615349956288</v>
+      </c>
+      <c r="E241" t="n">
+        <v>11797.03234608974</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>13.60868686868687</v>
+      </c>
+      <c r="B242" t="n">
+        <v>73.15550223375126</v>
+      </c>
+      <c r="C242" t="n">
+        <v>22.94590522606087</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2704.73600525383</v>
+      </c>
+      <c r="E242" t="n">
+        <v>11787.44520474145</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>14.04767676767677</v>
+      </c>
+      <c r="B243" t="n">
+        <v>73.09600230580774</v>
+      </c>
+      <c r="C243" t="n">
+        <v>23.68609571722412</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2789.714734334103</v>
+      </c>
+      <c r="E243" t="n">
+        <v>11777.85806339316</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>14.48666666666667</v>
+      </c>
+      <c r="B244" t="n">
+        <v>73.03650237786424</v>
+      </c>
+      <c r="C244" t="n">
+        <v>24.42628620838737</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2874.551537197108</v>
+      </c>
+      <c r="E244" t="n">
+        <v>11768.27092204487</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>14.92565656565657</v>
+      </c>
+      <c r="B245" t="n">
+        <v>72.97700244992073</v>
+      </c>
+      <c r="C245" t="n">
+        <v>25.16647669955063</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2959.246413842844</v>
+      </c>
+      <c r="E245" t="n">
+        <v>11758.68378069658</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>15.36464646464646</v>
+      </c>
+      <c r="B246" t="n">
+        <v>72.91750252197723</v>
+      </c>
+      <c r="C246" t="n">
+        <v>25.90666719071388</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3043.79936427131</v>
+      </c>
+      <c r="E246" t="n">
+        <v>11749.09663934829</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>15.80363636363636</v>
+      </c>
+      <c r="B247" t="n">
+        <v>72.78058050383352</v>
+      </c>
+      <c r="C247" t="n">
+        <v>26.57776560788609</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3124.886215732237</v>
+      </c>
+      <c r="E247" t="n">
+        <v>11757.52040948479</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>16.24262626262626</v>
+      </c>
+      <c r="B248" t="n">
+        <v>72.63248752586102</v>
+      </c>
+      <c r="C248" t="n">
+        <v>27.23889497383474</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3205.153508428827</v>
+      </c>
+      <c r="E248" t="n">
+        <v>11766.82648656507</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>16.68161616161616</v>
+      </c>
+      <c r="B249" t="n">
+        <v>72.48439454788853</v>
+      </c>
+      <c r="C249" t="n">
+        <v>27.90002433978338</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3285.067552358666</v>
+      </c>
+      <c r="E249" t="n">
+        <v>11774.42539960226</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>17.12060606060606</v>
+      </c>
+      <c r="B250" t="n">
+        <v>72.33630156991603</v>
+      </c>
+      <c r="C250" t="n">
+        <v>28.56115370573202</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3364.628347521756</v>
+      </c>
+      <c r="E250" t="n">
+        <v>11780.43570013945</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>17.55959595959596</v>
+      </c>
+      <c r="B251" t="n">
+        <v>72.18820859194354</v>
+      </c>
+      <c r="C251" t="n">
+        <v>29.22228307168066</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3443.835893918098</v>
+      </c>
+      <c r="E251" t="n">
+        <v>11784.96521120734</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>17.99858585858586</v>
+      </c>
+      <c r="B252" t="n">
+        <v>72.04011561397104</v>
+      </c>
+      <c r="C252" t="n">
+        <v>29.88341243762931</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3522.69019154769</v>
+      </c>
+      <c r="E252" t="n">
+        <v>11788.11221409207</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>18.43757575757576</v>
+      </c>
+      <c r="B253" t="n">
+        <v>71.89202263599854</v>
+      </c>
+      <c r="C253" t="n">
+        <v>30.54454180357795</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3601.191240410532</v>
+      </c>
+      <c r="E253" t="n">
+        <v>11789.96648097924</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>18.87656565656566</v>
+      </c>
+      <c r="B254" t="n">
+        <v>71.75790392403296</v>
+      </c>
+      <c r="C254" t="n">
+        <v>31.15733370572081</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3680.055701313006</v>
+      </c>
+      <c r="E254" t="n">
+        <v>11811.20225520873</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>19.31555555555556</v>
+      </c>
+      <c r="B255" t="n">
+        <v>71.6547311827957</v>
+      </c>
+      <c r="C255" t="n">
+        <v>31.66308243727599</v>
+      </c>
+      <c r="D255" t="n">
+        <v>3760.224197727145</v>
+      </c>
+      <c r="E255" t="n">
+        <v>11875.73637271761</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>19.75454545454545</v>
+      </c>
+      <c r="B256" t="n">
+        <v>71.55155844155844</v>
+      </c>
+      <c r="C256" t="n">
+        <v>32.16883116883117</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3840.146594399734</v>
+      </c>
+      <c r="E256" t="n">
+        <v>11937.4762926435</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>20.19353535353535</v>
+      </c>
+      <c r="B257" t="n">
+        <v>71.44838570032118</v>
+      </c>
+      <c r="C257" t="n">
+        <v>32.67457990038636</v>
+      </c>
+      <c r="D257" t="n">
+        <v>3919.822891330775</v>
+      </c>
+      <c r="E257" t="n">
+        <v>11996.5517637288</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>20.63252525252525</v>
+      </c>
+      <c r="B258" t="n">
+        <v>71.34521295908392</v>
+      </c>
+      <c r="C258" t="n">
+        <v>33.18032863194153</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3999.253088520268</v>
+      </c>
+      <c r="E258" t="n">
+        <v>12053.08462397303</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>21.07151515151515</v>
+      </c>
+      <c r="B259" t="n">
+        <v>71.24204021784666</v>
+      </c>
+      <c r="C259" t="n">
+        <v>33.68607736349672</v>
+      </c>
+      <c r="D259" t="n">
+        <v>4078.437185968211</v>
+      </c>
+      <c r="E259" t="n">
+        <v>12107.18939447587</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>21.51050505050505</v>
+      </c>
+      <c r="B260" t="n">
+        <v>71.13886747660941</v>
+      </c>
+      <c r="C260" t="n">
+        <v>34.1918260950519</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4157.375183674606</v>
+      </c>
+      <c r="E260" t="n">
+        <v>12158.97382057709</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>21.94949494949495</v>
+      </c>
+      <c r="B261" t="n">
+        <v>71.03569473537215</v>
+      </c>
+      <c r="C261" t="n">
+        <v>34.69757482660709</v>
+      </c>
+      <c r="D261" t="n">
+        <v>4236.067081639452</v>
+      </c>
+      <c r="E261" t="n">
+        <v>12208.53936567093</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>22.38848484848485</v>
+      </c>
+      <c r="B262" t="n">
+        <v>70.9325219941349</v>
+      </c>
+      <c r="C262" t="n">
+        <v>35.20332355816227</v>
+      </c>
+      <c r="D262" t="n">
+        <v>4314.51287986275</v>
+      </c>
+      <c r="E262" t="n">
+        <v>12255.98166245409</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>22.82747474747475</v>
+      </c>
+      <c r="B263" t="n">
+        <v>70.82934925289764</v>
+      </c>
+      <c r="C263" t="n">
+        <v>35.70907228971745</v>
+      </c>
+      <c r="D263" t="n">
+        <v>4392.7125783445</v>
+      </c>
+      <c r="E263" t="n">
+        <v>12301.39092582754</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>23.26646464646464</v>
+      </c>
+      <c r="B264" t="n">
+        <v>70.67904958677686</v>
+      </c>
+      <c r="C264" t="n">
+        <v>36.16299357208448</v>
+      </c>
+      <c r="D264" t="n">
+        <v>4467.687241144736</v>
+      </c>
+      <c r="E264" t="n">
+        <v>12354.30698578423</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>23.70545454545455</v>
+      </c>
+      <c r="B265" t="n">
+        <v>70.46492689129052</v>
+      </c>
+      <c r="C265" t="n">
+        <v>36.54672600127146</v>
+      </c>
+      <c r="D265" t="n">
+        <v>4538.192960488453</v>
+      </c>
+      <c r="E265" t="n">
+        <v>12417.50891811915</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>24.14444444444445</v>
+      </c>
+      <c r="B266" t="n">
+        <v>70.25080419580419</v>
+      </c>
+      <c r="C266" t="n">
+        <v>36.93045843045843</v>
+      </c>
+      <c r="D266" t="n">
+        <v>4608.18792922705</v>
+      </c>
+      <c r="E266" t="n">
+        <v>12478.01442244335</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>24.58343434343434</v>
+      </c>
+      <c r="B267" t="n">
+        <v>70.03668150031785</v>
+      </c>
+      <c r="C267" t="n">
+        <v>37.31419085964541</v>
+      </c>
+      <c r="D267" t="n">
+        <v>4677.672147360524</v>
+      </c>
+      <c r="E267" t="n">
+        <v>12535.90668749925</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>25.02242424242424</v>
+      </c>
+      <c r="B268" t="n">
+        <v>69.82255880483153</v>
+      </c>
+      <c r="C268" t="n">
+        <v>37.69792328883238</v>
+      </c>
+      <c r="D268" t="n">
+        <v>4746.645614888878</v>
+      </c>
+      <c r="E268" t="n">
+        <v>12591.26551486995</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>25.46141414141414</v>
+      </c>
+      <c r="B269" t="n">
+        <v>69.60843610934521</v>
+      </c>
+      <c r="C269" t="n">
+        <v>38.08165571801936</v>
+      </c>
+      <c r="D269" t="n">
+        <v>4815.108331812114</v>
+      </c>
+      <c r="E269" t="n">
+        <v>12644.1674896339</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>25.90040404040404</v>
+      </c>
+      <c r="B270" t="n">
+        <v>69.39431341385887</v>
+      </c>
+      <c r="C270" t="n">
+        <v>38.46538814720633</v>
+      </c>
+      <c r="D270" t="n">
+        <v>4883.060298130225</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12694.68614080494</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>26.33939393939394</v>
+      </c>
+      <c r="B271" t="n">
+        <v>69.18019071837254</v>
+      </c>
+      <c r="C271" t="n">
+        <v>38.8491205763933</v>
+      </c>
+      <c r="D271" t="n">
+        <v>4950.501513843218</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12742.89209226372</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>26.77838383838384</v>
+      </c>
+      <c r="B272" t="n">
+        <v>68.9660680228862</v>
+      </c>
+      <c r="C272" t="n">
+        <v>39.23285300558028</v>
+      </c>
+      <c r="D272" t="n">
+        <v>5017.43197895109</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12788.85320483177</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>27.21737373737374</v>
+      </c>
+      <c r="B273" t="n">
+        <v>68.75194532739988</v>
+      </c>
+      <c r="C273" t="n">
+        <v>39.61658543476725</v>
+      </c>
+      <c r="D273" t="n">
+        <v>5083.851693453841</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12832.63471008859</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>27.65636363636364</v>
+      </c>
+      <c r="B274" t="n">
+        <v>68.53782263191354</v>
+      </c>
+      <c r="C274" t="n">
+        <v>40.00031786395423</v>
+      </c>
+      <c r="D274" t="n">
+        <v>5149.760657351469</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12874.2993364863</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>28.09535353535354</v>
+      </c>
+      <c r="B275" t="n">
+        <v>68.32369993642722</v>
+      </c>
+      <c r="C275" t="n">
+        <v>40.3840502931412</v>
+      </c>
+      <c r="D275" t="n">
+        <v>5215.158870643981</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12913.90742827427</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>28.53434343434343</v>
+      </c>
+      <c r="B276" t="n">
+        <v>68.10957724094088</v>
+      </c>
+      <c r="C276" t="n">
+        <v>40.76778272232818</v>
+      </c>
+      <c r="D276" t="n">
+        <v>5280.046333331368</v>
+      </c>
+      <c r="E276" t="n">
+        <v>12951.51705770726</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>28.97333333333333</v>
+      </c>
+      <c r="B277" t="n">
+        <v>67.86313725490197</v>
+      </c>
+      <c r="C277" t="n">
+        <v>41.09803921568627</v>
+      </c>
+      <c r="D277" t="n">
+        <v>5341.879174493987</v>
+      </c>
+      <c r="E277" t="n">
+        <v>12997.89302954167</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>29.41232323232323</v>
+      </c>
+      <c r="B278" t="n">
+        <v>67.56716668951964</v>
+      </c>
+      <c r="C278" t="n">
+        <v>41.34633666986608</v>
+      </c>
+      <c r="D278" t="n">
+        <v>5399.166281829866</v>
+      </c>
+      <c r="E278" t="n">
+        <v>13058.39094026647</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>29.85131313131313</v>
+      </c>
+      <c r="B279" t="n">
+        <v>67.2711961241373</v>
+      </c>
+      <c r="C279" t="n">
+        <v>41.59463412404589</v>
+      </c>
+      <c r="D279" t="n">
+        <v>5455.747405407118</v>
+      </c>
+      <c r="E279" t="n">
+        <v>13116.46927614912</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>30.29030303030303</v>
+      </c>
+      <c r="B280" t="n">
+        <v>66.97522555875497</v>
+      </c>
+      <c r="C280" t="n">
+        <v>41.84293157822569</v>
+      </c>
+      <c r="D280" t="n">
+        <v>5511.622545225739</v>
+      </c>
+      <c r="E280" t="n">
+        <v>13172.17111072086</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>30.72929292929293</v>
+      </c>
+      <c r="B281" t="n">
+        <v>66.67925499337264</v>
+      </c>
+      <c r="C281" t="n">
+        <v>42.0912290324055</v>
+      </c>
+      <c r="D281" t="n">
+        <v>5566.791701285735</v>
+      </c>
+      <c r="E281" t="n">
+        <v>13225.53850114458</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>31.16828282828283</v>
+      </c>
+      <c r="B282" t="n">
+        <v>66.38328442799032</v>
+      </c>
+      <c r="C282" t="n">
+        <v>42.33952648658531</v>
+      </c>
+      <c r="D282" t="n">
+        <v>5621.254873587104</v>
+      </c>
+      <c r="E282" t="n">
+        <v>13276.61251801699</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>31.60727272727273</v>
+      </c>
+      <c r="B283" t="n">
+        <v>66.08731386260799</v>
+      </c>
+      <c r="C283" t="n">
+        <v>42.58782394076512</v>
+      </c>
+      <c r="D283" t="n">
+        <v>5675.012062129844</v>
+      </c>
+      <c r="E283" t="n">
+        <v>13325.43327412818</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>32.04626262626262</v>
+      </c>
+      <c r="B284" t="n">
+        <v>65.79134329722565</v>
+      </c>
+      <c r="C284" t="n">
+        <v>42.83612139494493</v>
+      </c>
+      <c r="D284" t="n">
+        <v>5728.063266913956</v>
+      </c>
+      <c r="E284" t="n">
+        <v>13372.03995222108</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>32.48525252525253</v>
+      </c>
+      <c r="B285" t="n">
+        <v>65.49537273184332</v>
+      </c>
+      <c r="C285" t="n">
+        <v>43.08441884912473</v>
+      </c>
+      <c r="D285" t="n">
+        <v>5780.40848793944</v>
+      </c>
+      <c r="E285" t="n">
+        <v>13416.4708317909</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>32.92424242424242</v>
+      </c>
+      <c r="B286" t="n">
+        <v>65.19940216646098</v>
+      </c>
+      <c r="C286" t="n">
+        <v>43.33271630330454</v>
+      </c>
+      <c r="D286" t="n">
+        <v>5832.047725206296</v>
+      </c>
+      <c r="E286" t="n">
+        <v>13458.76331496336</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>33.36323232323232</v>
+      </c>
+      <c r="B287" t="n">
+        <v>64.88809974747474</v>
+      </c>
+      <c r="C287" t="n">
+        <v>43.50419625946969</v>
+      </c>
+      <c r="D287" t="n">
+        <v>5881.591267864188</v>
+      </c>
+      <c r="E287" t="n">
+        <v>13519.5952886589</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>33.80222222222222</v>
+      </c>
+      <c r="B288" t="n">
+        <v>64.54513888888889</v>
+      </c>
+      <c r="C288" t="n">
+        <v>43.51705729166667</v>
+      </c>
+      <c r="D288" t="n">
+        <v>5927.484911413387</v>
+      </c>
+      <c r="E288" t="n">
+        <v>13621.06098232997</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>34.24121212121212</v>
+      </c>
+      <c r="B289" t="n">
+        <v>64.20217803030303</v>
+      </c>
+      <c r="C289" t="n">
+        <v>43.52991832386363</v>
+      </c>
+      <c r="D289" t="n">
+        <v>5972.560484436912</v>
+      </c>
+      <c r="E289" t="n">
+        <v>13720.58739003579</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>34.68020202020202</v>
+      </c>
+      <c r="B290" t="n">
+        <v>63.85921717171718</v>
+      </c>
+      <c r="C290" t="n">
+        <v>43.54277935606061</v>
+      </c>
+      <c r="D290" t="n">
+        <v>6016.817986934761</v>
+      </c>
+      <c r="E290" t="n">
+        <v>13818.17623017052</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>35.11919191919192</v>
+      </c>
+      <c r="B291" t="n">
+        <v>63.51625631313131</v>
+      </c>
+      <c r="C291" t="n">
+        <v>43.55564038825757</v>
+      </c>
+      <c r="D291" t="n">
+        <v>6060.257418906936</v>
+      </c>
+      <c r="E291" t="n">
+        <v>13913.8292190987</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>35.55818181818182</v>
+      </c>
+      <c r="B292" t="n">
+        <v>63.17329545454545</v>
+      </c>
+      <c r="C292" t="n">
+        <v>43.56850142045455</v>
+      </c>
+      <c r="D292" t="n">
+        <v>6102.878780353434</v>
+      </c>
+      <c r="E292" t="n">
+        <v>14007.54807115825</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>35.99717171717172</v>
+      </c>
+      <c r="B293" t="n">
+        <v>62.8303345959596</v>
+      </c>
+      <c r="C293" t="n">
+        <v>43.58136245265151</v>
+      </c>
+      <c r="D293" t="n">
+        <v>6144.68207127426</v>
+      </c>
+      <c r="E293" t="n">
+        <v>14099.33449866346</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>36.43616161616161</v>
+      </c>
+      <c r="B294" t="n">
+        <v>62.48737373737374</v>
+      </c>
+      <c r="C294" t="n">
+        <v>43.59422348484848</v>
+      </c>
+      <c r="D294" t="n">
+        <v>6185.667291669408</v>
+      </c>
+      <c r="E294" t="n">
+        <v>14189.19021190797</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>36.87515151515152</v>
+      </c>
+      <c r="B295" t="n">
+        <v>62.14441287878788</v>
+      </c>
+      <c r="C295" t="n">
+        <v>43.60708451704545</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6225.834441538882</v>
+      </c>
+      <c r="E295" t="n">
+        <v>14277.11691916776</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>37.31414141414141</v>
+      </c>
+      <c r="B296" t="n">
+        <v>61.80145202020202</v>
+      </c>
+      <c r="C296" t="n">
+        <v>43.61994554924242</v>
+      </c>
+      <c r="D296" t="n">
+        <v>6265.183520882682</v>
+      </c>
+      <c r="E296" t="n">
+        <v>14363.11632670411</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>37.75313131313131</v>
+      </c>
+      <c r="B297" t="n">
+        <v>61.45849116161616</v>
+      </c>
+      <c r="C297" t="n">
+        <v>43.63280658143939</v>
+      </c>
+      <c r="D297" t="n">
+        <v>6303.714529700806</v>
+      </c>
+      <c r="E297" t="n">
+        <v>14447.19013876658</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>38.19212121212122</v>
+      </c>
+      <c r="B298" t="n">
+        <v>61.1155303030303</v>
+      </c>
+      <c r="C298" t="n">
+        <v>43.64566761363636</v>
+      </c>
+      <c r="D298" t="n">
+        <v>6341.427467993255</v>
+      </c>
+      <c r="E298" t="n">
+        <v>14529.34005759596</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>38.63111111111111</v>
+      </c>
+      <c r="B299" t="n">
+        <v>60.77256944444444</v>
+      </c>
+      <c r="C299" t="n">
+        <v>43.65852864583333</v>
+      </c>
+      <c r="D299" t="n">
+        <v>6378.322335760031</v>
+      </c>
+      <c r="E299" t="n">
+        <v>14609.56778342727</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>39.07010101010101</v>
+      </c>
+      <c r="B300" t="n">
+        <v>60.42960858585858</v>
+      </c>
+      <c r="C300" t="n">
+        <v>43.6713896780303</v>
+      </c>
+      <c r="D300" t="n">
+        <v>6414.39913300113</v>
+      </c>
+      <c r="E300" t="n">
+        <v>14687.87501449264</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>39.50909090909091</v>
+      </c>
+      <c r="B301" t="n">
+        <v>60.08664772727273</v>
+      </c>
+      <c r="C301" t="n">
+        <v>43.68425071022727</v>
+      </c>
+      <c r="D301" t="n">
+        <v>6449.657859716554</v>
+      </c>
+      <c r="E301" t="n">
+        <v>14764.26344702434</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>39.94808080808081</v>
+      </c>
+      <c r="B302" t="n">
+        <v>59.74368686868686</v>
+      </c>
+      <c r="C302" t="n">
+        <v>43.69711174242424</v>
+      </c>
+      <c r="D302" t="n">
+        <v>6484.098515906305</v>
+      </c>
+      <c r="E302" t="n">
+        <v>14838.73477525766</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>40.38707070707071</v>
+      </c>
+      <c r="B303" t="n">
+        <v>59.40072601010101</v>
+      </c>
+      <c r="C303" t="n">
+        <v>43.70997277462121</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6517.721101570378</v>
+      </c>
+      <c r="E303" t="n">
+        <v>14911.29069143389</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>40.82606060606061</v>
+      </c>
+      <c r="B304" t="n">
+        <v>59.05776515151515</v>
+      </c>
+      <c r="C304" t="n">
+        <v>43.72283380681818</v>
+      </c>
+      <c r="D304" t="n">
+        <v>6550.525616708777</v>
+      </c>
+      <c r="E304" t="n">
+        <v>14981.93288580321</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>41.2650505050505</v>
+      </c>
+      <c r="B305" t="n">
+        <v>58.71480429292929</v>
+      </c>
+      <c r="C305" t="n">
+        <v>43.73569483901515</v>
+      </c>
+      <c r="D305" t="n">
+        <v>6582.512061321503</v>
+      </c>
+      <c r="E305" t="n">
+        <v>15050.66304662768</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>41.70404040404041</v>
+      </c>
+      <c r="B306" t="n">
+        <v>58.37184343434343</v>
+      </c>
+      <c r="C306" t="n">
+        <v>43.74855587121212</v>
+      </c>
+      <c r="D306" t="n">
+        <v>6613.680435408552</v>
+      </c>
+      <c r="E306" t="n">
+        <v>15117.48286018409</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>42.1430303030303</v>
+      </c>
+      <c r="B307" t="n">
+        <v>58.02888257575758</v>
+      </c>
+      <c r="C307" t="n">
+        <v>43.76141690340908</v>
+      </c>
+      <c r="D307" t="n">
+        <v>6644.030738969926</v>
+      </c>
+      <c r="E307" t="n">
+        <v>15182.39401076693</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>42.5820202020202</v>
+      </c>
+      <c r="B308" t="n">
+        <v>57.68592171717172</v>
+      </c>
+      <c r="C308" t="n">
+        <v>43.77427793560606</v>
+      </c>
+      <c r="D308" t="n">
+        <v>6673.562972005627</v>
+      </c>
+      <c r="E308" t="n">
+        <v>15245.39818069127</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>43.0210101010101</v>
+      </c>
+      <c r="B309" t="n">
+        <v>57.34296085858586</v>
+      </c>
+      <c r="C309" t="n">
+        <v>43.78713896780302</v>
+      </c>
+      <c r="D309" t="n">
+        <v>6702.27713451565</v>
+      </c>
+      <c r="E309" t="n">
+        <v>15306.4970502957</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="B310" t="n">
+        <v>57</v>
+      </c>
+      <c r="C310" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D310" t="n">
+        <v>6730.173226499999</v>
+      </c>
+      <c r="E310" t="n">
+        <v>15365.6922979452</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A209:E209"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4620,7 +6644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4678,91 +6702,179 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rotor 203_3000RPM</t>
+          <t>Rotor 203</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3642135381371938</v>
+        <v>13.26699295202165</v>
       </c>
       <c r="C3" t="n">
-        <v>55.00712554777502</v>
+        <v>69.08527610624462</v>
       </c>
       <c r="D3" t="n">
-        <v>1.578258665261173</v>
+        <v>39.0192184475903</v>
       </c>
       <c r="E3" t="n">
-        <v>54.42979527742876</v>
+        <v>2490.116471095818</v>
       </c>
       <c r="F3" t="n">
-        <v>3448.724627684628</v>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+        <v>6381.769215701961</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rotor 203_3300RPM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.698421773196554</v>
+      </c>
+      <c r="C4" t="n">
+        <v>63.9043450171817</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.57827491409152</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1510.193215836279</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4938.778332260761</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rotor 203 - Paralelo</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15.74785591569847</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72.79939800434268</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.49375890918445</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3114.661721702865</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11756.20919771834</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Pontos de Interseção - Curva do Sistema 2</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Rotor</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Vazão (m³/h)</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Altura (m)</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Eficiência (%)</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Potência Hidráulica (W)</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>Potência Mecânica (W)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Rotor 203</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>12.69010085140302</v>
-      </c>
-      <c r="C8" t="n">
-        <v>68.30989914859697</v>
-      </c>
-      <c r="D8" t="n">
-        <v>42.40841737616918</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2355.105586475863</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5553.391831592569</v>
+      <c r="B10" t="n">
+        <v>10.21952733376174</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71.39068300440692</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32.95743625290724</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1982.138565402944</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6014.237728300531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rotor 203_3300RPM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.898823238296862</v>
+      </c>
+      <c r="C11" t="n">
+        <v>66.18680564087356</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.79083964177695</v>
+      </c>
+      <c r="E11" t="n">
+        <v>341.4425367484507</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5027.9870348861</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rotor 203 - Paralelo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11.95695491473462</v>
+      </c>
+      <c r="C12" t="n">
+        <v>73.37937511207552</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.1608837732231</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2383.725627722605</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11823.51753293959</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4804,7 +6916,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H = 55.00 + 0.0516 × Q²</t>
+          <t>H = 60.00 + 0.0516 × Q²</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4814,7 +6926,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>H = 60.00 + 0.0516 × Q²</t>
+          <t>H = 66.00 + 0.0516 × Q²</t>
         </is>
       </c>
     </row>
@@ -4846,1399 +6958,1399 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.4828888888888889</v>
       </c>
       <c r="B6" t="n">
-        <v>55.0012485925926</v>
+        <v>60.01203217463704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.4828888888888889</v>
       </c>
       <c r="D6" t="n">
-        <v>60.0012485925926</v>
+        <v>66.01203217463704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3111111111111112</v>
+        <v>0.9657777777777778</v>
       </c>
       <c r="B7" t="n">
-        <v>55.00499437037037</v>
+        <v>60.04812869854815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3111111111111112</v>
+        <v>0.9657777777777778</v>
       </c>
       <c r="D7" t="n">
-        <v>60.00499437037037</v>
+        <v>66.04812869854815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4666666666666668</v>
+        <v>1.448666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>55.01123733333333</v>
+        <v>60.10828957173333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4666666666666668</v>
+        <v>1.448666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>60.01123733333333</v>
+        <v>66.10828957173334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6222222222222223</v>
+        <v>1.931555555555556</v>
       </c>
       <c r="B9" t="n">
-        <v>55.01997748148148</v>
+        <v>60.19251479419259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6222222222222223</v>
+        <v>1.931555555555556</v>
       </c>
       <c r="D9" t="n">
-        <v>60.01997748148148</v>
+        <v>66.19251479419259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7777777777777779</v>
+        <v>2.414444444444444</v>
       </c>
       <c r="B10" t="n">
-        <v>55.03121481481482</v>
+        <v>60.30080436592593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7777777777777779</v>
+        <v>2.414444444444444</v>
       </c>
       <c r="D10" t="n">
-        <v>60.03121481481482</v>
+        <v>66.30080436592593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9333333333333336</v>
+        <v>2.897333333333334</v>
       </c>
       <c r="B11" t="n">
-        <v>55.04494933333334</v>
+        <v>60.43315828693333</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9333333333333336</v>
+        <v>2.897333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>60.04494933333334</v>
+        <v>66.43315828693333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.088888888888889</v>
+        <v>3.380222222222223</v>
       </c>
       <c r="B12" t="n">
-        <v>55.06118103703704</v>
+        <v>60.58957655721481</v>
       </c>
       <c r="C12" t="n">
-        <v>1.088888888888889</v>
+        <v>3.380222222222223</v>
       </c>
       <c r="D12" t="n">
-        <v>60.06118103703704</v>
+        <v>66.58957655721481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.244444444444445</v>
+        <v>3.863111111111111</v>
       </c>
       <c r="B13" t="n">
-        <v>55.07990992592593</v>
+        <v>60.77005917677037</v>
       </c>
       <c r="C13" t="n">
-        <v>1.244444444444445</v>
+        <v>3.863111111111111</v>
       </c>
       <c r="D13" t="n">
-        <v>60.07990992592593</v>
+        <v>66.77005917677037</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.4</v>
+        <v>4.346</v>
       </c>
       <c r="B14" t="n">
-        <v>55.101136</v>
+        <v>60.9746061456</v>
       </c>
       <c r="C14" t="n">
-        <v>1.4</v>
+        <v>4.346</v>
       </c>
       <c r="D14" t="n">
-        <v>60.101136</v>
+        <v>66.97460614560001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.555555555555556</v>
+        <v>4.828888888888889</v>
       </c>
       <c r="B15" t="n">
-        <v>55.12485925925926</v>
+        <v>61.2032174637037</v>
       </c>
       <c r="C15" t="n">
-        <v>1.555555555555556</v>
+        <v>4.828888888888889</v>
       </c>
       <c r="D15" t="n">
-        <v>60.12485925925926</v>
+        <v>67.20321746370371</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.711111111111111</v>
+        <v>5.311777777777778</v>
       </c>
       <c r="B16" t="n">
-        <v>55.1510797037037</v>
+        <v>61.45589313108148</v>
       </c>
       <c r="C16" t="n">
-        <v>1.711111111111111</v>
+        <v>5.311777777777778</v>
       </c>
       <c r="D16" t="n">
-        <v>60.1510797037037</v>
+        <v>67.45589313108148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.866666666666667</v>
+        <v>5.794666666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>55.17979733333333</v>
+        <v>61.73263314773333</v>
       </c>
       <c r="C17" t="n">
-        <v>1.866666666666667</v>
+        <v>5.794666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>60.17979733333333</v>
+        <v>67.73263314773334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.022222222222223</v>
+        <v>6.277555555555556</v>
       </c>
       <c r="B18" t="n">
-        <v>55.21101214814815</v>
+        <v>62.03343751365926</v>
       </c>
       <c r="C18" t="n">
-        <v>2.022222222222223</v>
+        <v>6.277555555555556</v>
       </c>
       <c r="D18" t="n">
-        <v>60.21101214814815</v>
+        <v>68.03343751365927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.177777777777778</v>
+        <v>6.760444444444445</v>
       </c>
       <c r="B19" t="n">
-        <v>55.24472414814815</v>
+        <v>62.35830622885926</v>
       </c>
       <c r="C19" t="n">
-        <v>2.177777777777778</v>
+        <v>6.760444444444445</v>
       </c>
       <c r="D19" t="n">
-        <v>60.24472414814815</v>
+        <v>68.35830622885926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.333333333333334</v>
+        <v>7.243333333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>55.28093333333334</v>
+        <v>62.70723929333333</v>
       </c>
       <c r="C20" t="n">
-        <v>2.333333333333334</v>
+        <v>7.243333333333334</v>
       </c>
       <c r="D20" t="n">
-        <v>60.28093333333334</v>
+        <v>68.70723929333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.488888888888889</v>
+        <v>7.726222222222223</v>
       </c>
       <c r="B21" t="n">
-        <v>55.31963970370371</v>
+        <v>63.08023670708148</v>
       </c>
       <c r="C21" t="n">
-        <v>2.488888888888889</v>
+        <v>7.726222222222223</v>
       </c>
       <c r="D21" t="n">
-        <v>60.31963970370371</v>
+        <v>69.08023670708148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.644444444444445</v>
+        <v>8.209111111111111</v>
       </c>
       <c r="B22" t="n">
-        <v>55.36084325925926</v>
+        <v>63.4772984701037</v>
       </c>
       <c r="C22" t="n">
-        <v>2.644444444444445</v>
+        <v>8.209111111111111</v>
       </c>
       <c r="D22" t="n">
-        <v>60.36084325925926</v>
+        <v>69.4772984701037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.800000000000001</v>
+        <v>8.692</v>
       </c>
       <c r="B23" t="n">
-        <v>55.404544</v>
+        <v>63.8984245824</v>
       </c>
       <c r="C23" t="n">
-        <v>2.800000000000001</v>
+        <v>8.692</v>
       </c>
       <c r="D23" t="n">
-        <v>60.404544</v>
+        <v>69.8984245824</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.955555555555556</v>
+        <v>9.174888888888889</v>
       </c>
       <c r="B24" t="n">
-        <v>55.45074192592593</v>
+        <v>64.34361504397037</v>
       </c>
       <c r="C24" t="n">
-        <v>2.955555555555556</v>
+        <v>9.174888888888889</v>
       </c>
       <c r="D24" t="n">
-        <v>60.45074192592593</v>
+        <v>70.34361504397037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.111111111111112</v>
+        <v>9.657777777777778</v>
       </c>
       <c r="B25" t="n">
-        <v>55.49943703703704</v>
+        <v>64.81286985481482</v>
       </c>
       <c r="C25" t="n">
-        <v>3.111111111111112</v>
+        <v>9.657777777777778</v>
       </c>
       <c r="D25" t="n">
-        <v>60.49943703703704</v>
+        <v>70.81286985481482</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.266666666666667</v>
+        <v>10.14066666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>55.55062933333333</v>
+        <v>65.30618901493334</v>
       </c>
       <c r="C26" t="n">
-        <v>3.266666666666667</v>
+        <v>10.14066666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>60.55062933333333</v>
+        <v>71.30618901493334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.422222222222223</v>
+        <v>10.62355555555556</v>
       </c>
       <c r="B27" t="n">
-        <v>55.60431881481482</v>
+        <v>65.82357252432593</v>
       </c>
       <c r="C27" t="n">
-        <v>3.422222222222223</v>
+        <v>10.62355555555556</v>
       </c>
       <c r="D27" t="n">
-        <v>60.60431881481482</v>
+        <v>71.82357252432593</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.577777777777778</v>
+        <v>11.10644444444445</v>
       </c>
       <c r="B28" t="n">
-        <v>55.66050548148148</v>
+        <v>66.3650203829926</v>
       </c>
       <c r="C28" t="n">
-        <v>3.577777777777778</v>
+        <v>11.10644444444445</v>
       </c>
       <c r="D28" t="n">
-        <v>60.66050548148148</v>
+        <v>72.3650203829926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.733333333333334</v>
+        <v>11.58933333333333</v>
       </c>
       <c r="B29" t="n">
-        <v>55.71918933333333</v>
+        <v>66.93053259093334</v>
       </c>
       <c r="C29" t="n">
-        <v>3.733333333333334</v>
+        <v>11.58933333333333</v>
       </c>
       <c r="D29" t="n">
-        <v>60.71918933333333</v>
+        <v>72.93053259093334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.88888888888889</v>
+        <v>12.07222222222222</v>
       </c>
       <c r="B30" t="n">
-        <v>55.78037037037037</v>
+        <v>67.52010914814815</v>
       </c>
       <c r="C30" t="n">
-        <v>3.88888888888889</v>
+        <v>12.07222222222222</v>
       </c>
       <c r="D30" t="n">
-        <v>60.78037037037037</v>
+        <v>73.52010914814815</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.044444444444445</v>
+        <v>12.55511111111111</v>
       </c>
       <c r="B31" t="n">
-        <v>55.84404859259259</v>
+        <v>68.13375005463703</v>
       </c>
       <c r="C31" t="n">
-        <v>4.044444444444445</v>
+        <v>12.55511111111111</v>
       </c>
       <c r="D31" t="n">
-        <v>60.84404859259259</v>
+        <v>74.13375005463703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.200000000000001</v>
+        <v>13.038</v>
       </c>
       <c r="B32" t="n">
-        <v>55.910224</v>
+        <v>68.7714553104</v>
       </c>
       <c r="C32" t="n">
-        <v>4.200000000000001</v>
+        <v>13.038</v>
       </c>
       <c r="D32" t="n">
-        <v>60.910224</v>
+        <v>74.7714553104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.355555555555556</v>
+        <v>13.52088888888889</v>
       </c>
       <c r="B33" t="n">
-        <v>55.97889659259259</v>
+        <v>69.43322491543704</v>
       </c>
       <c r="C33" t="n">
-        <v>4.355555555555556</v>
+        <v>13.52088888888889</v>
       </c>
       <c r="D33" t="n">
-        <v>60.97889659259259</v>
+        <v>75.43322491543704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.511111111111112</v>
+        <v>14.00377777777778</v>
       </c>
       <c r="B34" t="n">
-        <v>56.05006637037037</v>
+        <v>70.11905886974814</v>
       </c>
       <c r="C34" t="n">
-        <v>4.511111111111112</v>
+        <v>14.00377777777778</v>
       </c>
       <c r="D34" t="n">
-        <v>61.05006637037037</v>
+        <v>76.11905886974814</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.666666666666668</v>
+        <v>14.48666666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>56.12373333333333</v>
+        <v>70.82895717333334</v>
       </c>
       <c r="C35" t="n">
-        <v>4.666666666666668</v>
+        <v>14.48666666666667</v>
       </c>
       <c r="D35" t="n">
-        <v>61.12373333333333</v>
+        <v>76.82895717333334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.822222222222223</v>
+        <v>14.96955555555556</v>
       </c>
       <c r="B36" t="n">
-        <v>56.19989748148148</v>
+        <v>71.5629198261926</v>
       </c>
       <c r="C36" t="n">
-        <v>4.822222222222223</v>
+        <v>14.96955555555556</v>
       </c>
       <c r="D36" t="n">
-        <v>61.19989748148148</v>
+        <v>77.5629198261926</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.977777777777779</v>
+        <v>15.45244444444445</v>
       </c>
       <c r="B37" t="n">
-        <v>56.27855881481482</v>
+        <v>72.32094682832593</v>
       </c>
       <c r="C37" t="n">
-        <v>4.977777777777779</v>
+        <v>15.45244444444445</v>
       </c>
       <c r="D37" t="n">
-        <v>61.27855881481482</v>
+        <v>78.32094682832593</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.133333333333335</v>
+        <v>15.93533333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>56.35971733333334</v>
+        <v>73.10303817973333</v>
       </c>
       <c r="C38" t="n">
-        <v>5.133333333333335</v>
+        <v>15.93533333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>61.35971733333334</v>
+        <v>79.10303817973333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.28888888888889</v>
+        <v>16.41822222222222</v>
       </c>
       <c r="B39" t="n">
-        <v>56.44337303703703</v>
+        <v>73.90919388041482</v>
       </c>
       <c r="C39" t="n">
-        <v>5.28888888888889</v>
+        <v>16.41822222222222</v>
       </c>
       <c r="D39" t="n">
-        <v>61.44337303703703</v>
+        <v>79.90919388041482</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.444444444444446</v>
+        <v>16.90111111111111</v>
       </c>
       <c r="B40" t="n">
-        <v>56.52952592592592</v>
+        <v>74.73941393037038</v>
       </c>
       <c r="C40" t="n">
-        <v>5.444444444444446</v>
+        <v>16.90111111111111</v>
       </c>
       <c r="D40" t="n">
-        <v>61.52952592592592</v>
+        <v>80.73941393037038</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.600000000000001</v>
+        <v>17.384</v>
       </c>
       <c r="B41" t="n">
-        <v>56.618176</v>
+        <v>75.5936983296</v>
       </c>
       <c r="C41" t="n">
-        <v>5.600000000000001</v>
+        <v>17.384</v>
       </c>
       <c r="D41" t="n">
-        <v>61.618176</v>
+        <v>81.5936983296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.755555555555556</v>
+        <v>17.86688888888889</v>
       </c>
       <c r="B42" t="n">
-        <v>56.70932325925926</v>
+        <v>76.47204707810371</v>
       </c>
       <c r="C42" t="n">
-        <v>5.755555555555556</v>
+        <v>17.86688888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>61.70932325925926</v>
+        <v>82.47204707810371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.911111111111112</v>
+        <v>18.34977777777778</v>
       </c>
       <c r="B43" t="n">
-        <v>56.80296770370371</v>
+        <v>77.37446017588148</v>
       </c>
       <c r="C43" t="n">
-        <v>5.911111111111112</v>
+        <v>18.34977777777778</v>
       </c>
       <c r="D43" t="n">
-        <v>61.80296770370371</v>
+        <v>83.37446017588148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.066666666666668</v>
+        <v>18.83266666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>56.89910933333334</v>
+        <v>78.30093762293333</v>
       </c>
       <c r="C44" t="n">
-        <v>6.066666666666668</v>
+        <v>18.83266666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>61.89910933333334</v>
+        <v>84.30093762293333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.222222222222223</v>
+        <v>19.31555555555556</v>
       </c>
       <c r="B45" t="n">
-        <v>56.99774814814815</v>
+        <v>79.25147941925925</v>
       </c>
       <c r="C45" t="n">
-        <v>6.222222222222223</v>
+        <v>19.31555555555556</v>
       </c>
       <c r="D45" t="n">
-        <v>61.99774814814815</v>
+        <v>85.25147941925925</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.377777777777779</v>
+        <v>19.79844444444445</v>
       </c>
       <c r="B46" t="n">
-        <v>57.09888414814815</v>
+        <v>80.22608556485926</v>
       </c>
       <c r="C46" t="n">
-        <v>6.377777777777779</v>
+        <v>19.79844444444445</v>
       </c>
       <c r="D46" t="n">
-        <v>62.09888414814815</v>
+        <v>86.22608556485926</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.533333333333335</v>
+        <v>20.28133333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>57.20251733333333</v>
+        <v>81.22475605973334</v>
       </c>
       <c r="C47" t="n">
-        <v>6.533333333333335</v>
+        <v>20.28133333333334</v>
       </c>
       <c r="D47" t="n">
-        <v>62.20251733333333</v>
+        <v>87.22475605973334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.68888888888889</v>
+        <v>20.76422222222222</v>
       </c>
       <c r="B48" t="n">
-        <v>57.30864770370371</v>
+        <v>82.24749090388148</v>
       </c>
       <c r="C48" t="n">
-        <v>6.68888888888889</v>
+        <v>20.76422222222222</v>
       </c>
       <c r="D48" t="n">
-        <v>62.30864770370371</v>
+        <v>88.24749090388148</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.844444444444446</v>
+        <v>21.24711111111111</v>
       </c>
       <c r="B49" t="n">
-        <v>57.41727525925926</v>
+        <v>83.2942900973037</v>
       </c>
       <c r="C49" t="n">
-        <v>6.844444444444446</v>
+        <v>21.24711111111111</v>
       </c>
       <c r="D49" t="n">
-        <v>62.41727525925926</v>
+        <v>89.2942900973037</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7.000000000000002</v>
+        <v>21.73</v>
       </c>
       <c r="B50" t="n">
-        <v>57.5284</v>
+        <v>84.36515364</v>
       </c>
       <c r="C50" t="n">
-        <v>7.000000000000002</v>
+        <v>21.73</v>
       </c>
       <c r="D50" t="n">
-        <v>62.5284</v>
+        <v>90.36515364</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7.155555555555557</v>
+        <v>22.21288888888889</v>
       </c>
       <c r="B51" t="n">
-        <v>57.64202192592592</v>
+        <v>85.46008153197037</v>
       </c>
       <c r="C51" t="n">
-        <v>7.155555555555557</v>
+        <v>22.21288888888889</v>
       </c>
       <c r="D51" t="n">
-        <v>62.64202192592592</v>
+        <v>91.46008153197037</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.311111111111113</v>
+        <v>22.69577777777778</v>
       </c>
       <c r="B52" t="n">
-        <v>57.75814103703703</v>
+        <v>86.57907377321482</v>
       </c>
       <c r="C52" t="n">
-        <v>7.311111111111113</v>
+        <v>22.69577777777778</v>
       </c>
       <c r="D52" t="n">
-        <v>62.75814103703703</v>
+        <v>92.57907377321482</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.466666666666669</v>
+        <v>23.17866666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>57.87675733333334</v>
+        <v>87.72213036373333</v>
       </c>
       <c r="C53" t="n">
-        <v>7.466666666666669</v>
+        <v>23.17866666666667</v>
       </c>
       <c r="D53" t="n">
-        <v>62.87675733333334</v>
+        <v>93.72213036373333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7.622222222222224</v>
+        <v>23.66155555555556</v>
       </c>
       <c r="B54" t="n">
-        <v>57.99787081481482</v>
+        <v>88.88925130352592</v>
       </c>
       <c r="C54" t="n">
-        <v>7.622222222222224</v>
+        <v>23.66155555555556</v>
       </c>
       <c r="D54" t="n">
-        <v>62.99787081481482</v>
+        <v>94.88925130352592</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7.777777777777779</v>
+        <v>24.14444444444445</v>
       </c>
       <c r="B55" t="n">
-        <v>58.12148148148148</v>
+        <v>90.08043659259259</v>
       </c>
       <c r="C55" t="n">
-        <v>7.777777777777779</v>
+        <v>24.14444444444445</v>
       </c>
       <c r="D55" t="n">
-        <v>63.12148148148148</v>
+        <v>96.08043659259259</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.933333333333334</v>
+        <v>24.62733333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>58.24758933333334</v>
+        <v>91.29568623093334</v>
       </c>
       <c r="C56" t="n">
-        <v>7.933333333333334</v>
+        <v>24.62733333333334</v>
       </c>
       <c r="D56" t="n">
-        <v>63.24758933333334</v>
+        <v>97.29568623093334</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8.08888888888889</v>
+        <v>25.11022222222222</v>
       </c>
       <c r="B57" t="n">
-        <v>58.37619437037037</v>
+        <v>92.53500021854815</v>
       </c>
       <c r="C57" t="n">
-        <v>8.08888888888889</v>
+        <v>25.11022222222222</v>
       </c>
       <c r="D57" t="n">
-        <v>63.37619437037037</v>
+        <v>98.53500021854815</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.244444444444445</v>
+        <v>25.59311111111111</v>
       </c>
       <c r="B58" t="n">
-        <v>58.5072965925926</v>
+        <v>93.79837855543704</v>
       </c>
       <c r="C58" t="n">
-        <v>8.244444444444445</v>
+        <v>25.59311111111111</v>
       </c>
       <c r="D58" t="n">
-        <v>63.5072965925926</v>
+        <v>99.79837855543704</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.400000000000002</v>
+        <v>26.076</v>
       </c>
       <c r="B59" t="n">
-        <v>58.640896</v>
+        <v>95.0858212416</v>
       </c>
       <c r="C59" t="n">
-        <v>8.400000000000002</v>
+        <v>26.076</v>
       </c>
       <c r="D59" t="n">
-        <v>63.640896</v>
+        <v>101.0858212416</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8.555555555555557</v>
+        <v>26.55888888888889</v>
       </c>
       <c r="B60" t="n">
-        <v>58.77699259259259</v>
+        <v>96.39732827703705</v>
       </c>
       <c r="C60" t="n">
-        <v>8.555555555555557</v>
+        <v>26.55888888888889</v>
       </c>
       <c r="D60" t="n">
-        <v>63.77699259259259</v>
+        <v>102.397328277037</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.711111111111112</v>
+        <v>27.04177777777778</v>
       </c>
       <c r="B61" t="n">
-        <v>58.91558637037037</v>
+        <v>97.73289966174816</v>
       </c>
       <c r="C61" t="n">
-        <v>8.711111111111112</v>
+        <v>27.04177777777778</v>
       </c>
       <c r="D61" t="n">
-        <v>63.91558637037037</v>
+        <v>103.7328996617482</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8.866666666666669</v>
+        <v>27.52466666666667</v>
       </c>
       <c r="B62" t="n">
-        <v>59.05667733333333</v>
+        <v>99.09253539573334</v>
       </c>
       <c r="C62" t="n">
-        <v>8.866666666666669</v>
+        <v>27.52466666666667</v>
       </c>
       <c r="D62" t="n">
-        <v>64.05667733333334</v>
+        <v>105.0925353957333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.022222222222224</v>
+        <v>28.00755555555556</v>
       </c>
       <c r="B63" t="n">
-        <v>59.20026548148148</v>
+        <v>100.4762354789926</v>
       </c>
       <c r="C63" t="n">
-        <v>9.022222222222224</v>
+        <v>28.00755555555556</v>
       </c>
       <c r="D63" t="n">
-        <v>64.20026548148148</v>
+        <v>106.4762354789926</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.177777777777779</v>
+        <v>28.49044444444445</v>
       </c>
       <c r="B64" t="n">
-        <v>59.34635081481481</v>
+        <v>101.8839999115259</v>
       </c>
       <c r="C64" t="n">
-        <v>9.177777777777779</v>
+        <v>28.49044444444445</v>
       </c>
       <c r="D64" t="n">
-        <v>64.34635081481481</v>
+        <v>107.8839999115259</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.333333333333336</v>
+        <v>28.97333333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>59.49493333333334</v>
+        <v>103.3158286933333</v>
       </c>
       <c r="C65" t="n">
-        <v>9.333333333333336</v>
+        <v>28.97333333333334</v>
       </c>
       <c r="D65" t="n">
-        <v>64.49493333333334</v>
+        <v>109.3158286933333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.488888888888891</v>
+        <v>29.45622222222222</v>
       </c>
       <c r="B66" t="n">
-        <v>59.64601303703704</v>
+        <v>104.7717218244148</v>
       </c>
       <c r="C66" t="n">
-        <v>9.488888888888891</v>
+        <v>29.45622222222222</v>
       </c>
       <c r="D66" t="n">
-        <v>64.64601303703704</v>
+        <v>110.7717218244148</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.644444444444446</v>
+        <v>29.93911111111111</v>
       </c>
       <c r="B67" t="n">
-        <v>59.79958992592593</v>
+        <v>106.2516793047704</v>
       </c>
       <c r="C67" t="n">
-        <v>9.644444444444446</v>
+        <v>29.93911111111111</v>
       </c>
       <c r="D67" t="n">
-        <v>64.79958992592593</v>
+        <v>112.2516793047704</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.800000000000002</v>
+        <v>30.422</v>
       </c>
       <c r="B68" t="n">
-        <v>59.955664</v>
+        <v>107.7557011344</v>
       </c>
       <c r="C68" t="n">
-        <v>9.800000000000002</v>
+        <v>30.422</v>
       </c>
       <c r="D68" t="n">
-        <v>64.955664</v>
+        <v>113.7557011344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.955555555555557</v>
+        <v>30.90488888888889</v>
       </c>
       <c r="B69" t="n">
-        <v>60.11423525925926</v>
+        <v>109.2837873133037</v>
       </c>
       <c r="C69" t="n">
-        <v>9.955555555555557</v>
+        <v>30.90488888888889</v>
       </c>
       <c r="D69" t="n">
-        <v>65.11423525925926</v>
+        <v>115.2837873133037</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.11111111111111</v>
+        <v>31.38777777777778</v>
       </c>
       <c r="B70" t="n">
-        <v>60.27530370370371</v>
+        <v>110.8359378414815</v>
       </c>
       <c r="C70" t="n">
-        <v>10.11111111111111</v>
+        <v>31.38777777777778</v>
       </c>
       <c r="D70" t="n">
-        <v>65.2753037037037</v>
+        <v>116.8359378414815</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.26666666666667</v>
+        <v>31.87066666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>60.43886933333334</v>
+        <v>112.4121527189333</v>
       </c>
       <c r="C71" t="n">
-        <v>10.26666666666667</v>
+        <v>31.87066666666667</v>
       </c>
       <c r="D71" t="n">
-        <v>65.43886933333333</v>
+        <v>118.4121527189333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.42222222222222</v>
+        <v>32.35355555555556</v>
       </c>
       <c r="B72" t="n">
-        <v>60.60493214814815</v>
+        <v>114.0124319456593</v>
       </c>
       <c r="C72" t="n">
-        <v>10.42222222222222</v>
+        <v>32.35355555555556</v>
       </c>
       <c r="D72" t="n">
-        <v>65.60493214814815</v>
+        <v>120.0124319456593</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10.57777777777778</v>
+        <v>32.83644444444445</v>
       </c>
       <c r="B73" t="n">
-        <v>60.77349214814815</v>
+        <v>115.6367755216593</v>
       </c>
       <c r="C73" t="n">
-        <v>10.57777777777778</v>
+        <v>32.83644444444445</v>
       </c>
       <c r="D73" t="n">
-        <v>65.77349214814815</v>
+        <v>121.6367755216593</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10.73333333333334</v>
+        <v>33.31933333333333</v>
       </c>
       <c r="B74" t="n">
-        <v>60.94454933333333</v>
+        <v>117.2851834469333</v>
       </c>
       <c r="C74" t="n">
-        <v>10.73333333333334</v>
+        <v>33.31933333333333</v>
       </c>
       <c r="D74" t="n">
-        <v>65.94454933333334</v>
+        <v>123.2851834469333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.88888888888889</v>
+        <v>33.80222222222223</v>
       </c>
       <c r="B75" t="n">
-        <v>61.11810370370371</v>
+        <v>118.9576557214815</v>
       </c>
       <c r="C75" t="n">
-        <v>10.88888888888889</v>
+        <v>33.80222222222223</v>
       </c>
       <c r="D75" t="n">
-        <v>66.11810370370371</v>
+        <v>124.9576557214815</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>11.04444444444445</v>
+        <v>34.28511111111111</v>
       </c>
       <c r="B76" t="n">
-        <v>61.29415525925926</v>
+        <v>120.6541923453037</v>
       </c>
       <c r="C76" t="n">
-        <v>11.04444444444445</v>
+        <v>34.28511111111111</v>
       </c>
       <c r="D76" t="n">
-        <v>66.29415525925926</v>
+        <v>126.6541923453037</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11.2</v>
+        <v>34.768</v>
       </c>
       <c r="B77" t="n">
-        <v>61.47270400000001</v>
+        <v>122.3747933184</v>
       </c>
       <c r="C77" t="n">
-        <v>11.2</v>
+        <v>34.768</v>
       </c>
       <c r="D77" t="n">
-        <v>66.47270400000001</v>
+        <v>128.3747933184</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>11.35555555555556</v>
+        <v>35.25088888888889</v>
       </c>
       <c r="B78" t="n">
-        <v>61.65374992592593</v>
+        <v>124.1194586407704</v>
       </c>
       <c r="C78" t="n">
-        <v>11.35555555555556</v>
+        <v>35.25088888888889</v>
       </c>
       <c r="D78" t="n">
-        <v>66.65374992592592</v>
+        <v>130.1194586407704</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11.51111111111111</v>
+        <v>35.73377777777778</v>
       </c>
       <c r="B79" t="n">
-        <v>61.83729303703704</v>
+        <v>125.8881883124148</v>
       </c>
       <c r="C79" t="n">
-        <v>11.51111111111111</v>
+        <v>35.73377777777778</v>
       </c>
       <c r="D79" t="n">
-        <v>66.83729303703704</v>
+        <v>131.8881883124148</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>11.66666666666667</v>
+        <v>36.21666666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>62.02333333333333</v>
+        <v>127.6809823333333</v>
       </c>
       <c r="C80" t="n">
-        <v>11.66666666666667</v>
+        <v>36.21666666666667</v>
       </c>
       <c r="D80" t="n">
-        <v>67.02333333333334</v>
+        <v>133.6809823333334</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>11.82222222222222</v>
+        <v>36.69955555555556</v>
       </c>
       <c r="B81" t="n">
-        <v>62.21187081481482</v>
+        <v>129.4978407035259</v>
       </c>
       <c r="C81" t="n">
-        <v>11.82222222222222</v>
+        <v>36.69955555555556</v>
       </c>
       <c r="D81" t="n">
-        <v>67.21187081481482</v>
+        <v>135.4978407035259</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11.97777777777778</v>
+        <v>37.18244444444445</v>
       </c>
       <c r="B82" t="n">
-        <v>62.40290548148148</v>
+        <v>131.3387634229926</v>
       </c>
       <c r="C82" t="n">
-        <v>11.97777777777778</v>
+        <v>37.18244444444445</v>
       </c>
       <c r="D82" t="n">
-        <v>67.40290548148148</v>
+        <v>137.3387634229926</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>12.13333333333334</v>
+        <v>37.66533333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>62.59643733333334</v>
+        <v>133.2037504917333</v>
       </c>
       <c r="C83" t="n">
-        <v>12.13333333333334</v>
+        <v>37.66533333333334</v>
       </c>
       <c r="D83" t="n">
-        <v>67.59643733333334</v>
+        <v>139.2037504917333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12.28888888888889</v>
+        <v>38.14822222222222</v>
       </c>
       <c r="B84" t="n">
-        <v>62.79246637037037</v>
+        <v>135.0928019097481</v>
       </c>
       <c r="C84" t="n">
-        <v>12.28888888888889</v>
+        <v>38.14822222222222</v>
       </c>
       <c r="D84" t="n">
-        <v>67.79246637037038</v>
+        <v>141.0928019097481</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>12.44444444444445</v>
+        <v>38.63111111111111</v>
       </c>
       <c r="B85" t="n">
-        <v>62.9909925925926</v>
+        <v>137.005917677037</v>
       </c>
       <c r="C85" t="n">
-        <v>12.44444444444445</v>
+        <v>38.63111111111111</v>
       </c>
       <c r="D85" t="n">
-        <v>67.99099259259259</v>
+        <v>143.005917677037</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12.6</v>
+        <v>39.114</v>
       </c>
       <c r="B86" t="n">
-        <v>63.192016</v>
+        <v>138.9430977936</v>
       </c>
       <c r="C86" t="n">
-        <v>12.6</v>
+        <v>39.114</v>
       </c>
       <c r="D86" t="n">
-        <v>68.19201600000001</v>
+        <v>144.9430977936</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>12.75555555555556</v>
+        <v>39.59688888888889</v>
       </c>
       <c r="B87" t="n">
-        <v>63.39553659259259</v>
+        <v>140.904342259437</v>
       </c>
       <c r="C87" t="n">
-        <v>12.75555555555556</v>
+        <v>39.59688888888889</v>
       </c>
       <c r="D87" t="n">
-        <v>68.39553659259259</v>
+        <v>146.904342259437</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>12.91111111111111</v>
+        <v>40.07977777777778</v>
       </c>
       <c r="B88" t="n">
-        <v>63.60155437037037</v>
+        <v>142.8896510745481</v>
       </c>
       <c r="C88" t="n">
-        <v>12.91111111111111</v>
+        <v>40.07977777777778</v>
       </c>
       <c r="D88" t="n">
-        <v>68.60155437037037</v>
+        <v>148.8896510745481</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>13.06666666666667</v>
+        <v>40.56266666666667</v>
       </c>
       <c r="B89" t="n">
-        <v>63.81006933333334</v>
+        <v>144.8990242389334</v>
       </c>
       <c r="C89" t="n">
-        <v>13.06666666666667</v>
+        <v>40.56266666666667</v>
       </c>
       <c r="D89" t="n">
-        <v>68.81006933333333</v>
+        <v>150.8990242389334</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13.22222222222222</v>
+        <v>41.04555555555556</v>
       </c>
       <c r="B90" t="n">
-        <v>64.02108148148149</v>
+        <v>146.9324617525926</v>
       </c>
       <c r="C90" t="n">
-        <v>13.22222222222222</v>
+        <v>41.04555555555556</v>
       </c>
       <c r="D90" t="n">
-        <v>69.02108148148149</v>
+        <v>152.9324617525926</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13.37777777777778</v>
+        <v>41.52844444444445</v>
       </c>
       <c r="B91" t="n">
-        <v>64.23459081481482</v>
+        <v>148.9899636155259</v>
       </c>
       <c r="C91" t="n">
-        <v>13.37777777777778</v>
+        <v>41.52844444444445</v>
       </c>
       <c r="D91" t="n">
-        <v>69.23459081481482</v>
+        <v>154.9899636155259</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>13.53333333333334</v>
+        <v>42.01133333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>64.45059733333333</v>
+        <v>151.0715298277333</v>
       </c>
       <c r="C92" t="n">
-        <v>13.53333333333334</v>
+        <v>42.01133333333333</v>
       </c>
       <c r="D92" t="n">
-        <v>69.45059733333333</v>
+        <v>157.0715298277333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>13.68888888888889</v>
+        <v>42.49422222222223</v>
       </c>
       <c r="B93" t="n">
-        <v>64.66910103703704</v>
+        <v>153.1771603892148</v>
       </c>
       <c r="C93" t="n">
-        <v>13.68888888888889</v>
+        <v>42.49422222222223</v>
       </c>
       <c r="D93" t="n">
-        <v>69.66910103703704</v>
+        <v>159.1771603892148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>13.84444444444445</v>
+        <v>42.97711111111111</v>
       </c>
       <c r="B94" t="n">
-        <v>64.89010192592593</v>
+        <v>155.3068552999704</v>
       </c>
       <c r="C94" t="n">
-        <v>13.84444444444445</v>
+        <v>42.97711111111111</v>
       </c>
       <c r="D94" t="n">
-        <v>69.89010192592593</v>
+        <v>161.3068552999704</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>14</v>
+        <v>43.46</v>
       </c>
       <c r="B95" t="n">
-        <v>65.11360000000001</v>
+        <v>157.46061456</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>43.46</v>
       </c>
       <c r="D95" t="n">
-        <v>70.11360000000001</v>
+        <v>163.46061456</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>14.15555555555556</v>
+        <v>43.94288888888889</v>
       </c>
       <c r="B96" t="n">
-        <v>65.33959525925927</v>
+        <v>159.6384381693037</v>
       </c>
       <c r="C96" t="n">
-        <v>14.15555555555556</v>
+        <v>43.94288888888889</v>
       </c>
       <c r="D96" t="n">
-        <v>70.33959525925927</v>
+        <v>165.6384381693037</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14.31111111111111</v>
+        <v>44.42577777777778</v>
       </c>
       <c r="B97" t="n">
-        <v>65.56808770370371</v>
+        <v>161.8403261278815</v>
       </c>
       <c r="C97" t="n">
-        <v>14.31111111111111</v>
+        <v>44.42577777777778</v>
       </c>
       <c r="D97" t="n">
-        <v>70.56808770370371</v>
+        <v>167.8403261278815</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>14.46666666666667</v>
+        <v>44.90866666666667</v>
       </c>
       <c r="B98" t="n">
-        <v>65.79907733333334</v>
+        <v>164.0662784357334</v>
       </c>
       <c r="C98" t="n">
-        <v>14.46666666666667</v>
+        <v>44.90866666666667</v>
       </c>
       <c r="D98" t="n">
-        <v>70.79907733333334</v>
+        <v>170.0662784357334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>14.62222222222223</v>
+        <v>45.39155555555556</v>
       </c>
       <c r="B99" t="n">
-        <v>66.03256414814815</v>
+        <v>166.3162950928593</v>
       </c>
       <c r="C99" t="n">
-        <v>14.62222222222223</v>
+        <v>45.39155555555556</v>
       </c>
       <c r="D99" t="n">
-        <v>71.03256414814815</v>
+        <v>172.3162950928593</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>14.77777777777778</v>
+        <v>45.87444444444445</v>
       </c>
       <c r="B100" t="n">
-        <v>66.26854814814816</v>
+        <v>168.5903760992593</v>
       </c>
       <c r="C100" t="n">
-        <v>14.77777777777778</v>
+        <v>45.87444444444445</v>
       </c>
       <c r="D100" t="n">
-        <v>71.26854814814816</v>
+        <v>174.5903760992593</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>14.93333333333334</v>
+        <v>46.35733333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>66.50702933333334</v>
+        <v>170.8885214549333</v>
       </c>
       <c r="C101" t="n">
-        <v>14.93333333333334</v>
+        <v>46.35733333333334</v>
       </c>
       <c r="D101" t="n">
-        <v>71.50702933333334</v>
+        <v>176.8885214549333</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>15.08888888888889</v>
+        <v>46.84022222222222</v>
       </c>
       <c r="B102" t="n">
-        <v>66.74800770370371</v>
+        <v>173.2107311598815</v>
       </c>
       <c r="C102" t="n">
-        <v>15.08888888888889</v>
+        <v>46.84022222222222</v>
       </c>
       <c r="D102" t="n">
-        <v>71.74800770370371</v>
+        <v>179.2107311598815</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>15.24444444444445</v>
+        <v>47.32311111111112</v>
       </c>
       <c r="B103" t="n">
-        <v>66.99148325925927</v>
+        <v>175.5570052141037</v>
       </c>
       <c r="C103" t="n">
-        <v>15.24444444444445</v>
+        <v>47.32311111111112</v>
       </c>
       <c r="D103" t="n">
-        <v>71.99148325925927</v>
+        <v>181.5570052141037</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>15.4</v>
+        <v>47.806</v>
       </c>
       <c r="B104" t="n">
-        <v>67.23745600000001</v>
+        <v>177.9273436176</v>
       </c>
       <c r="C104" t="n">
-        <v>15.4</v>
+        <v>47.806</v>
       </c>
       <c r="D104" t="n">
-        <v>72.23745600000001</v>
+        <v>183.9273436176</v>
       </c>
     </row>
   </sheetData>
@@ -6273,7 +8385,7 @@
     <row r="41">
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>H = 55.00 + 0.0516 × Q²</t>
+          <t>H = 60.00 + 0.0516 × Q²</t>
         </is>
       </c>
     </row>
@@ -6287,7 +8399,7 @@
     <row r="44">
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>H = 60.00 + 0.0516 × Q²</t>
+          <t>H = 66.00 + 0.0516 × Q²</t>
         </is>
       </c>
     </row>

--- a/Curvas_Bomba.xlsx
+++ b/Curvas_Bomba.xlsx
@@ -166,7 +166,7 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>Rotor 203</v>
+            <v>Rotor 250</v>
           </tx>
           <spPr>
             <a:ln>
@@ -196,7 +196,7 @@
           <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>Rotor 203_3300RPM</v>
+            <v>Rotor 250_3200RPM</v>
           </tx>
           <spPr>
             <a:ln>
@@ -226,7 +226,7 @@
           <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>Rotor 203 - Paralelo</v>
+            <v>Rotor 250+250_3200RPM - Paralelo</v>
           </tx>
           <spPr>
             <a:ln>
@@ -243,12 +243,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Interpolados'!$A$211:$A$310</f>
+              <f>'Interpolados'!$A$211:$A$230</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Interpolados'!$B$211:$B$310</f>
+              <f>'Interpolados'!$B$211:$B$230</f>
             </numRef>
           </yVal>
         </ser>
@@ -411,7 +411,7 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>Rendimento 203</v>
+            <v>Rendimento 250</v>
           </tx>
           <spPr>
             <a:ln w="20000">
@@ -444,7 +444,7 @@
           <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>Rendimento 203_3300RPM</v>
+            <v>Rendimento 250_3200RPM</v>
           </tx>
           <spPr>
             <a:ln w="20000">
@@ -477,7 +477,7 @@
           <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>Rendimento 203 - Paralelo</v>
+            <v>Rendimento 250+250_3200RPM - Paralelo</v>
           </tx>
           <spPr>
             <a:ln w="20000">
@@ -497,12 +497,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Interpolados'!$A$211:$A$310</f>
+              <f>'Interpolados'!$A$211:$A$230</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Interpolados'!$C$211:$C$310</f>
+              <f>'Interpolados'!$C$211:$C$230</f>
             </numRef>
           </yVal>
         </ser>
@@ -913,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,7 +921,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26.4" customWidth="1" min="1" max="1"/>
+    <col width="40.8" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -931,7 +931,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Rotor 203</t>
+          <t>Rotor 250</t>
         </is>
       </c>
     </row>
@@ -981,421 +981,648 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.71</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>72.91</v>
+        <v>72</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1527.2254098825</v>
+        <v>1369.2798</v>
       </c>
       <c r="E4" t="n">
-        <v>5873.943884163461</v>
+        <v>10532.92153846154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.369999999999999</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>71.79000000000001</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>19.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1827.5329214475</v>
+        <v>2662.4885</v>
       </c>
       <c r="E5" t="n">
-        <v>5895.267488540323</v>
+        <v>13653.78717948718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.54</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>70.77</v>
+        <v>67.5</v>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>2218.792398585</v>
+        <v>3484.3280625</v>
       </c>
       <c r="E6" t="n">
-        <v>6163.312218291666</v>
+        <v>15837.85482954545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.4</v>
+        <v>23</v>
       </c>
       <c r="B7" t="n">
-        <v>67.98</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2659.5325944</v>
+        <v>4124.14035</v>
       </c>
       <c r="E7" t="n">
-        <v>6486.664864390244</v>
+        <v>13747.1345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16.61</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="n">
-        <v>43.5</v>
+        <v>31.2</v>
       </c>
       <c r="D8" t="n">
-        <v>2933.22011125</v>
+        <v>4379.5219</v>
       </c>
       <c r="E8" t="n">
-        <v>6743.034738505748</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="B9" t="n">
-        <v>57</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3365.08661325</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7682.846148972602</v>
-      </c>
-    </row>
+        <v>14036.92916666666</v>
+      </c>
+    </row>
+    <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Rotor 250_3200RPM</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rotor 203_3300RPM</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Vazão (m³/h)</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Altura (m)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Eficiência (%)</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Potência Hidráulica (W)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Potência Mecânica (W)</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Vazão (m³/h)</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Altura (m)</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Eficiência (%)</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Potência Hidráulica (W)</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Potência Mecânica (W)</t>
-        </is>
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="B14" t="n">
-        <v>66.67</v>
+        <v>60.19</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1046.5644592</v>
       </c>
       <c r="E14" t="n">
-        <v/>
+        <v>8050.495839999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.27</v>
+        <v>12.8</v>
       </c>
       <c r="B15" t="n">
-        <v>64.81999999999999</v>
+        <v>58.51</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="D15" t="n">
-        <v>1280.280416555</v>
+        <v>2034.7063136</v>
       </c>
       <c r="E15" t="n">
-        <v>4924.15544828846</v>
+        <v>10434.39135179487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.83</v>
+        <v>17.37</v>
       </c>
       <c r="B16" t="n">
-        <v>63.82</v>
+        <v>56.42</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>1531.014022345</v>
+        <v>2662.530339105</v>
       </c>
       <c r="E16" t="n">
-        <v>4938.754910790322</v>
+        <v>12102.41063229546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.88</v>
+        <v>21.03</v>
       </c>
       <c r="B17" t="n">
-        <v>62.91</v>
+        <v>55.17</v>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>1859.56021296</v>
+        <v>3152.1285573075</v>
       </c>
       <c r="E17" t="n">
-        <v>5165.445036</v>
+        <v>10507.095191025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13.58</v>
+        <v>23.77</v>
       </c>
       <c r="B18" t="n">
-        <v>60.43</v>
+        <v>51.83</v>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>31.2</v>
       </c>
       <c r="D18" t="n">
-        <v>2229.533637905</v>
+        <v>3347.1259548575</v>
       </c>
       <c r="E18" t="n">
-        <v>5437.886921719512</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="B19" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2458.27780551</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5651.213346</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="B20" t="n">
-        <v>50.67</v>
-      </c>
-      <c r="C20" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2820.6846011475</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6439.919180702054</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
+        <v>10727.96780403045</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Rotor 250+250_3200RPM - Paralelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Vazão (m³/h)</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Altura (m)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Eficiência (%)</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Potência Hidráulica (W)</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Potência Mecânica (W)</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Rotor 203 - Paralelo</t>
-        </is>
+      <c r="A23" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="B23" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>31.0%:0.0%</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4339.696505690001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Vazão (m³/h)</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Altura (m)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Eficiência (%)</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Potência Hidráulica (W)</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Potência Mecânica (W)</t>
-        </is>
+      <c r="A24" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="B24" t="n">
+        <v>62.65</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>31.0%:0.2%</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4357.352608</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="B25" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>31.0%:0.4%</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4375.681396179999</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>75</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15.42</v>
+        <v>25.84</v>
       </c>
       <c r="B26" t="n">
-        <v>72.91</v>
-      </c>
-      <c r="C26" t="n">
-        <v>26</v>
+        <v>62.58</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>31.0%:0.6%</t>
+        </is>
       </c>
       <c r="D26" t="n">
-        <v>3054.450819765</v>
+        <v>4393.28859564</v>
       </c>
       <c r="E26" t="n">
-        <v>11747.88776832692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18.74</v>
+        <v>25.96</v>
       </c>
       <c r="B27" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="C27" t="n">
-        <v>31</v>
+        <v>62.54</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>31.0%:0.8%</t>
+        </is>
       </c>
       <c r="D27" t="n">
-        <v>3655.065842895</v>
+        <v>4410.86971358</v>
       </c>
       <c r="E27" t="n">
-        <v>11790.53497708065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23.08</v>
+        <v>26.08</v>
       </c>
       <c r="B28" t="n">
-        <v>70.77</v>
-      </c>
-      <c r="C28" t="n">
-        <v>36</v>
+        <v>62.51</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>31.0%:0.9%</t>
+        </is>
       </c>
       <c r="D28" t="n">
-        <v>4437.58479717</v>
+        <v>4429.133297959999</v>
       </c>
       <c r="E28" t="n">
-        <v>12326.62443658333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.8</v>
+        <v>26.2</v>
       </c>
       <c r="B29" t="n">
-        <v>67.98</v>
-      </c>
-      <c r="C29" t="n">
-        <v>41</v>
+        <v>62.47</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>31.1%:1.1%</t>
+        </is>
       </c>
       <c r="D29" t="n">
-        <v>5319.0651888</v>
+        <v>4446.665513049999</v>
       </c>
       <c r="E29" t="n">
-        <v>12973.32972878049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33.22</v>
+        <v>26.32</v>
       </c>
       <c r="B30" t="n">
-        <v>65</v>
-      </c>
-      <c r="C30" t="n">
-        <v>43.5</v>
+        <v>62.44</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>31.1%:1.3%</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>5866.4402225</v>
+        <v>4464.88671496</v>
       </c>
       <c r="E30" t="n">
-        <v>13486.0694770115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43.46</v>
+        <v>26.44</v>
       </c>
       <c r="B31" t="n">
-        <v>57</v>
-      </c>
-      <c r="C31" t="n">
-        <v>43.8</v>
+        <v>62.4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>31.1%:1.5%</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>6730.173226499999</v>
+        <v>4482.3700272</v>
       </c>
       <c r="E31" t="n">
-        <v>15365.6922979452</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="B32" t="n">
+        <v>62.36</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31.1%:1.7%</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4499.827257919999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="B33" t="n">
+        <v>62.33</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>31.1%:1.9%</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4517.98325603</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="B34" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>31.1%:2.1%</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4535.391583899999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="B35" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>31.1%:2.3%</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4552.77383025</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="B36" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31.1%:2.5%</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4572.555033075</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="B37" t="n">
+        <v>62.18</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>31.1%:2.6%</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4589.887289845</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="B38" t="n">
+        <v>62.15</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>31.2%:2.8%</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4607.9348866375</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="B39" t="n">
+        <v>62.11</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>31.2%:3.0%</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4625.218240557499</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="B40" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>31.2%:3.2%</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4642.475512957501</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="B41" t="n">
+        <v>62.04</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>31.2%:3.4%</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4660.45790595</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="B42" t="n">
+        <v>62</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>31.2%:3.6%</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4677.6662755</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1407,7 +1634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,7 +1642,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26.4" customWidth="1" min="1" max="1"/>
+    <col width="40.8" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -1425,7 +1652,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Rotor 203</t>
+          <t>Rotor 250</t>
         </is>
       </c>
     </row>
@@ -1475,1685 +1702,1685 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2194949494949495</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="B4" t="n">
-        <v>74.94050007205649</v>
+        <v>74.88744588744589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7401904911632537</v>
+        <v>0.4877344877344878</v>
       </c>
       <c r="D4" t="n">
-        <v>44.689220907804</v>
+        <v>53.43291125759762</v>
       </c>
       <c r="E4" t="n">
-        <v>6037.529722595086</v>
+        <v>10955.32766317016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.438989898989899</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="B5" t="n">
-        <v>74.88100014411299</v>
+        <v>74.77489177489177</v>
       </c>
       <c r="C5" t="n">
-        <v>1.480380982326507</v>
+        <v>0.9754689754689756</v>
       </c>
       <c r="D5" t="n">
-        <v>89.30747870697357</v>
+        <v>106.7052056364511</v>
       </c>
       <c r="E5" t="n">
-        <v>6032.736151920941</v>
+        <v>10938.86205710956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6584848484848485</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="B6" t="n">
-        <v>74.82150021616948</v>
+        <v>74.66233766233766</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220571473489761</v>
+        <v>1.463203463203463</v>
       </c>
       <c r="D6" t="n">
-        <v>133.8547733975087</v>
+        <v>159.8168831365604</v>
       </c>
       <c r="E6" t="n">
-        <v>6027.942581246795</v>
+        <v>10922.39645104895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.877979797979798</v>
+        <v>1.050505050505051</v>
       </c>
       <c r="B7" t="n">
-        <v>74.76200028822596</v>
+        <v>74.54978354978356</v>
       </c>
       <c r="C7" t="n">
-        <v>2.960761964653015</v>
+        <v>1.950937950937951</v>
       </c>
       <c r="D7" t="n">
-        <v>178.3311049794094</v>
+        <v>212.7679437579256</v>
       </c>
       <c r="E7" t="n">
-        <v>6023.14901057265</v>
+        <v>10905.93084498834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.097474747474747</v>
+        <v>1.313131313131313</v>
       </c>
       <c r="B8" t="n">
-        <v>74.70250036028246</v>
+        <v>74.43722943722943</v>
       </c>
       <c r="C8" t="n">
-        <v>3.700952455816269</v>
+        <v>2.438672438672439</v>
       </c>
       <c r="D8" t="n">
-        <v>222.7364734526757</v>
+        <v>265.5583875005465</v>
       </c>
       <c r="E8" t="n">
-        <v>6018.355439898503</v>
+        <v>10889.46523892774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.316969696969697</v>
+        <v>1.575757575757576</v>
       </c>
       <c r="B9" t="n">
-        <v>74.64300043233895</v>
+        <v>74.32467532467533</v>
       </c>
       <c r="C9" t="n">
-        <v>4.441142946979522</v>
+        <v>2.926406926406927</v>
       </c>
       <c r="D9" t="n">
-        <v>267.0708788173075</v>
+        <v>318.1882143644235</v>
       </c>
       <c r="E9" t="n">
-        <v>6013.561869224358</v>
+        <v>10872.99963286713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.536464646464647</v>
+        <v>1.838383838383839</v>
       </c>
       <c r="B10" t="n">
-        <v>74.58350050439545</v>
+        <v>74.21212121212122</v>
       </c>
       <c r="C10" t="n">
-        <v>5.181333438142777</v>
+        <v>3.414141414141415</v>
       </c>
       <c r="D10" t="n">
-        <v>311.334321073305</v>
+        <v>370.6574243495562</v>
       </c>
       <c r="E10" t="n">
-        <v>6008.768298550214</v>
+        <v>10856.53402680653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.755959595959596</v>
+        <v>2.101010101010101</v>
       </c>
       <c r="B11" t="n">
-        <v>74.52400057645194</v>
+        <v>74.0995670995671</v>
       </c>
       <c r="C11" t="n">
-        <v>5.92152392930603</v>
+        <v>3.901875901875902</v>
       </c>
       <c r="D11" t="n">
-        <v>355.526800220668</v>
+        <v>422.9660174559447</v>
       </c>
       <c r="E11" t="n">
-        <v>6003.974727876069</v>
+        <v>10840.06842074592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.975454545454545</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="B12" t="n">
-        <v>74.46450064850843</v>
+        <v>73.98701298701299</v>
       </c>
       <c r="C12" t="n">
-        <v>6.661714420469284</v>
+        <v>4.38961038961039</v>
       </c>
       <c r="D12" t="n">
-        <v>399.6483162593966</v>
+        <v>475.1139936835891</v>
       </c>
       <c r="E12" t="n">
-        <v>5999.181157201923</v>
+        <v>10823.60281468531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.194949494949495</v>
+        <v>2.626262626262626</v>
       </c>
       <c r="B13" t="n">
-        <v>74.40500072056493</v>
+        <v>73.87445887445888</v>
       </c>
       <c r="C13" t="n">
-        <v>7.401904911632538</v>
+        <v>4.877344877344878</v>
       </c>
       <c r="D13" t="n">
-        <v>443.6988691894907</v>
+        <v>527.1013530324894</v>
       </c>
       <c r="E13" t="n">
-        <v>5994.387586527777</v>
+        <v>10807.13720862471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.414444444444444</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="B14" t="n">
-        <v>74.34550079262141</v>
+        <v>73.76190476190476</v>
       </c>
       <c r="C14" t="n">
-        <v>8.142095402795793</v>
+        <v>5.365079365079366</v>
       </c>
       <c r="D14" t="n">
-        <v>487.6784590109504</v>
+        <v>578.9280955026455</v>
       </c>
       <c r="E14" t="n">
-        <v>5989.59401585363</v>
+        <v>10790.6716025641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.633939393939394</v>
+        <v>3.151515151515152</v>
       </c>
       <c r="B15" t="n">
-        <v>74.2860008646779</v>
+        <v>73.64935064935065</v>
       </c>
       <c r="C15" t="n">
-        <v>8.882285893959045</v>
+        <v>5.852813852813854</v>
       </c>
       <c r="D15" t="n">
-        <v>531.5870857237757</v>
+        <v>630.5942210940574</v>
       </c>
       <c r="E15" t="n">
-        <v>5984.800445179487</v>
+        <v>10774.2059965035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.853434343434343</v>
+        <v>3.414141414141414</v>
       </c>
       <c r="B16" t="n">
-        <v>74.2265009367344</v>
+        <v>73.53679653679654</v>
       </c>
       <c r="C16" t="n">
-        <v>9.622476385122299</v>
+        <v>6.340548340548342</v>
       </c>
       <c r="D16" t="n">
-        <v>575.4247493279665</v>
+        <v>682.0997298067253</v>
       </c>
       <c r="E16" t="n">
-        <v>5980.006874505341</v>
+        <v>10757.74039044289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.072929292929293</v>
+        <v>3.676767676767677</v>
       </c>
       <c r="B17" t="n">
-        <v>74.16700100879089</v>
+        <v>73.42424242424242</v>
       </c>
       <c r="C17" t="n">
-        <v>10.36266687628555</v>
+        <v>6.82828282828283</v>
       </c>
       <c r="D17" t="n">
-        <v>619.1914498235232</v>
+        <v>733.444621640649</v>
       </c>
       <c r="E17" t="n">
-        <v>5975.213303831198</v>
+        <v>10741.27478438228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.292424242424242</v>
+        <v>3.93939393939394</v>
       </c>
       <c r="B18" t="n">
-        <v>74.10750108084738</v>
+        <v>73.31168831168831</v>
       </c>
       <c r="C18" t="n">
-        <v>11.10285736744881</v>
+        <v>7.316017316017317</v>
       </c>
       <c r="D18" t="n">
-        <v>662.8871872104451</v>
+        <v>784.6288965958286</v>
       </c>
       <c r="E18" t="n">
-        <v>5970.41973315705</v>
+        <v>10724.80917832168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.511919191919192</v>
+        <v>4.202020202020202</v>
       </c>
       <c r="B19" t="n">
-        <v>74.04800115290388</v>
+        <v>73.19913419913419</v>
       </c>
       <c r="C19" t="n">
-        <v>11.84304785861206</v>
+        <v>7.803751803751805</v>
       </c>
       <c r="D19" t="n">
-        <v>706.5119614887327</v>
+        <v>835.6525546722637</v>
       </c>
       <c r="E19" t="n">
-        <v>5965.626162482907</v>
+        <v>10708.34357226107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.731414141414141</v>
+        <v>4.464646464646465</v>
       </c>
       <c r="B20" t="n">
-        <v>73.98850122496037</v>
+        <v>73.08658008658008</v>
       </c>
       <c r="C20" t="n">
-        <v>12.58323834977531</v>
+        <v>8.291486291486294</v>
       </c>
       <c r="D20" t="n">
-        <v>750.065772658386</v>
+        <v>886.515595869955</v>
       </c>
       <c r="E20" t="n">
-        <v>5960.832591808762</v>
+        <v>10691.87796620046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.950909090909091</v>
+        <v>4.727272727272728</v>
       </c>
       <c r="B21" t="n">
-        <v>73.92900129701685</v>
+        <v>72.97402597402598</v>
       </c>
       <c r="C21" t="n">
-        <v>13.32342884093857</v>
+        <v>8.779220779220781</v>
       </c>
       <c r="D21" t="n">
-        <v>793.5486207194043</v>
+        <v>937.218020188902</v>
       </c>
       <c r="E21" t="n">
-        <v>5956.039021134614</v>
+        <v>10675.41236013986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.170404040404041</v>
+        <v>4.989898989898991</v>
       </c>
       <c r="B22" t="n">
-        <v>73.86950136907335</v>
+        <v>72.86147186147186</v>
       </c>
       <c r="C22" t="n">
-        <v>14.06361933210182</v>
+        <v>9.266955266955268</v>
       </c>
       <c r="D22" t="n">
-        <v>836.9605056717888</v>
+        <v>987.7598276291048</v>
       </c>
       <c r="E22" t="n">
-        <v>5951.245450460469</v>
+        <v>10658.94675407925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.38989898989899</v>
+        <v>5.252525252525253</v>
       </c>
       <c r="B23" t="n">
-        <v>73.81000144112984</v>
+        <v>72.74891774891775</v>
       </c>
       <c r="C23" t="n">
-        <v>14.80380982326508</v>
+        <v>9.754689754689755</v>
       </c>
       <c r="D23" t="n">
-        <v>880.3014275155386</v>
+        <v>1038.141018190563</v>
       </c>
       <c r="E23" t="n">
-        <v>5946.451879786324</v>
+        <v>10642.48114801865</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.609393939393939</v>
+        <v>5.515151515151516</v>
       </c>
       <c r="B24" t="n">
-        <v>73.75050151318634</v>
+        <v>72.63636363636364</v>
       </c>
       <c r="C24" t="n">
-        <v>15.54400031442833</v>
+        <v>10.24242424242424</v>
       </c>
       <c r="D24" t="n">
-        <v>923.5713862506541</v>
+        <v>1088.361591873278</v>
       </c>
       <c r="E24" t="n">
-        <v>5941.658309112179</v>
+        <v>10626.01554195804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.828888888888889</v>
+        <v>5.777777777777779</v>
       </c>
       <c r="B25" t="n">
-        <v>73.69100158524283</v>
+        <v>72.52380952380952</v>
       </c>
       <c r="C25" t="n">
-        <v>16.28419080559159</v>
+        <v>10.73015873015873</v>
       </c>
       <c r="D25" t="n">
-        <v>966.7703818771352</v>
+        <v>1138.421548677249</v>
       </c>
       <c r="E25" t="n">
-        <v>5936.864738438033</v>
+        <v>10609.54993589743</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.048383838383838</v>
+        <v>6.040404040404041</v>
       </c>
       <c r="B26" t="n">
-        <v>73.63150165729932</v>
+        <v>72.41125541125541</v>
       </c>
       <c r="C26" t="n">
-        <v>17.02438129675484</v>
+        <v>11.21789321789322</v>
       </c>
       <c r="D26" t="n">
-        <v>1009.898414394982</v>
+        <v>1188.320888602475</v>
       </c>
       <c r="E26" t="n">
-        <v>5932.071167763889</v>
+        <v>10593.08432983683</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.267878787878788</v>
+        <v>6.303030303030304</v>
       </c>
       <c r="B27" t="n">
-        <v>73.57200172935582</v>
+        <v>72.2987012987013</v>
       </c>
       <c r="C27" t="n">
-        <v>17.76457178791809</v>
+        <v>11.70562770562771</v>
       </c>
       <c r="D27" t="n">
-        <v>1052.955483804194</v>
+        <v>1238.059611648957</v>
       </c>
       <c r="E27" t="n">
-        <v>5927.277597089743</v>
+        <v>10576.61872377622</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.487373737373737</v>
+        <v>6.565656565656567</v>
       </c>
       <c r="B28" t="n">
-        <v>73.5125018014123</v>
+        <v>72.18614718614718</v>
       </c>
       <c r="C28" t="n">
-        <v>18.50476227908134</v>
+        <v>12.1933621933622</v>
       </c>
       <c r="D28" t="n">
-        <v>1095.941590104771</v>
+        <v>1287.637717816695</v>
       </c>
       <c r="E28" t="n">
-        <v>5922.484026415597</v>
+        <v>10560.15311771562</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.706868686868686</v>
+        <v>6.828282828282829</v>
       </c>
       <c r="B29" t="n">
-        <v>73.45300187346879</v>
+        <v>72.07359307359307</v>
       </c>
       <c r="C29" t="n">
-        <v>19.2449527702446</v>
+        <v>12.68109668109668</v>
       </c>
       <c r="D29" t="n">
-        <v>1138.856733296715</v>
+        <v>1337.055207105689</v>
       </c>
       <c r="E29" t="n">
-        <v>5917.690455741453</v>
+        <v>10543.68751165501</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.926363636363637</v>
+        <v>7.090909090909092</v>
       </c>
       <c r="B30" t="n">
-        <v>73.39350194552529</v>
+        <v>71.97402597402598</v>
       </c>
       <c r="C30" t="n">
-        <v>19.98514326140785</v>
+        <v>13.08441558441558</v>
       </c>
       <c r="D30" t="n">
-        <v>1181.700913380024</v>
+        <v>1386.562271192444</v>
       </c>
       <c r="E30" t="n">
-        <v>5912.896885067306</v>
+        <v>10597.05160117302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.145858585858586</v>
+        <v>7.353535353535355</v>
       </c>
       <c r="B31" t="n">
-        <v>73.33400201758178</v>
+        <v>71.8989898989899</v>
       </c>
       <c r="C31" t="n">
-        <v>20.72533375257111</v>
+        <v>13.32828282828283</v>
       </c>
       <c r="D31" t="n">
-        <v>1224.474130354698</v>
+        <v>1436.417338516478</v>
       </c>
       <c r="E31" t="n">
-        <v>5908.103314393163</v>
+        <v>10777.21231626611</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.365353535353536</v>
+        <v>7.616161616161617</v>
       </c>
       <c r="B32" t="n">
-        <v>73.27450208963828</v>
+        <v>71.82395382395383</v>
       </c>
       <c r="C32" t="n">
-        <v>21.46552424373436</v>
+        <v>13.57215007215007</v>
       </c>
       <c r="D32" t="n">
-        <v>1267.176384220738</v>
+        <v>1486.165327921349</v>
       </c>
       <c r="E32" t="n">
-        <v>5903.309743719017</v>
+        <v>10950.1097469512</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.584848484848485</v>
+        <v>7.87878787878788</v>
       </c>
       <c r="B33" t="n">
-        <v>73.21500216169477</v>
+        <v>71.74891774891775</v>
       </c>
       <c r="C33" t="n">
-        <v>22.20571473489762</v>
+        <v>13.81601731601732</v>
       </c>
       <c r="D33" t="n">
-        <v>1309.807674978144</v>
+        <v>1535.806239407058</v>
       </c>
       <c r="E33" t="n">
-        <v>5898.516173044871</v>
+        <v>11116.12850706659</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.804343434343434</v>
+        <v>8.141414141414142</v>
       </c>
       <c r="B34" t="n">
-        <v>73.15550223375126</v>
+        <v>71.67388167388168</v>
       </c>
       <c r="C34" t="n">
-        <v>22.94590522606087</v>
+        <v>14.05988455988456</v>
       </c>
       <c r="D34" t="n">
-        <v>1352.368002626915</v>
+        <v>1585.340072973603</v>
       </c>
       <c r="E34" t="n">
-        <v>5893.722602370726</v>
+        <v>11275.62652610158</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7.023838383838384</v>
+        <v>8.404040404040405</v>
       </c>
       <c r="B35" t="n">
-        <v>73.09600230580774</v>
+        <v>71.5988455988456</v>
       </c>
       <c r="C35" t="n">
-        <v>23.68609571722412</v>
+        <v>14.3037518037518</v>
       </c>
       <c r="D35" t="n">
-        <v>1394.857367167052</v>
+        <v>1634.766828620986</v>
       </c>
       <c r="E35" t="n">
-        <v>5888.929031696581</v>
+        <v>11428.9373239278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7.243333333333333</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="B36" t="n">
-        <v>73.03650237786424</v>
+        <v>71.52380952380952</v>
       </c>
       <c r="C36" t="n">
-        <v>24.42628620838737</v>
+        <v>14.54761904761905</v>
       </c>
       <c r="D36" t="n">
-        <v>1437.275768598554</v>
+        <v>1684.086506349206</v>
       </c>
       <c r="E36" t="n">
-        <v>5884.135461022435</v>
+        <v>11576.37205673759</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7.462828282828283</v>
+        <v>8.929292929292931</v>
       </c>
       <c r="B37" t="n">
-        <v>72.97700244992073</v>
+        <v>71.44877344877345</v>
       </c>
       <c r="C37" t="n">
-        <v>25.16647669955063</v>
+        <v>14.79148629148629</v>
       </c>
       <c r="D37" t="n">
-        <v>1479.623206921422</v>
+        <v>1733.299106158264</v>
       </c>
       <c r="E37" t="n">
-        <v>5879.341890348291</v>
+        <v>11718.22136059389</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.682323232323232</v>
+        <v>9.191919191919192</v>
       </c>
       <c r="B38" t="n">
-        <v>72.91750252197723</v>
+        <v>71.37373737373737</v>
       </c>
       <c r="C38" t="n">
-        <v>25.90666719071388</v>
+        <v>15.03535353535354</v>
       </c>
       <c r="D38" t="n">
-        <v>1521.899682135655</v>
+        <v>1782.404628048158</v>
       </c>
       <c r="E38" t="n">
-        <v>5874.548319674144</v>
+        <v>11854.75701557055</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.901818181818181</v>
+        <v>9.454545454545455</v>
       </c>
       <c r="B39" t="n">
-        <v>72.78058050383352</v>
+        <v>71.2987012987013</v>
       </c>
       <c r="C39" t="n">
-        <v>26.57776560788609</v>
+        <v>15.27922077922078</v>
       </c>
       <c r="D39" t="n">
-        <v>1562.443107866118</v>
+        <v>1831.40307201889</v>
       </c>
       <c r="E39" t="n">
-        <v>5878.760204742396</v>
+        <v>11986.23345052737</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.121313131313132</v>
+        <v>9.717171717171718</v>
       </c>
       <c r="B40" t="n">
-        <v>72.63248752586102</v>
+        <v>71.22366522366522</v>
       </c>
       <c r="C40" t="n">
-        <v>27.23889497383474</v>
+        <v>15.52308802308802</v>
       </c>
       <c r="D40" t="n">
-        <v>1602.576754214413</v>
+        <v>1880.294438070459</v>
       </c>
       <c r="E40" t="n">
-        <v>5883.413243282534</v>
+        <v>12112.88910604535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.340808080808081</v>
+        <v>9.979797979797981</v>
       </c>
       <c r="B41" t="n">
-        <v>72.48439454788853</v>
+        <v>71.14862914862915</v>
       </c>
       <c r="C41" t="n">
-        <v>27.90002433978338</v>
+        <v>15.76695526695527</v>
       </c>
       <c r="D41" t="n">
-        <v>1642.533776179333</v>
+        <v>1929.078726202866</v>
       </c>
       <c r="E41" t="n">
-        <v>5887.212699801129</v>
+        <v>12234.94767087893</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.560303030303031</v>
+        <v>10.24242424242424</v>
       </c>
       <c r="B42" t="n">
-        <v>72.33630156991603</v>
+        <v>71.07359307359307</v>
       </c>
       <c r="C42" t="n">
-        <v>28.56115370573202</v>
+        <v>16.01082251082251</v>
       </c>
       <c r="D42" t="n">
-        <v>1682.314173760878</v>
+        <v>1977.755936416109</v>
       </c>
       <c r="E42" t="n">
-        <v>5890.217850069725</v>
+        <v>12352.61920541087</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.77979797979798</v>
+        <v>10.50505050505051</v>
       </c>
       <c r="B43" t="n">
-        <v>72.18820859194354</v>
+        <v>70.99855699855699</v>
       </c>
       <c r="C43" t="n">
-        <v>29.22228307168066</v>
+        <v>16.25468975468976</v>
       </c>
       <c r="D43" t="n">
-        <v>1721.917946959049</v>
+        <v>2026.326068710189</v>
       </c>
       <c r="E43" t="n">
-        <v>5892.482605603669</v>
+        <v>12466.10116397675</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.999292929292929</v>
+        <v>10.76767676767677</v>
       </c>
       <c r="B44" t="n">
-        <v>72.04011561397104</v>
+        <v>70.92352092352093</v>
       </c>
       <c r="C44" t="n">
-        <v>29.88341243762931</v>
+        <v>16.498556998557</v>
       </c>
       <c r="D44" t="n">
-        <v>1761.345095773845</v>
+        <v>2074.789123085108</v>
       </c>
       <c r="E44" t="n">
-        <v>5894.056107046035</v>
+        <v>12575.57932652276</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.218787878787879</v>
+        <v>11.03030303030303</v>
       </c>
       <c r="B45" t="n">
-        <v>71.89202263599854</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="C45" t="n">
-        <v>30.54454180357795</v>
+        <v>16.74242424242424</v>
       </c>
       <c r="D45" t="n">
-        <v>1800.595620205266</v>
+        <v>2123.145099540863</v>
       </c>
       <c r="E45" t="n">
-        <v>5894.98324048962</v>
+        <v>12681.22864884135</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.438282828282828</v>
+        <v>11.29292929292929</v>
       </c>
       <c r="B46" t="n">
-        <v>71.75790392403296</v>
+        <v>70.77344877344878</v>
       </c>
       <c r="C46" t="n">
-        <v>31.15733370572081</v>
+        <v>16.98629148629149</v>
       </c>
       <c r="D46" t="n">
-        <v>1840.027850656503</v>
+        <v>2171.393998077456</v>
       </c>
       <c r="E46" t="n">
-        <v>5905.601127604366</v>
+        <v>12783.2140395674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.657777777777778</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="B47" t="n">
-        <v>71.6547311827957</v>
+        <v>70.6984126984127</v>
       </c>
       <c r="C47" t="n">
-        <v>31.66308243727599</v>
+        <v>17.23015873015873</v>
       </c>
       <c r="D47" t="n">
-        <v>1880.112098863572</v>
+        <v>2219.535818694886</v>
       </c>
       <c r="E47" t="n">
-        <v>5937.868186358804</v>
+        <v>12881.69107119095</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.877272727272727</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="B48" t="n">
-        <v>71.55155844155844</v>
+        <v>70.62337662337663</v>
       </c>
       <c r="C48" t="n">
-        <v>32.16883116883117</v>
+        <v>17.47402597402598</v>
       </c>
       <c r="D48" t="n">
-        <v>1920.073297199867</v>
+        <v>2267.570561393152</v>
       </c>
       <c r="E48" t="n">
-        <v>5968.738146321751</v>
+        <v>12976.80663153272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10.09676767676768</v>
+        <v>12.08080808080808</v>
       </c>
       <c r="B49" t="n">
-        <v>71.44838570032118</v>
+        <v>70.54834054834055</v>
       </c>
       <c r="C49" t="n">
-        <v>32.67457990038636</v>
+        <v>17.71789321789322</v>
       </c>
       <c r="D49" t="n">
-        <v>1959.911445665388</v>
+        <v>2315.498226172256</v>
       </c>
       <c r="E49" t="n">
-        <v>5998.2758818644</v>
+        <v>13068.69952141852</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.31626262626263</v>
+        <v>12.34343434343434</v>
       </c>
       <c r="B50" t="n">
-        <v>71.34521295908392</v>
+        <v>70.47330447330447</v>
       </c>
       <c r="C50" t="n">
-        <v>33.18032863194153</v>
+        <v>17.96176046176046</v>
       </c>
       <c r="D50" t="n">
-        <v>1999.626544260134</v>
+        <v>2363.318813032198</v>
       </c>
       <c r="E50" t="n">
-        <v>6026.542311986517</v>
+        <v>13157.5010036659</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.53575757575758</v>
+        <v>12.60606060606061</v>
       </c>
       <c r="B51" t="n">
-        <v>71.24204021784666</v>
+        <v>70.3982683982684</v>
       </c>
       <c r="C51" t="n">
-        <v>33.68607736349672</v>
+        <v>18.20562770562771</v>
       </c>
       <c r="D51" t="n">
-        <v>2039.218592984105</v>
+        <v>2411.032321972976</v>
       </c>
       <c r="E51" t="n">
-        <v>6053.594697237934</v>
+        <v>13243.3353079481</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.75525252525252</v>
+        <v>12.86868686868687</v>
       </c>
       <c r="B52" t="n">
-        <v>71.13886747660941</v>
+        <v>70.32323232323232</v>
       </c>
       <c r="C52" t="n">
-        <v>34.1918260950519</v>
+        <v>18.44949494949495</v>
       </c>
       <c r="D52" t="n">
-        <v>2078.687591837303</v>
+        <v>2458.638752994592</v>
       </c>
       <c r="E52" t="n">
-        <v>6079.486910288544</v>
+        <v>13326.3200956181</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.97474747474747</v>
+        <v>13.13131313131313</v>
       </c>
       <c r="B53" t="n">
-        <v>71.03569473537215</v>
+        <v>70.24819624819625</v>
       </c>
       <c r="C53" t="n">
-        <v>34.69757482660709</v>
+        <v>18.69336219336219</v>
       </c>
       <c r="D53" t="n">
-        <v>2118.033540819726</v>
+        <v>2506.138106097046</v>
       </c>
       <c r="E53" t="n">
-        <v>6104.269682835464</v>
+        <v>13406.56688814893</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.19424242424242</v>
+        <v>13.39393939393939</v>
       </c>
       <c r="B54" t="n">
-        <v>70.9325219941349</v>
+        <v>70.17316017316017</v>
       </c>
       <c r="C54" t="n">
-        <v>35.20332355816227</v>
+        <v>18.93722943722944</v>
       </c>
       <c r="D54" t="n">
-        <v>2157.256439931375</v>
+        <v>2553.530381280335</v>
       </c>
       <c r="E54" t="n">
-        <v>6127.990831227047</v>
+        <v>13484.18146247017</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11.41373737373737</v>
+        <v>13.65656565656566</v>
       </c>
       <c r="B55" t="n">
-        <v>70.82934925289764</v>
+        <v>70.0981240981241</v>
       </c>
       <c r="C55" t="n">
-        <v>35.70907228971745</v>
+        <v>19.18109668109668</v>
       </c>
       <c r="D55" t="n">
-        <v>2196.35628917225</v>
+        <v>2600.815578544464</v>
       </c>
       <c r="E55" t="n">
-        <v>6150.695462913771</v>
+        <v>13559.2642161468</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11.63323232323232</v>
+        <v>13.91919191919192</v>
       </c>
       <c r="B56" t="n">
-        <v>70.67904958677686</v>
+        <v>70.02308802308802</v>
       </c>
       <c r="C56" t="n">
-        <v>36.16299357208448</v>
+        <v>19.42496392496393</v>
       </c>
       <c r="D56" t="n">
-        <v>2233.843620572368</v>
+        <v>2647.993697889428</v>
       </c>
       <c r="E56" t="n">
-        <v>6177.153492892116</v>
+        <v>13631.91050505051</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.85272727272727</v>
+        <v>14.18181818181818</v>
       </c>
       <c r="B57" t="n">
-        <v>70.46492689129052</v>
+        <v>69.90909090909091</v>
       </c>
       <c r="C57" t="n">
-        <v>36.54672600127146</v>
+        <v>19.59090909090909</v>
       </c>
       <c r="D57" t="n">
-        <v>2269.096480244226</v>
+        <v>2693.563589256198</v>
       </c>
       <c r="E57" t="n">
-        <v>6208.754459059574</v>
+        <v>13749.04848344231</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>12.07222222222222</v>
+        <v>14.44444444444445</v>
       </c>
       <c r="B58" t="n">
-        <v>70.25080419580419</v>
+        <v>69.77777777777777</v>
       </c>
       <c r="C58" t="n">
-        <v>36.93045843045843</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="D58" t="n">
-        <v>2304.093964613525</v>
+        <v>2738.291271604938</v>
       </c>
       <c r="E58" t="n">
-        <v>6239.007211221676</v>
+        <v>13884.29377151799</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12.29171717171717</v>
+        <v>14.70707070707071</v>
       </c>
       <c r="B59" t="n">
-        <v>70.03668150031785</v>
+        <v>69.64646464646465</v>
       </c>
       <c r="C59" t="n">
-        <v>37.31419085964541</v>
+        <v>19.85353535353536</v>
       </c>
       <c r="D59" t="n">
-        <v>2338.836073680262</v>
+        <v>2782.831567595143</v>
       </c>
       <c r="E59" t="n">
-        <v>6267.953343749627</v>
+        <v>14016.80616595875</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12.51121212121212</v>
+        <v>14.96969696969697</v>
       </c>
       <c r="B60" t="n">
-        <v>69.82255880483153</v>
+        <v>69.51515151515152</v>
       </c>
       <c r="C60" t="n">
-        <v>37.69792328883238</v>
+        <v>19.98484848484848</v>
       </c>
       <c r="D60" t="n">
-        <v>2373.322807444439</v>
+        <v>2827.184477226814</v>
       </c>
       <c r="E60" t="n">
-        <v>6295.632757434973</v>
+        <v>14146.63953729869</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>12.73070707070707</v>
+        <v>15.23232323232323</v>
       </c>
       <c r="B61" t="n">
-        <v>69.60843610934521</v>
+        <v>69.38383838383838</v>
       </c>
       <c r="C61" t="n">
-        <v>38.08165571801936</v>
+        <v>20.11616161616162</v>
       </c>
       <c r="D61" t="n">
-        <v>2407.554165906057</v>
+        <v>2871.350000499949</v>
       </c>
       <c r="E61" t="n">
-        <v>6322.083744816951</v>
+        <v>14273.84634945995</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12.95020202020202</v>
+        <v>15.4949494949495</v>
       </c>
       <c r="B62" t="n">
-        <v>69.39431341385887</v>
+        <v>69.25252525252525</v>
       </c>
       <c r="C62" t="n">
-        <v>38.46538814720633</v>
+        <v>20.24747474747475</v>
       </c>
       <c r="D62" t="n">
-        <v>2441.530149065113</v>
+        <v>2915.32813741455</v>
       </c>
       <c r="E62" t="n">
-        <v>6347.343070402468</v>
+        <v>14398.47770536495</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>13.16969696969697</v>
+        <v>15.75757575757576</v>
       </c>
       <c r="B63" t="n">
-        <v>69.18019071837254</v>
+        <v>69.12121212121212</v>
       </c>
       <c r="C63" t="n">
-        <v>38.8491205763933</v>
+        <v>20.37878787878788</v>
       </c>
       <c r="D63" t="n">
-        <v>2475.250756921609</v>
+        <v>2959.118887970616</v>
       </c>
       <c r="E63" t="n">
-        <v>6371.446046131858</v>
+        <v>14520.58339078518</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>13.38919191919192</v>
+        <v>16.02020202020202</v>
       </c>
       <c r="B64" t="n">
-        <v>68.9660680228862</v>
+        <v>68.98989898989899</v>
       </c>
       <c r="C64" t="n">
-        <v>39.23285300558028</v>
+        <v>20.51010101010101</v>
       </c>
       <c r="D64" t="n">
-        <v>2508.715989475545</v>
+        <v>3002.722252168146</v>
       </c>
       <c r="E64" t="n">
-        <v>6394.426602415883</v>
+        <v>14640.21191650561</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13.60868686868687</v>
+        <v>16.28282828282828</v>
       </c>
       <c r="B65" t="n">
-        <v>68.75194532739988</v>
+        <v>68.85858585858585</v>
       </c>
       <c r="C65" t="n">
-        <v>39.61658543476725</v>
+        <v>20.64141414141414</v>
       </c>
       <c r="D65" t="n">
-        <v>2541.925846726921</v>
+        <v>3046.138230007142</v>
       </c>
       <c r="E65" t="n">
-        <v>6416.317355044293</v>
+        <v>14757.41055887972</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13.82818181818182</v>
+        <v>16.54545454545455</v>
       </c>
       <c r="B66" t="n">
-        <v>68.53782263191354</v>
+        <v>68.72727272727272</v>
       </c>
       <c r="C66" t="n">
-        <v>40.00031786395423</v>
+        <v>20.77272727272727</v>
       </c>
       <c r="D66" t="n">
-        <v>2574.880328675735</v>
+        <v>3089.366821487603</v>
       </c>
       <c r="E66" t="n">
-        <v>6437.149668243149</v>
+        <v>14872.22539884623</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>14.04767676767677</v>
+        <v>16.80808080808081</v>
       </c>
       <c r="B67" t="n">
-        <v>68.32369993642722</v>
+        <v>68.5959595959596</v>
       </c>
       <c r="C67" t="n">
-        <v>40.3840502931412</v>
+        <v>20.9040404040404</v>
       </c>
       <c r="D67" t="n">
-        <v>2607.57943532199</v>
+        <v>3132.40802660953</v>
       </c>
       <c r="E67" t="n">
-        <v>6456.953714137137</v>
+        <v>14984.7013594754</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>14.26717171717172</v>
+        <v>17.07070707070707</v>
       </c>
       <c r="B68" t="n">
-        <v>68.10957724094088</v>
+        <v>68.46464646464646</v>
       </c>
       <c r="C68" t="n">
-        <v>40.76778272232818</v>
+        <v>21.03535353535354</v>
       </c>
       <c r="D68" t="n">
-        <v>2640.023166665684</v>
+        <v>3175.261845372921</v>
       </c>
       <c r="E68" t="n">
-        <v>6475.758528853631</v>
+        <v>15094.88224210896</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14.48666666666667</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="B69" t="n">
-        <v>67.86313725490197</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="C69" t="n">
-        <v>41.09803921568627</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="D69" t="n">
-        <v>2670.939587246994</v>
+        <v>3217.928277777778</v>
       </c>
       <c r="E69" t="n">
-        <v>6498.946514770834</v>
+        <v>15202.81076115485</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>14.70616161616162</v>
+        <v>17.5959595959596</v>
       </c>
       <c r="B70" t="n">
-        <v>67.56716668951964</v>
+        <v>68.20202020202021</v>
       </c>
       <c r="C70" t="n">
-        <v>41.34633666986608</v>
+        <v>21.2979797979798</v>
       </c>
       <c r="D70" t="n">
-        <v>2699.583140914933</v>
+        <v>3260.4073238241</v>
       </c>
       <c r="E70" t="n">
-        <v>6529.195470133235</v>
+        <v>15308.52857759478</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>14.92565656565657</v>
+        <v>17.85858585858586</v>
       </c>
       <c r="B71" t="n">
-        <v>67.2711961241373</v>
+        <v>68.07070707070707</v>
       </c>
       <c r="C71" t="n">
-        <v>41.59463412404589</v>
+        <v>21.42929292929293</v>
       </c>
       <c r="D71" t="n">
-        <v>2727.873702703559</v>
+        <v>3302.698983511887</v>
       </c>
       <c r="E71" t="n">
-        <v>6558.234638074562</v>
+        <v>15412.0763312598</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15.14515151515151</v>
+        <v>18.12121212121212</v>
       </c>
       <c r="B72" t="n">
-        <v>66.97522555875497</v>
+        <v>67.93939393939394</v>
       </c>
       <c r="C72" t="n">
-        <v>41.84293157822569</v>
+        <v>21.56060606060606</v>
       </c>
       <c r="D72" t="n">
-        <v>2755.81127261287</v>
+        <v>3344.803256841139</v>
       </c>
       <c r="E72" t="n">
-        <v>6586.085555360428</v>
+        <v>15513.49367192657</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15.36464646464646</v>
+        <v>18.38383838383838</v>
       </c>
       <c r="B73" t="n">
-        <v>66.67925499337264</v>
+        <v>67.8080808080808</v>
       </c>
       <c r="C73" t="n">
-        <v>42.0912290324055</v>
+        <v>21.69191919191919</v>
       </c>
       <c r="D73" t="n">
-        <v>2783.395850642868</v>
+        <v>3386.720143811855</v>
       </c>
       <c r="E73" t="n">
-        <v>6612.76925057229</v>
+        <v>15612.81928928399</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>15.58414141414141</v>
+        <v>18.64646464646465</v>
       </c>
       <c r="B74" t="n">
-        <v>66.38328442799032</v>
+        <v>67.67676767676768</v>
       </c>
       <c r="C74" t="n">
-        <v>42.33952648658531</v>
+        <v>21.82323232323233</v>
       </c>
       <c r="D74" t="n">
-        <v>2810.627436793552</v>
+        <v>3428.449644424039</v>
       </c>
       <c r="E74" t="n">
-        <v>6638.306259008496</v>
+        <v>15710.09094181809</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>15.80363636363636</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="B75" t="n">
-        <v>66.08731386260799</v>
+        <v>67.54545454545455</v>
       </c>
       <c r="C75" t="n">
-        <v>42.58782394076512</v>
+        <v>21.95454545454545</v>
       </c>
       <c r="D75" t="n">
-        <v>2837.506031064922</v>
+        <v>3469.991758677686</v>
       </c>
       <c r="E75" t="n">
-        <v>6662.716637064092</v>
+        <v>15805.34548466027</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>16.02313131313131</v>
+        <v>19.17171717171717</v>
       </c>
       <c r="B76" t="n">
-        <v>65.79134329722565</v>
+        <v>67.43560606060606</v>
       </c>
       <c r="C76" t="n">
-        <v>42.83612139494493</v>
+        <v>22.34343434343435</v>
       </c>
       <c r="D76" t="n">
-        <v>2864.031633456978</v>
+        <v>3512.464498452327</v>
       </c>
       <c r="E76" t="n">
-        <v>6686.019976110539</v>
+        <v>15720.34291802804</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>16.24262626262626</v>
+        <v>19.43434343434344</v>
       </c>
       <c r="B77" t="n">
-        <v>65.49537273184332</v>
+        <v>67.33712121212122</v>
       </c>
       <c r="C77" t="n">
-        <v>43.08441884912473</v>
+        <v>22.86868686868687</v>
       </c>
       <c r="D77" t="n">
-        <v>2890.20424396972</v>
+        <v>3555.380479036578</v>
       </c>
       <c r="E77" t="n">
-        <v>6708.23541589545</v>
+        <v>15546.93760709457</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>16.46212121212121</v>
+        <v>19.6969696969697</v>
       </c>
       <c r="B78" t="n">
-        <v>65.19940216646098</v>
+        <v>67.23863636363636</v>
       </c>
       <c r="C78" t="n">
-        <v>43.33271630330454</v>
+        <v>23.3939393939394</v>
       </c>
       <c r="D78" t="n">
-        <v>2916.023862603148</v>
+        <v>3598.155919851929</v>
       </c>
       <c r="E78" t="n">
-        <v>6729.381657481678</v>
+        <v>15380.71831024788</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16.68161616161616</v>
+        <v>19.95959595959596</v>
       </c>
       <c r="B79" t="n">
-        <v>64.88809974747474</v>
+        <v>67.14015151515152</v>
       </c>
       <c r="C79" t="n">
-        <v>43.50419625946969</v>
+        <v>23.91919191919192</v>
       </c>
       <c r="D79" t="n">
-        <v>2940.795633932094</v>
+        <v>3640.790820898378</v>
       </c>
       <c r="E79" t="n">
-        <v>6759.797644329452</v>
+        <v>15221.21162453291</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16.90111111111111</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="B80" t="n">
-        <v>64.54513888888889</v>
+        <v>67.04166666666667</v>
       </c>
       <c r="C80" t="n">
-        <v>43.51705729166667</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="D80" t="n">
-        <v>2963.742455706693</v>
+        <v>3683.285182175926</v>
       </c>
       <c r="E80" t="n">
-        <v>6810.530491164984</v>
+        <v>15067.98483617424</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17.12060606060606</v>
+        <v>20.48484848484849</v>
       </c>
       <c r="B81" t="n">
-        <v>64.20217803030303</v>
+        <v>66.94318181818181</v>
       </c>
       <c r="C81" t="n">
-        <v>43.52991832386363</v>
+        <v>24.96969696969698</v>
       </c>
       <c r="D81" t="n">
-        <v>2986.280242218456</v>
+        <v>3725.639003684573</v>
       </c>
       <c r="E81" t="n">
-        <v>6860.293695017895</v>
+        <v>14920.64164096977</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17.34010101010101</v>
+        <v>20.74747474747475</v>
       </c>
       <c r="B82" t="n">
-        <v>63.85921717171718</v>
+        <v>66.84469696969697</v>
       </c>
       <c r="C82" t="n">
-        <v>43.54277935606061</v>
+        <v>25.4949494949495</v>
       </c>
       <c r="D82" t="n">
-        <v>3008.408993467381</v>
+        <v>3767.852285424319</v>
       </c>
       <c r="E82" t="n">
-        <v>6909.088115085258</v>
+        <v>14778.81839370077</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>17.55959595959596</v>
+        <v>21.01010101010101</v>
       </c>
       <c r="B83" t="n">
-        <v>63.51625631313131</v>
+        <v>66.74621212121212</v>
       </c>
       <c r="C83" t="n">
-        <v>43.55564038825757</v>
+        <v>26.02020202020202</v>
       </c>
       <c r="D83" t="n">
-        <v>3030.128709453468</v>
+        <v>3809.925027395163</v>
       </c>
       <c r="E83" t="n">
-        <v>6956.914609549349</v>
+        <v>14642.18081180595</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>17.77909090909091</v>
+        <v>21.27272727272727</v>
       </c>
       <c r="B84" t="n">
-        <v>63.17329545454545</v>
+        <v>66.64772727272727</v>
       </c>
       <c r="C84" t="n">
-        <v>43.56850142045455</v>
+        <v>26.54545454545455</v>
       </c>
       <c r="D84" t="n">
-        <v>3051.439390176717</v>
+        <v>3851.857229597107</v>
       </c>
       <c r="E84" t="n">
-        <v>7003.774035579123</v>
+        <v>14510.42107040006</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>17.99858585858586</v>
+        <v>21.53535353535354</v>
       </c>
       <c r="B85" t="n">
-        <v>62.8303345959596</v>
+        <v>66.54924242424242</v>
       </c>
       <c r="C85" t="n">
-        <v>43.58136245265151</v>
+        <v>27.07070707070707</v>
       </c>
       <c r="D85" t="n">
-        <v>3072.34103563713</v>
+        <v>3893.648892030149</v>
       </c>
       <c r="E85" t="n">
-        <v>7049.667249331732</v>
+        <v>14383.25523548451</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>18.21808080808081</v>
+        <v>21.7979797979798</v>
       </c>
       <c r="B86" t="n">
-        <v>62.48737373737374</v>
+        <v>66.45075757575758</v>
       </c>
       <c r="C86" t="n">
-        <v>43.59422348484848</v>
+        <v>27.5959595959596</v>
       </c>
       <c r="D86" t="n">
-        <v>3092.833645834704</v>
+        <v>3935.300014694291</v>
       </c>
       <c r="E86" t="n">
-        <v>7094.595105953987</v>
+        <v>14260.42099029044</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>18.43757575757576</v>
+        <v>22.06060606060606</v>
       </c>
       <c r="B87" t="n">
-        <v>62.14441287878788</v>
+        <v>66.35227272727272</v>
       </c>
       <c r="C87" t="n">
-        <v>43.60708451704545</v>
+        <v>28.12121212121212</v>
       </c>
       <c r="D87" t="n">
-        <v>3112.917220769441</v>
+        <v>3976.810597589531</v>
       </c>
       <c r="E87" t="n">
-        <v>7138.558459583881</v>
+        <v>14141.67561642829</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>18.65707070707071</v>
+        <v>22.32323232323233</v>
       </c>
       <c r="B88" t="n">
-        <v>61.80145202020202</v>
+        <v>66.25378787878788</v>
       </c>
       <c r="C88" t="n">
-        <v>43.61994554924242</v>
+        <v>28.64646464646465</v>
       </c>
       <c r="D88" t="n">
-        <v>3132.591760441341</v>
+        <v>4018.180640715871</v>
       </c>
       <c r="E88" t="n">
-        <v>7181.558163352056</v>
+        <v>14026.79419713932</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>18.87656565656566</v>
+        <v>22.58585858585859</v>
       </c>
       <c r="B89" t="n">
-        <v>61.45849116161616</v>
+        <v>66.15530303030303</v>
       </c>
       <c r="C89" t="n">
-        <v>43.63280658143939</v>
+        <v>29.17171717171718</v>
       </c>
       <c r="D89" t="n">
-        <v>3151.857264850403</v>
+        <v>4059.410144073309</v>
       </c>
       <c r="E89" t="n">
-        <v>7223.59506938329</v>
+        <v>13915.56801465573</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>19.09606060606061</v>
+        <v>22.84848484848485</v>
       </c>
       <c r="B90" t="n">
-        <v>61.1155303030303</v>
+        <v>66.05681818181819</v>
       </c>
       <c r="C90" t="n">
-        <v>43.64566761363636</v>
+        <v>29.6969696969697</v>
       </c>
       <c r="D90" t="n">
-        <v>3170.713733996628</v>
+        <v>4100.499107661846</v>
       </c>
       <c r="E90" t="n">
-        <v>7264.67002879798</v>
+        <v>13807.80311763683</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>19.31555555555556</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="B91" t="n">
-        <v>60.77256944444444</v>
+        <v>65.85185185185185</v>
       </c>
       <c r="C91" t="n">
-        <v>43.65852864583333</v>
+        <v>30.04444444444444</v>
       </c>
       <c r="D91" t="n">
-        <v>3189.161167880015</v>
+        <v>4134.761682304527</v>
       </c>
       <c r="E91" t="n">
-        <v>7304.783891713634</v>
+        <v>13762.15056980057</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>19.53505050505051</v>
+        <v>23.37373737373738</v>
       </c>
       <c r="B92" t="n">
-        <v>60.42960858585858</v>
+        <v>65.5016835016835</v>
       </c>
       <c r="C92" t="n">
-        <v>43.6713896780303</v>
+        <v>30.14949494949495</v>
       </c>
       <c r="D92" t="n">
-        <v>3207.199566500565</v>
+        <v>4159.511095966398</v>
       </c>
       <c r="E92" t="n">
-        <v>7343.93750724632</v>
+        <v>13796.28780825092</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19.75454545454545</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="B93" t="n">
-        <v>60.08664772727273</v>
+        <v>65.15151515151514</v>
       </c>
       <c r="C93" t="n">
-        <v>43.68425071022727</v>
+        <v>30.25454545454546</v>
       </c>
       <c r="D93" t="n">
-        <v>3224.828929858277</v>
+        <v>4183.760812672175</v>
       </c>
       <c r="E93" t="n">
-        <v>7382.131723512169</v>
+        <v>13828.53633996212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>19.97404040404041</v>
+        <v>23.8989898989899</v>
       </c>
       <c r="B94" t="n">
-        <v>59.74368686868686</v>
+        <v>64.8013468013468</v>
       </c>
       <c r="C94" t="n">
-        <v>43.69711174242424</v>
+        <v>30.35959595959596</v>
       </c>
       <c r="D94" t="n">
-        <v>3242.049257953152</v>
+        <v>4207.510832421861</v>
       </c>
       <c r="E94" t="n">
-        <v>7419.367387628831</v>
+        <v>13858.91577088649</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20.19353535353535</v>
+        <v>24.16161616161616</v>
       </c>
       <c r="B95" t="n">
-        <v>59.40072601010101</v>
+        <v>64.45117845117845</v>
       </c>
       <c r="C95" t="n">
-        <v>43.70997277462121</v>
+        <v>30.46464646464646</v>
       </c>
       <c r="D95" t="n">
-        <v>3258.860550785189</v>
+        <v>4230.761155215454</v>
       </c>
       <c r="E95" t="n">
-        <v>7455.645345716943</v>
+        <v>13887.4454365494</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>20.4130303030303</v>
+        <v>24.42424242424243</v>
       </c>
       <c r="B96" t="n">
-        <v>59.05776515151515</v>
+        <v>64.1010101010101</v>
       </c>
       <c r="C96" t="n">
-        <v>43.72283380681818</v>
+        <v>30.56969696969697</v>
       </c>
       <c r="D96" t="n">
-        <v>3275.262808354389</v>
+        <v>4253.511781052955</v>
       </c>
       <c r="E96" t="n">
-        <v>7490.966442901607</v>
+        <v>13914.14440669583</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20.63252525252525</v>
+        <v>24.68686868686869</v>
       </c>
       <c r="B97" t="n">
-        <v>58.71480429292929</v>
+        <v>63.75084175084175</v>
       </c>
       <c r="C97" t="n">
-        <v>43.73569483901515</v>
+        <v>30.67474747474747</v>
       </c>
       <c r="D97" t="n">
-        <v>3291.256030660752</v>
+        <v>4275.762709934361</v>
       </c>
       <c r="E97" t="n">
-        <v>7525.331523313842</v>
+        <v>13939.03148984134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>20.8520202020202</v>
+        <v>24.94949494949495</v>
       </c>
       <c r="B98" t="n">
-        <v>58.37184343434343</v>
+        <v>63.4006734006734</v>
       </c>
       <c r="C98" t="n">
-        <v>43.74855587121212</v>
+        <v>30.77979797979798</v>
       </c>
       <c r="D98" t="n">
-        <v>3306.840217704276</v>
+        <v>4297.513941859674</v>
       </c>
       <c r="E98" t="n">
-        <v>7558.741430092044</v>
+        <v>13962.12523772997</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>21.07151515151515</v>
+        <v>25.21212121212121</v>
       </c>
       <c r="B99" t="n">
-        <v>58.02888257575758</v>
+        <v>63.05050505050504</v>
       </c>
       <c r="C99" t="n">
-        <v>43.76141690340908</v>
+        <v>30.88484848484849</v>
       </c>
       <c r="D99" t="n">
-        <v>3322.015369484963</v>
+        <v>4318.765476828894</v>
       </c>
       <c r="E99" t="n">
-        <v>7591.197005383464</v>
+        <v>13983.44394970109</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>21.2910101010101</v>
+        <v>25.47474747474748</v>
       </c>
       <c r="B100" t="n">
-        <v>57.68592171717172</v>
+        <v>62.7003367003367</v>
       </c>
       <c r="C100" t="n">
-        <v>43.77427793560606</v>
+        <v>30.98989898989899</v>
       </c>
       <c r="D100" t="n">
-        <v>3336.781486002813</v>
+        <v>4339.517314842024</v>
       </c>
       <c r="E100" t="n">
-        <v>7622.699090345635</v>
+        <v>14003.00567696742</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>21.51050505050505</v>
+        <v>25.73737373737374</v>
       </c>
       <c r="B101" t="n">
-        <v>57.34296085858586</v>
+        <v>62.35016835016835</v>
       </c>
       <c r="C101" t="n">
-        <v>43.78713896780302</v>
+        <v>31.0949494949495</v>
       </c>
       <c r="D101" t="n">
-        <v>3351.138567257825</v>
+        <v>4359.769455899058</v>
       </c>
       <c r="E101" t="n">
-        <v>7653.248525147851</v>
+        <v>14020.82822680635</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>21.73</v>
+        <v>26</v>
       </c>
       <c r="B102" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C102" t="n">
-        <v>43.8</v>
+        <v>31.2</v>
       </c>
       <c r="D102" t="n">
-        <v>3365.08661325</v>
+        <v>4379.5219</v>
       </c>
       <c r="E102" t="n">
-        <v>7682.846148972602</v>
+        <v>14036.92916666666</v>
       </c>
     </row>
     <row r="103"/>
@@ -3161,7 +3388,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Rotor 203_3300RPM</t>
+          <t>Rotor 250_3200RPM</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>66.67</v>
+        <v>62.69</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3211,1685 +3438,1685 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.2069696969696969</v>
+        <v>0.2401010101010101</v>
       </c>
       <c r="B108" t="n">
-        <v>66.6173323329582</v>
+        <v>62.59621054292929</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7401942395064816</v>
+        <v>0.4877051767676768</v>
       </c>
       <c r="D108" t="n">
-        <v>37.45895574675123</v>
+        <v>40.83228600571864</v>
       </c>
       <c r="E108" t="n">
-        <v>5060.692686790791</v>
+        <v>8372.329831792928</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4139393939393939</v>
+        <v>0.4802020202020202</v>
       </c>
       <c r="B109" t="n">
-        <v>66.56466466591638</v>
+        <v>62.50242108585859</v>
       </c>
       <c r="C109" t="n">
-        <v>1.480388479012963</v>
+        <v>0.9754103535353535</v>
       </c>
       <c r="D109" t="n">
-        <v>74.85868138806553</v>
+        <v>81.54221195474325</v>
       </c>
       <c r="E109" t="n">
-        <v>5056.691702841199</v>
+        <v>8359.785362047396</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.6209090909090909</v>
+        <v>0.7203030303030302</v>
       </c>
       <c r="B110" t="n">
-        <v>66.51199699887458</v>
+        <v>62.40863162878787</v>
       </c>
       <c r="C110" t="n">
-        <v>2.220582718519445</v>
+        <v>1.46311553030303</v>
       </c>
       <c r="D110" t="n">
-        <v>112.1991769239429</v>
+        <v>122.1297778470738</v>
       </c>
       <c r="E110" t="n">
-        <v>5052.690718891608</v>
+        <v>8347.240892301865</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.8278787878787878</v>
+        <v>0.9604040404040404</v>
       </c>
       <c r="B111" t="n">
-        <v>66.45932933183278</v>
+        <v>62.31484217171717</v>
       </c>
       <c r="C111" t="n">
-        <v>2.960776958025926</v>
+        <v>1.950820707070707</v>
       </c>
       <c r="D111" t="n">
-        <v>149.4804423543834</v>
+        <v>162.5949836827104</v>
       </c>
       <c r="E111" t="n">
-        <v>5048.689734942016</v>
+        <v>8334.696422556332</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.034848484848485</v>
+        <v>1.200505050505051</v>
       </c>
       <c r="B112" t="n">
-        <v>66.40666166479096</v>
+        <v>62.22105271464646</v>
       </c>
       <c r="C112" t="n">
-        <v>3.700971197532408</v>
+        <v>2.438525883838384</v>
       </c>
       <c r="D112" t="n">
-        <v>186.7024776793869</v>
+        <v>202.9378294616529</v>
       </c>
       <c r="E112" t="n">
-        <v>5044.688750992423</v>
+        <v>8322.151952810798</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.241818181818182</v>
+        <v>1.44060606060606</v>
       </c>
       <c r="B113" t="n">
-        <v>66.35399399774916</v>
+        <v>62.12726325757576</v>
       </c>
       <c r="C113" t="n">
-        <v>4.441165437038889</v>
+        <v>2.92623106060606</v>
       </c>
       <c r="D113" t="n">
-        <v>223.8652828989536</v>
+        <v>243.1583151839013</v>
       </c>
       <c r="E113" t="n">
-        <v>5040.687767042831</v>
+        <v>8309.607483065269</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.448787878787879</v>
+        <v>1.680707070707071</v>
       </c>
       <c r="B114" t="n">
-        <v>66.30132633070735</v>
+        <v>62.03347380050505</v>
       </c>
       <c r="C114" t="n">
-        <v>5.18135967654537</v>
+        <v>3.413936237373737</v>
       </c>
       <c r="D114" t="n">
-        <v>260.9688580130834</v>
+        <v>283.2564408494558</v>
       </c>
       <c r="E114" t="n">
-        <v>5036.686783093242</v>
+        <v>8297.063013319734</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.655757575757576</v>
+        <v>1.920808080808081</v>
       </c>
       <c r="B115" t="n">
-        <v>66.24865866366554</v>
+        <v>61.93968434343434</v>
       </c>
       <c r="C115" t="n">
-        <v>5.921553916051852</v>
+        <v>3.901641414141414</v>
       </c>
       <c r="D115" t="n">
-        <v>298.0132030217761</v>
+        <v>323.2322064583162</v>
       </c>
       <c r="E115" t="n">
-        <v>5032.685799143646</v>
+        <v>8284.518543574202</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.862727272727273</v>
+        <v>2.160909090909091</v>
       </c>
       <c r="B116" t="n">
-        <v>66.19599099662373</v>
+        <v>61.84589488636363</v>
       </c>
       <c r="C116" t="n">
-        <v>6.661748155558334</v>
+        <v>4.38934659090909</v>
       </c>
       <c r="D116" t="n">
-        <v>334.998317925032</v>
+        <v>363.0856120104825</v>
       </c>
       <c r="E116" t="n">
-        <v>5028.684815194055</v>
+        <v>8271.974073828669</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.069696969696969</v>
+        <v>2.401010101010101</v>
       </c>
       <c r="B117" t="n">
-        <v>66.14332332958193</v>
+        <v>61.75210542929293</v>
       </c>
       <c r="C117" t="n">
-        <v>7.401942395064816</v>
+        <v>4.877051767676768</v>
       </c>
       <c r="D117" t="n">
-        <v>371.924202722851</v>
+        <v>402.816657505955</v>
       </c>
       <c r="E117" t="n">
-        <v>5024.683831244463</v>
+        <v>8259.429604083138</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.276666666666666</v>
+        <v>2.641111111111111</v>
       </c>
       <c r="B118" t="n">
-        <v>66.09065566254012</v>
+        <v>61.65831597222222</v>
       </c>
       <c r="C118" t="n">
-        <v>8.142136634571298</v>
+        <v>5.364756944444444</v>
       </c>
       <c r="D118" t="n">
-        <v>408.7908574152331</v>
+        <v>442.4253429447332</v>
       </c>
       <c r="E118" t="n">
-        <v>5020.682847294871</v>
+        <v>8246.885134337605</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.483636363636363</v>
+        <v>2.881212121212121</v>
       </c>
       <c r="B119" t="n">
-        <v>66.03798799549831</v>
+        <v>61.56452651515151</v>
       </c>
       <c r="C119" t="n">
-        <v>8.882330874077779</v>
+        <v>5.85246212121212</v>
       </c>
       <c r="D119" t="n">
-        <v>445.5982820021782</v>
+        <v>481.9116683268175</v>
       </c>
       <c r="E119" t="n">
-        <v>5016.681863345279</v>
+        <v>8234.340664592075</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.69060606060606</v>
+        <v>3.121313131313131</v>
       </c>
       <c r="B120" t="n">
-        <v>65.98532032845651</v>
+        <v>61.47073705808081</v>
       </c>
       <c r="C120" t="n">
-        <v>9.622525113584262</v>
+        <v>6.340167297979798</v>
       </c>
       <c r="D120" t="n">
-        <v>482.3464764836864</v>
+        <v>521.2756336522078</v>
       </c>
       <c r="E120" t="n">
-        <v>5012.680879395688</v>
+        <v>8221.796194846542</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.897575757575757</v>
+        <v>3.361414141414141</v>
       </c>
       <c r="B121" t="n">
-        <v>65.93265266141469</v>
+        <v>61.3769476010101</v>
       </c>
       <c r="C121" t="n">
-        <v>10.36271935309074</v>
+        <v>6.827872474747474</v>
       </c>
       <c r="D121" t="n">
-        <v>519.0354408597576</v>
+        <v>560.517238920904</v>
       </c>
       <c r="E121" t="n">
-        <v>5008.679895446096</v>
+        <v>8209.251725101009</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.104545454545454</v>
+        <v>3.601515151515152</v>
       </c>
       <c r="B122" t="n">
-        <v>65.87998499437289</v>
+        <v>61.28315814393939</v>
       </c>
       <c r="C122" t="n">
-        <v>11.10291359259722</v>
+        <v>7.315577651515151</v>
       </c>
       <c r="D122" t="n">
-        <v>555.665175130392</v>
+        <v>599.6364841329063</v>
       </c>
       <c r="E122" t="n">
-        <v>5004.678911496502</v>
+        <v>8196.707255355477</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.311515151515151</v>
+        <v>3.841616161616161</v>
       </c>
       <c r="B123" t="n">
-        <v>65.82731732733109</v>
+        <v>61.18936868686868</v>
       </c>
       <c r="C123" t="n">
-        <v>11.8431078321037</v>
+        <v>7.803282828282828</v>
       </c>
       <c r="D123" t="n">
-        <v>592.2356792955894</v>
+        <v>638.6333692882145</v>
       </c>
       <c r="E123" t="n">
-        <v>5000.677927546911</v>
+        <v>8184.162785609945</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.518484848484848</v>
+        <v>4.081717171717171</v>
       </c>
       <c r="B124" t="n">
-        <v>65.77464966028927</v>
+        <v>61.09557922979798</v>
       </c>
       <c r="C124" t="n">
-        <v>12.58330207161019</v>
+        <v>8.290988005050504</v>
       </c>
       <c r="D124" t="n">
-        <v>628.7469533553499</v>
+        <v>677.5078943868285</v>
       </c>
       <c r="E124" t="n">
-        <v>4996.676943597317</v>
+        <v>8171.618315864413</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.725454545454545</v>
+        <v>4.321818181818181</v>
       </c>
       <c r="B125" t="n">
-        <v>65.72198199324747</v>
+        <v>61.00178977272727</v>
       </c>
       <c r="C125" t="n">
-        <v>13.32349631111667</v>
+        <v>8.778693181818181</v>
       </c>
       <c r="D125" t="n">
-        <v>665.1989973096737</v>
+        <v>716.2600594287485</v>
       </c>
       <c r="E125" t="n">
-        <v>4992.675959647727</v>
+        <v>8159.073846118879</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.932424242424242</v>
+        <v>4.561919191919192</v>
       </c>
       <c r="B126" t="n">
-        <v>65.66931432620565</v>
+        <v>60.90800031565657</v>
       </c>
       <c r="C126" t="n">
-        <v>14.06369055062315</v>
+        <v>9.266398358585858</v>
       </c>
       <c r="D126" t="n">
-        <v>701.5918111585601</v>
+        <v>754.8898644139748</v>
       </c>
       <c r="E126" t="n">
-        <v>4988.674975698133</v>
+        <v>8146.529376373349</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.139393939393939</v>
+        <v>4.802020202020202</v>
       </c>
       <c r="B127" t="n">
-        <v>65.61664665916385</v>
+        <v>60.81421085858586</v>
       </c>
       <c r="C127" t="n">
-        <v>14.80388479012963</v>
+        <v>9.754103535353536</v>
       </c>
       <c r="D127" t="n">
-        <v>737.9253949020099</v>
+        <v>793.3973093425069</v>
       </c>
       <c r="E127" t="n">
-        <v>4984.673991748541</v>
+        <v>8133.984906627817</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.346363636363636</v>
+        <v>5.042121212121212</v>
       </c>
       <c r="B128" t="n">
-        <v>65.56397899212205</v>
+        <v>60.72042140151515</v>
       </c>
       <c r="C128" t="n">
-        <v>15.54407902963611</v>
+        <v>10.24180871212121</v>
       </c>
       <c r="D128" t="n">
-        <v>774.1997485400229</v>
+        <v>831.7823942143448</v>
       </c>
       <c r="E128" t="n">
-        <v>4980.67300779895</v>
+        <v>8121.440436882283</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.553333333333333</v>
+        <v>5.282222222222222</v>
       </c>
       <c r="B129" t="n">
-        <v>65.51131132508023</v>
+        <v>60.62663194444444</v>
       </c>
       <c r="C129" t="n">
-        <v>16.2842732691426</v>
+        <v>10.72951388888889</v>
       </c>
       <c r="D129" t="n">
-        <v>810.4148720725988</v>
+        <v>870.0451190294887</v>
       </c>
       <c r="E129" t="n">
-        <v>4976.672023849357</v>
+        <v>8108.89596713675</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.76030303030303</v>
+        <v>5.522323232323232</v>
       </c>
       <c r="B130" t="n">
-        <v>65.45864365803843</v>
+        <v>60.53284248737373</v>
       </c>
       <c r="C130" t="n">
-        <v>17.02446750864908</v>
+        <v>11.21721906565656</v>
       </c>
       <c r="D130" t="n">
-        <v>846.5707654997378</v>
+        <v>908.1854837879387</v>
       </c>
       <c r="E130" t="n">
-        <v>4972.671039899766</v>
+        <v>8096.351497391221</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.967272727272727</v>
+        <v>5.762424242424242</v>
       </c>
       <c r="B131" t="n">
-        <v>65.40597599099662</v>
+        <v>60.43905303030303</v>
       </c>
       <c r="C131" t="n">
-        <v>17.76466174815556</v>
+        <v>11.70492424242424</v>
       </c>
       <c r="D131" t="n">
-        <v>882.66742882144</v>
+        <v>946.2034884896946</v>
       </c>
       <c r="E131" t="n">
-        <v>4968.670055950174</v>
+        <v>8083.807027645688</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.174242424242424</v>
+        <v>6.002525252525253</v>
       </c>
       <c r="B132" t="n">
-        <v>65.35330832395481</v>
+        <v>60.34526357323232</v>
       </c>
       <c r="C132" t="n">
-        <v>18.50485598766204</v>
+        <v>12.19262941919192</v>
       </c>
       <c r="D132" t="n">
-        <v>918.7048620377051</v>
+        <v>984.0991331347566</v>
       </c>
       <c r="E132" t="n">
-        <v>4964.669072000582</v>
+        <v>8071.262557900155</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.381212121212121</v>
+        <v>6.242626262626263</v>
       </c>
       <c r="B133" t="n">
-        <v>65.300640656913</v>
+        <v>60.25147411616162</v>
       </c>
       <c r="C133" t="n">
-        <v>19.24505022716852</v>
+        <v>12.6803345959596</v>
       </c>
       <c r="D133" t="n">
-        <v>954.6830651485334</v>
+        <v>1021.872417723124</v>
       </c>
       <c r="E133" t="n">
-        <v>4960.668088050989</v>
+        <v>8058.718088154622</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.588181818181817</v>
+        <v>6.482727272727272</v>
       </c>
       <c r="B134" t="n">
-        <v>65.2479729898712</v>
+        <v>60.16828409090909</v>
       </c>
       <c r="C134" t="n">
-        <v>19.985244466675</v>
+        <v>13.08401988636364</v>
       </c>
       <c r="D134" t="n">
-        <v>990.6020381539247</v>
+        <v>1059.710024064273</v>
       </c>
       <c r="E134" t="n">
-        <v>4956.667104101398</v>
+        <v>8099.269439117247</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5.795151515151514</v>
+        <v>6.722828282828282</v>
       </c>
       <c r="B135" t="n">
-        <v>65.19530532282938</v>
+        <v>60.10525757575758</v>
       </c>
       <c r="C135" t="n">
-        <v>20.72543870618148</v>
+        <v>13.32787247474747</v>
       </c>
       <c r="D135" t="n">
-        <v>1026.461781053879</v>
+        <v>1097.807380060684</v>
       </c>
       <c r="E135" t="n">
-        <v>4952.666120151806</v>
+        <v>8236.928903249311</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6.002121212121211</v>
+        <v>6.962929292929292</v>
       </c>
       <c r="B136" t="n">
-        <v>65.14263765578758</v>
+        <v>60.04223106060606</v>
       </c>
       <c r="C136" t="n">
-        <v>21.46563294568796</v>
+        <v>13.57172506313131</v>
       </c>
       <c r="D136" t="n">
-        <v>1062.262293848396</v>
+        <v>1135.822510098996</v>
       </c>
       <c r="E136" t="n">
-        <v>4948.665136202213</v>
+        <v>8369.035659177547</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.209090909090908</v>
+        <v>7.203030303030303</v>
       </c>
       <c r="B137" t="n">
-        <v>65.08996998874578</v>
+        <v>59.97920454545454</v>
       </c>
       <c r="C137" t="n">
-        <v>22.20582718519445</v>
+        <v>13.81557765151515</v>
       </c>
       <c r="D137" t="n">
-        <v>1098.003576537477</v>
+        <v>1173.75541417921</v>
       </c>
       <c r="E137" t="n">
-        <v>4944.664152252621</v>
+        <v>8495.883732016695</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.416060606060605</v>
+        <v>7.443131313131313</v>
       </c>
       <c r="B138" t="n">
-        <v>65.03730232170396</v>
+        <v>59.91617803030303</v>
       </c>
       <c r="C138" t="n">
-        <v>22.94602142470093</v>
+        <v>14.05943023989899</v>
       </c>
       <c r="D138" t="n">
-        <v>1133.685629121121</v>
+        <v>1211.606092301325</v>
       </c>
       <c r="E138" t="n">
-        <v>4940.663168303028</v>
+        <v>8617.746748107411</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.623030303030302</v>
+        <v>7.683232323232323</v>
       </c>
       <c r="B139" t="n">
-        <v>64.98463465466216</v>
+        <v>59.85315151515152</v>
       </c>
       <c r="C139" t="n">
-        <v>23.68621566420741</v>
+        <v>14.30328282828283</v>
       </c>
       <c r="D139" t="n">
-        <v>1169.308451599327</v>
+        <v>1249.374544465342</v>
       </c>
       <c r="E139" t="n">
-        <v>4936.662184353436</v>
+        <v>8734.879673880676</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.829999999999999</v>
+        <v>7.923333333333333</v>
       </c>
       <c r="B140" t="n">
-        <v>64.93196698762036</v>
+        <v>59.790125</v>
       </c>
       <c r="C140" t="n">
-        <v>24.42640990371389</v>
+        <v>14.54713541666667</v>
       </c>
       <c r="D140" t="n">
-        <v>1204.872043972097</v>
+        <v>1287.06077067126</v>
       </c>
       <c r="E140" t="n">
-        <v>4932.661200403845</v>
+        <v>8847.520379831436</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7.036969696969696</v>
+        <v>8.163434343434343</v>
       </c>
       <c r="B141" t="n">
-        <v>64.87929932057854</v>
+        <v>59.72709848484848</v>
       </c>
       <c r="C141" t="n">
-        <v>25.16660414322038</v>
+        <v>14.7909880050505</v>
       </c>
       <c r="D141" t="n">
-        <v>1240.37640623943</v>
+        <v>1324.66477091908</v>
       </c>
       <c r="E141" t="n">
-        <v>4928.660216454251</v>
+        <v>8955.891049784928</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>7.243939393939393</v>
+        <v>8.403535353535354</v>
       </c>
       <c r="B142" t="n">
-        <v>64.82663165353674</v>
+        <v>59.66407196969697</v>
       </c>
       <c r="C142" t="n">
-        <v>25.90679838272685</v>
+        <v>15.03484059343434</v>
       </c>
       <c r="D142" t="n">
-        <v>1275.821538401327</v>
+        <v>1362.186545208802</v>
       </c>
       <c r="E142" t="n">
-        <v>4924.659232504662</v>
+        <v>9060.199453020234</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.45090909090909</v>
+        <v>8.643636363636363</v>
       </c>
       <c r="B143" t="n">
-        <v>64.70403263403263</v>
+        <v>59.60104545454545</v>
       </c>
       <c r="C143" t="n">
-        <v>26.57983682983683</v>
+        <v>15.27869318181818</v>
       </c>
       <c r="D143" t="n">
-        <v>1309.791832950903</v>
+        <v>1399.626093540425</v>
       </c>
       <c r="E143" t="n">
-        <v>4927.764761447346</v>
+        <v>9160.640094572986</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7.657878787878787</v>
+        <v>8.883737373737373</v>
       </c>
       <c r="B144" t="n">
-        <v>64.57135975135975</v>
+        <v>59.53801893939394</v>
       </c>
       <c r="C144" t="n">
-        <v>27.24320124320124</v>
+        <v>15.52254577020202</v>
       </c>
       <c r="D144" t="n">
-        <v>1343.414664636336</v>
+        <v>1436.98341591395</v>
       </c>
       <c r="E144" t="n">
-        <v>4931.19238316971</v>
+        <v>9257.395257113478</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7.864848484848483</v>
+        <v>9.123838383838384</v>
       </c>
       <c r="B145" t="n">
-        <v>64.43868686868687</v>
+        <v>59.47499242424242</v>
       </c>
       <c r="C145" t="n">
-        <v>27.90656565656565</v>
+        <v>15.76639835858586</v>
       </c>
       <c r="D145" t="n">
-        <v>1376.888292279313</v>
+        <v>1474.258512329377</v>
       </c>
       <c r="E145" t="n">
-        <v>4933.922393834113</v>
+        <v>9350.635946138864</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.07181818181818</v>
+        <v>9.363939393939393</v>
       </c>
       <c r="B146" t="n">
-        <v>64.30601398601398</v>
+        <v>59.41196590909091</v>
       </c>
       <c r="C146" t="n">
-        <v>28.56993006993007</v>
+        <v>16.01025094696969</v>
       </c>
       <c r="D146" t="n">
-        <v>1410.212715879834</v>
+        <v>1511.451382786705</v>
       </c>
       <c r="E146" t="n">
-        <v>4936.003386875935</v>
+        <v>9440.522748787906</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8.278787878787877</v>
+        <v>9.604040404040404</v>
       </c>
       <c r="B147" t="n">
-        <v>64.1733411033411</v>
+        <v>59.34893939393939</v>
       </c>
       <c r="C147" t="n">
-        <v>29.23329448329448</v>
+        <v>16.25410353535354</v>
       </c>
       <c r="D147" t="n">
-        <v>1443.387935437901</v>
+        <v>1548.562027285935</v>
       </c>
       <c r="E147" t="n">
-        <v>4937.479544985025</v>
+        <v>9527.206615349352</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8.485757575757575</v>
+        <v>9.844141414141413</v>
       </c>
       <c r="B148" t="n">
-        <v>64.04066822066822</v>
+        <v>59.28591287878788</v>
       </c>
       <c r="C148" t="n">
-        <v>29.89665889665889</v>
+        <v>16.49795612373737</v>
       </c>
       <c r="D148" t="n">
-        <v>1476.413950953512</v>
+        <v>1585.590445827066</v>
       </c>
       <c r="E148" t="n">
-        <v>4938.391129446606</v>
+        <v>9610.829571462538</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8.692727272727272</v>
+        <v>10.08424242424242</v>
       </c>
       <c r="B149" t="n">
-        <v>63.90799533799534</v>
+        <v>59.22288636363636</v>
       </c>
       <c r="C149" t="n">
-        <v>30.5600233100233</v>
+        <v>16.74180871212121</v>
       </c>
       <c r="D149" t="n">
-        <v>1509.290762426668</v>
+        <v>1622.536638410099</v>
       </c>
       <c r="E149" t="n">
-        <v>4938.774905749628</v>
+        <v>9691.525368076682</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8.899696969696969</v>
+        <v>10.32434343434343</v>
       </c>
       <c r="B150" t="n">
-        <v>63.78906134515891</v>
+        <v>59.15985984848485</v>
       </c>
       <c r="C150" t="n">
-        <v>31.169992609017</v>
+        <v>16.98566130050505</v>
       </c>
       <c r="D150" t="n">
-        <v>1542.350561364892</v>
+        <v>1659.400605035034</v>
       </c>
       <c r="E150" t="n">
-        <v>4948.190333926205</v>
+        <v>9769.420075423815</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.106666666666666</v>
+        <v>10.56444444444444</v>
       </c>
       <c r="B151" t="n">
-        <v>63.69718699186992</v>
+        <v>59.09683333333333</v>
       </c>
       <c r="C151" t="n">
-        <v>31.67479674796748</v>
+        <v>17.22951388888889</v>
       </c>
       <c r="D151" t="n">
-        <v>1575.946095514596</v>
+        <v>1696.18234570187</v>
       </c>
       <c r="E151" t="n">
-        <v>4975.394500726266</v>
+        <v>9844.632626552035</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9.313636363636363</v>
+        <v>10.80454545454545</v>
       </c>
       <c r="B152" t="n">
-        <v>63.60531263858093</v>
+        <v>59.03380681818182</v>
       </c>
       <c r="C152" t="n">
-        <v>32.17960088691796</v>
+        <v>17.47336647727273</v>
       </c>
       <c r="D152" t="n">
-        <v>1609.438307684462</v>
+        <v>1732.881860410608</v>
       </c>
       <c r="E152" t="n">
-        <v>5001.424080243177</v>
+        <v>9917.275315346556</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.52060606060606</v>
+        <v>11.04464646464646</v>
       </c>
       <c r="B153" t="n">
-        <v>63.51343828529194</v>
+        <v>58.9707803030303</v>
       </c>
       <c r="C153" t="n">
-        <v>32.68440502586844</v>
+        <v>17.71721906565656</v>
       </c>
       <c r="D153" t="n">
-        <v>1642.827197874488</v>
+        <v>1769.499149161247</v>
       </c>
       <c r="E153" t="n">
-        <v>5026.333496278284</v>
+        <v>9987.454253423341</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.727575757575757</v>
+        <v>11.28474747474747</v>
       </c>
       <c r="B154" t="n">
-        <v>63.42156393200295</v>
+        <v>58.90775378787879</v>
       </c>
       <c r="C154" t="n">
-        <v>33.18920916481892</v>
+        <v>17.9610716540404</v>
       </c>
       <c r="D154" t="n">
-        <v>1676.112766084676</v>
+        <v>1806.034211953789</v>
       </c>
       <c r="E154" t="n">
-        <v>5050.173861513344</v>
+        <v>10055.26978980408</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9.934545454545454</v>
+        <v>11.52484848484848</v>
       </c>
       <c r="B155" t="n">
-        <v>63.32968957871397</v>
+        <v>58.84472727272727</v>
       </c>
       <c r="C155" t="n">
-        <v>33.6940133037694</v>
+        <v>18.20492424242424</v>
       </c>
       <c r="D155" t="n">
-        <v>1709.295012315025</v>
+        <v>1842.487048788231</v>
       </c>
       <c r="E155" t="n">
-        <v>5072.993225546699</v>
+        <v>10120.81689686218</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.14151515151515</v>
+        <v>11.76494949494949</v>
       </c>
       <c r="B156" t="n">
-        <v>63.23781522542498</v>
+        <v>58.78170075757576</v>
       </c>
       <c r="C156" t="n">
-        <v>34.19881744271988</v>
+        <v>18.44877683080808</v>
       </c>
       <c r="D156" t="n">
-        <v>1742.373936565535</v>
+        <v>1878.857659664576</v>
       </c>
       <c r="E156" t="n">
-        <v>5094.83680096209</v>
+        <v>10184.18552566056</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.34848484848485</v>
+        <v>12.00505050505051</v>
       </c>
       <c r="B157" t="n">
-        <v>63.14594087213599</v>
+        <v>58.71867424242424</v>
       </c>
       <c r="C157" t="n">
-        <v>34.70362158167036</v>
+        <v>18.69262941919192</v>
       </c>
       <c r="D157" t="n">
-        <v>1775.349538836206</v>
+        <v>1915.146044582822</v>
       </c>
       <c r="E157" t="n">
-        <v>5115.74716966688</v>
+        <v>10245.46093347638</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.55545454545454</v>
+        <v>12.24515151515151</v>
       </c>
       <c r="B158" t="n">
-        <v>63.054066518847</v>
+        <v>58.65564772727272</v>
       </c>
       <c r="C158" t="n">
-        <v>35.20842572062084</v>
+        <v>18.93648200757575</v>
       </c>
       <c r="D158" t="n">
-        <v>1808.221819127038</v>
+        <v>1951.352203542969</v>
       </c>
       <c r="E158" t="n">
-        <v>5135.764471479906</v>
+        <v>10304.72398601973</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.76242424242424</v>
+        <v>12.48525252525253</v>
       </c>
       <c r="B159" t="n">
-        <v>62.96219216555802</v>
+        <v>58.59262121212121</v>
       </c>
       <c r="C159" t="n">
-        <v>35.71322985957132</v>
+        <v>19.1803345959596</v>
       </c>
       <c r="D159" t="n">
-        <v>1840.990777438032</v>
+        <v>1987.476136545018</v>
       </c>
       <c r="E159" t="n">
-        <v>5154.926576725283</v>
+        <v>10362.05143659843</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.96939393939394</v>
+        <v>12.72535353535353</v>
       </c>
       <c r="B160" t="n">
-        <v>62.82789001122335</v>
+        <v>58.5295946969697</v>
       </c>
       <c r="C160" t="n">
-        <v>36.165544332211</v>
+        <v>19.42418718434343</v>
       </c>
       <c r="D160" t="n">
-        <v>1872.391983680114</v>
+        <v>2023.517843588969</v>
       </c>
       <c r="E160" t="n">
-        <v>5177.281355094827</v>
+        <v>10417.51618425503</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>11.17636363636363</v>
+        <v>12.96545454545454</v>
       </c>
       <c r="B161" t="n">
-        <v>62.63778451178451</v>
+        <v>58.43433260393873</v>
       </c>
       <c r="C161" t="n">
-        <v>36.54882154882154</v>
+        <v>19.59051123930774</v>
       </c>
       <c r="D161" t="n">
-        <v>1901.947728321071</v>
+        <v>2058.341830600942</v>
       </c>
       <c r="E161" t="n">
-        <v>5203.855138750422</v>
+        <v>10506.83060517045</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11.38333333333333</v>
+        <v>13.20555555555556</v>
       </c>
       <c r="B162" t="n">
-        <v>62.44767901234568</v>
+        <v>58.32452710916606</v>
       </c>
       <c r="C162" t="n">
-        <v>36.93209876543209</v>
+        <v>19.72185752492098</v>
       </c>
       <c r="D162" t="n">
-        <v>1931.289680147418</v>
+        <v>2092.519760026149</v>
       </c>
       <c r="E162" t="n">
-        <v>5229.298482097304</v>
+        <v>10610.15554636268</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>11.59030303030303</v>
+        <v>13.44565656565656</v>
       </c>
       <c r="B163" t="n">
-        <v>62.25757351290684</v>
+        <v>58.21472161439338</v>
       </c>
       <c r="C163" t="n">
-        <v>37.31537598204265</v>
+        <v>19.85320381053423</v>
       </c>
       <c r="D163" t="n">
-        <v>1960.417839159152</v>
+        <v>2126.554434473821</v>
       </c>
       <c r="E163" t="n">
-        <v>5253.646218391495</v>
+        <v>10711.39174698574</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11.79727272727273</v>
+        <v>13.68575757575758</v>
       </c>
       <c r="B164" t="n">
-        <v>62.06746801346802</v>
+        <v>58.10491611962071</v>
       </c>
       <c r="C164" t="n">
-        <v>37.69865319865319</v>
+        <v>19.98455009614747</v>
       </c>
       <c r="D164" t="n">
-        <v>1989.332205356274</v>
+        <v>2160.445853943959</v>
       </c>
       <c r="E164" t="n">
-        <v>5276.931764308611</v>
+        <v>10810.58039110142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12.00424242424242</v>
+        <v>13.92585858585858</v>
       </c>
       <c r="B165" t="n">
-        <v>61.87736251402918</v>
+        <v>57.99511062484805</v>
       </c>
       <c r="C165" t="n">
-        <v>38.08193041526374</v>
+        <v>20.11589638176071</v>
       </c>
       <c r="D165" t="n">
-        <v>2018.032778738785</v>
+        <v>2194.194018436561</v>
       </c>
       <c r="E165" t="n">
-        <v>5299.187191230019</v>
+        <v>10907.76158712996</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>12.21121212121212</v>
+        <v>14.1659595959596</v>
       </c>
       <c r="B166" t="n">
-        <v>61.68725701459035</v>
+        <v>57.88530513007537</v>
       </c>
       <c r="C166" t="n">
-        <v>38.46520763187429</v>
+        <v>20.24724266737396</v>
       </c>
       <c r="D166" t="n">
-        <v>2046.519559306685</v>
+        <v>2227.798927951628</v>
       </c>
       <c r="E166" t="n">
-        <v>5320.443292267142</v>
+        <v>11002.97440273911</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>12.41818181818182</v>
+        <v>14.40606060606061</v>
       </c>
       <c r="B167" t="n">
-        <v>61.49715151515151</v>
+        <v>57.7754996353027</v>
       </c>
       <c r="C167" t="n">
-        <v>38.84848484848484</v>
+        <v>20.3785889529872</v>
       </c>
       <c r="D167" t="n">
-        <v>2074.792547059972</v>
+        <v>2261.26058248916</v>
       </c>
       <c r="E167" t="n">
-        <v>5340.729645318181</v>
+        <v>11096.25689838399</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>12.62515151515151</v>
+        <v>14.64616161616162</v>
       </c>
       <c r="B168" t="n">
-        <v>61.30704601571269</v>
+        <v>57.66569414053003</v>
       </c>
       <c r="C168" t="n">
-        <v>39.2317620650954</v>
+        <v>20.50993523860044</v>
       </c>
       <c r="D168" t="n">
-        <v>2102.851741998648</v>
+        <v>2294.578982049156</v>
       </c>
       <c r="E168" t="n">
-        <v>5360.074672428646</v>
+        <v>11187.6461595582</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>12.83212121212121</v>
+        <v>14.88626262626263</v>
       </c>
       <c r="B169" t="n">
-        <v>61.11694051627385</v>
+        <v>57.55588864575736</v>
       </c>
       <c r="C169" t="n">
-        <v>39.61503928170595</v>
+        <v>20.64128152421369</v>
       </c>
       <c r="D169" t="n">
-        <v>2130.697144122712</v>
+        <v>2327.754126631618</v>
       </c>
       <c r="E169" t="n">
-        <v>5378.505695705971</v>
+        <v>11277.17832781359</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>13.03909090909091</v>
+        <v>15.12636363636364</v>
       </c>
       <c r="B170" t="n">
-        <v>60.92683501683502</v>
+        <v>57.44608315098468</v>
       </c>
       <c r="C170" t="n">
-        <v>39.9983164983165</v>
+        <v>20.77262780982693</v>
       </c>
       <c r="D170" t="n">
-        <v>2158.328753432165</v>
+        <v>2360.786016236543</v>
       </c>
       <c r="E170" t="n">
-        <v>5396.048990019386</v>
+        <v>11364.88863060322</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>13.2460606060606</v>
+        <v>15.36646464646465</v>
       </c>
       <c r="B171" t="n">
-        <v>60.73672951739618</v>
+        <v>57.33627765621201</v>
       </c>
       <c r="C171" t="n">
-        <v>40.38159371492704</v>
+        <v>20.90397409544018</v>
       </c>
       <c r="D171" t="n">
-        <v>2185.746569927005</v>
+        <v>2393.674650863935</v>
       </c>
       <c r="E171" t="n">
-        <v>5412.729832698616</v>
+        <v>11450.81140999917</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>13.4530303030303</v>
+        <v>15.60656565656566</v>
       </c>
       <c r="B172" t="n">
-        <v>60.54662401795736</v>
+        <v>57.22647216143934</v>
       </c>
       <c r="C172" t="n">
-        <v>40.76487093153759</v>
+        <v>21.03532038105342</v>
       </c>
       <c r="D172" t="n">
-        <v>2212.950593607235</v>
+        <v>2426.420030513791</v>
       </c>
       <c r="E172" t="n">
-        <v>5428.572550428937</v>
+        <v>11534.98015033455</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>13.66</v>
+        <v>15.84666666666667</v>
       </c>
       <c r="B173" t="n">
-        <v>60.32807692307693</v>
+        <v>57.11666666666667</v>
       </c>
       <c r="C173" t="n">
-        <v>41.09615384615385</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="D173" t="n">
-        <v>2238.885304832115</v>
+        <v>2459.02215518611</v>
       </c>
       <c r="E173" t="n">
-        <v>5447.919319198409</v>
+        <v>11617.42750481627</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>13.8669696969697</v>
+        <v>16.08676767676767</v>
       </c>
       <c r="B174" t="n">
-        <v>60.06438956876457</v>
+        <v>57.00686117189399</v>
       </c>
       <c r="C174" t="n">
-        <v>41.3449155011655</v>
+        <v>21.29801295227991</v>
       </c>
       <c r="D174" t="n">
-        <v>2262.873617799047</v>
+        <v>2491.481024880896</v>
       </c>
       <c r="E174" t="n">
-        <v>5473.160581825974</v>
+        <v>11698.18532115311</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14.07393939393939</v>
+        <v>16.32686868686869</v>
       </c>
       <c r="B175" t="n">
-        <v>59.80070221445222</v>
+        <v>56.89705567712132</v>
       </c>
       <c r="C175" t="n">
-        <v>41.59367715617715</v>
+        <v>21.42935923789315</v>
       </c>
       <c r="D175" t="n">
-        <v>2286.565387731599</v>
+        <v>2523.796639598147</v>
       </c>
       <c r="E175" t="n">
-        <v>5497.38696856721</v>
+        <v>11777.28466624127</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>14.28090909090909</v>
+        <v>16.5669696969697</v>
       </c>
       <c r="B176" t="n">
-        <v>59.53701486013986</v>
+        <v>56.78725018234865</v>
       </c>
       <c r="C176" t="n">
-        <v>41.84243881118881</v>
+        <v>21.5607055235064</v>
       </c>
       <c r="D176" t="n">
-        <v>2309.960614629771</v>
+        <v>2555.968999337862</v>
       </c>
       <c r="E176" t="n">
-        <v>5520.616580341583</v>
+        <v>11854.75584994765</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>14.48787878787879</v>
+        <v>16.80707070707071</v>
       </c>
       <c r="B177" t="n">
-        <v>59.27332750582751</v>
+        <v>56.67744468757598</v>
       </c>
       <c r="C177" t="n">
-        <v>42.09120046620046</v>
+        <v>21.69205180911964</v>
       </c>
       <c r="D177" t="n">
-        <v>2333.059298493563</v>
+        <v>2587.998104100042</v>
       </c>
       <c r="E177" t="n">
-        <v>5542.867090158254</v>
+        <v>11930.62844802911</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>14.69484848484848</v>
+        <v>17.04717171717172</v>
       </c>
       <c r="B178" t="n">
-        <v>59.00964015151516</v>
+        <v>56.56763919280331</v>
       </c>
       <c r="C178" t="n">
-        <v>42.33996212121212</v>
+        <v>21.82339809473289</v>
       </c>
       <c r="D178" t="n">
-        <v>2355.861439322974</v>
+        <v>2619.883953884687</v>
       </c>
       <c r="E178" t="n">
-        <v>5564.155755686656</v>
+        <v>12004.93132422398</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>14.90181818181818</v>
+        <v>17.28727272727273</v>
       </c>
       <c r="B179" t="n">
-        <v>58.7459527972028</v>
+        <v>56.45783369803064</v>
       </c>
       <c r="C179" t="n">
-        <v>42.58872377622377</v>
+        <v>21.95474438034613</v>
       </c>
       <c r="D179" t="n">
-        <v>2378.367037118006</v>
+        <v>2651.626548691796</v>
       </c>
       <c r="E179" t="n">
-        <v>5584.499431386551</v>
+        <v>12077.69265155066</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>15.10878787878788</v>
+        <v>17.52737373737374</v>
       </c>
       <c r="B180" t="n">
-        <v>58.48226544289044</v>
+        <v>56.36625213887509</v>
       </c>
       <c r="C180" t="n">
-        <v>42.83748543123543</v>
+        <v>22.34398631119942</v>
       </c>
       <c r="D180" t="n">
-        <v>2400.576091878656</v>
+        <v>2684.09369059711</v>
       </c>
       <c r="E180" t="n">
-        <v>5603.914580215415</v>
+        <v>12012.5999596221</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>15.31575757575757</v>
+        <v>17.76747474747475</v>
       </c>
       <c r="B181" t="n">
-        <v>58.21857808857809</v>
+        <v>56.28425042777502</v>
       </c>
       <c r="C181" t="n">
-        <v>43.08624708624708</v>
+        <v>22.86879726223988</v>
       </c>
       <c r="D181" t="n">
-        <v>2422.488603604927</v>
+        <v>2716.903782915276</v>
       </c>
       <c r="E181" t="n">
-        <v>5622.417284930285</v>
+        <v>11880.39647105241</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>15.52272727272727</v>
+        <v>18.00757575757576</v>
       </c>
       <c r="B182" t="n">
-        <v>57.95489073426574</v>
+        <v>56.20224871667495</v>
       </c>
       <c r="C182" t="n">
-        <v>43.33500874125874</v>
+        <v>23.39360821328034</v>
       </c>
       <c r="D182" t="n">
-        <v>2444.104572296817</v>
+        <v>2749.606893763109</v>
       </c>
       <c r="E182" t="n">
-        <v>5640.023259000326</v>
+        <v>11753.66736372964</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>15.72969696969697</v>
+        <v>18.24767676767677</v>
       </c>
       <c r="B183" t="n">
-        <v>57.6774025974026</v>
+        <v>56.12024700557487</v>
       </c>
       <c r="C183" t="n">
-        <v>43.504329004329</v>
+        <v>23.9184191643208</v>
       </c>
       <c r="D183" t="n">
-        <v>2464.834223803368</v>
+        <v>2782.203023140607</v>
       </c>
       <c r="E183" t="n">
-        <v>5665.721734400498</v>
+        <v>11632.05228584183</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>15.93666666666666</v>
+        <v>18.48777777777778</v>
       </c>
       <c r="B184" t="n">
-        <v>57.37273291925467</v>
+        <v>56.03824529447481</v>
       </c>
       <c r="C184" t="n">
-        <v>43.51718426501035</v>
+        <v>24.44323011536126</v>
       </c>
       <c r="D184" t="n">
-        <v>2484.074929056485</v>
+        <v>2814.692171047772</v>
       </c>
       <c r="E184" t="n">
-        <v>5708.262083155473</v>
+        <v>11515.22183346337</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>16.14363636363636</v>
+        <v>18.72787878787879</v>
       </c>
       <c r="B185" t="n">
-        <v>57.06806324110673</v>
+        <v>55.95624358337474</v>
       </c>
       <c r="C185" t="n">
-        <v>43.5300395256917</v>
+        <v>24.96804106640172</v>
       </c>
       <c r="D185" t="n">
-        <v>2502.973002517201</v>
+        <v>2847.074337484604</v>
       </c>
       <c r="E185" t="n">
-        <v>5749.990190199415</v>
+        <v>11402.87429803924</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>16.35060606060606</v>
+        <v>18.9679797979798</v>
       </c>
       <c r="B186" t="n">
-        <v>56.76339356295878</v>
+        <v>55.87424187227466</v>
       </c>
       <c r="C186" t="n">
-        <v>43.54289478637305</v>
+        <v>25.49285201744218</v>
       </c>
       <c r="D186" t="n">
-        <v>2521.528444185515</v>
+        <v>2879.349522451102</v>
       </c>
       <c r="E186" t="n">
-        <v>5790.906774931828</v>
+        <v>11294.73281561849</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>16.55757575757575</v>
+        <v>19.20808080808081</v>
       </c>
       <c r="B187" t="n">
-        <v>56.45872388481084</v>
+        <v>55.79224016117459</v>
       </c>
       <c r="C187" t="n">
-        <v>43.5557500470544</v>
+        <v>26.01766296848264</v>
       </c>
       <c r="D187" t="n">
-        <v>2539.741254061427</v>
+        <v>2911.517725947267</v>
       </c>
       <c r="E187" t="n">
-        <v>5831.012555902904</v>
+        <v>11190.54286111028</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>16.76454545454545</v>
+        <v>19.44818181818182</v>
       </c>
       <c r="B188" t="n">
-        <v>56.15405420666291</v>
+        <v>55.71023845007452</v>
       </c>
       <c r="C188" t="n">
-        <v>43.56860530773574</v>
+        <v>26.5424739195231</v>
       </c>
       <c r="D188" t="n">
-        <v>2557.611432144938</v>
+        <v>2943.578947973098</v>
       </c>
       <c r="E188" t="n">
-        <v>5870.308250814782</v>
+        <v>11090.07003980881</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>16.97151515151515</v>
+        <v>19.68828282828283</v>
       </c>
       <c r="B189" t="n">
-        <v>55.84938452851497</v>
+        <v>55.62823673897444</v>
       </c>
       <c r="C189" t="n">
-        <v>43.58146056841709</v>
+        <v>27.06728487056355</v>
       </c>
       <c r="D189" t="n">
-        <v>2575.138978436048</v>
+        <v>2975.533188528595</v>
       </c>
       <c r="E189" t="n">
-        <v>5908.794576522792</v>
+        <v>10993.09813584063</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>17.17848484848485</v>
+        <v>19.92838383838384</v>
       </c>
       <c r="B190" t="n">
-        <v>55.54471485036703</v>
+        <v>55.54623502787437</v>
       </c>
       <c r="C190" t="n">
-        <v>43.59431582909843</v>
+        <v>27.59209582160401</v>
       </c>
       <c r="D190" t="n">
-        <v>2592.323892934757</v>
+        <v>3007.380447613758</v>
       </c>
       <c r="E190" t="n">
-        <v>5946.472249036711</v>
+        <v>10899.42738332709</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>17.38545454545454</v>
+        <v>20.16848484848485</v>
       </c>
       <c r="B191" t="n">
-        <v>55.24004517221909</v>
+        <v>55.4642333167743</v>
       </c>
       <c r="C191" t="n">
-        <v>43.60717108977978</v>
+        <v>28.11690677264447</v>
       </c>
       <c r="D191" t="n">
-        <v>2609.166175641064</v>
+        <v>3039.120725228589</v>
       </c>
       <c r="E191" t="n">
-        <v>5983.341983522004</v>
+        <v>10808.87293116259</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>17.59242424242424</v>
+        <v>20.40858585858586</v>
       </c>
       <c r="B192" t="n">
-        <v>54.93537549407115</v>
+        <v>55.38223160567423</v>
       </c>
       <c r="C192" t="n">
-        <v>43.62002635046113</v>
+        <v>28.64171772368493</v>
       </c>
       <c r="D192" t="n">
-        <v>2625.665826554969</v>
+        <v>3070.754021373085</v>
       </c>
       <c r="E192" t="n">
-        <v>6019.404494301071</v>
+        <v>10721.2634765748</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>17.79939393939394</v>
+        <v>20.64868686868687</v>
       </c>
       <c r="B193" t="n">
-        <v>54.63070581592321</v>
+        <v>55.30022989457416</v>
       </c>
       <c r="C193" t="n">
-        <v>43.63288161114248</v>
+        <v>29.1665286747254</v>
       </c>
       <c r="D193" t="n">
-        <v>2641.822845676474</v>
+        <v>3102.280336047249</v>
       </c>
       <c r="E193" t="n">
-        <v>6054.660494854491</v>
+        <v>10636.44004620806</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.00636363636363</v>
+        <v>20.88878787878788</v>
       </c>
       <c r="B194" t="n">
-        <v>54.32603613777527</v>
+        <v>55.21822818347409</v>
       </c>
       <c r="C194" t="n">
-        <v>43.64573687182383</v>
+        <v>29.69133962576585</v>
       </c>
       <c r="D194" t="n">
-        <v>2657.637233005576</v>
+        <v>3133.699669251077</v>
       </c>
       <c r="E194" t="n">
-        <v>6089.110697822252</v>
+        <v>10554.25490647678</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.21333333333333</v>
+        <v>21.12888888888889</v>
       </c>
       <c r="B195" t="n">
-        <v>54.02136645962733</v>
+        <v>55.04945660989457</v>
       </c>
       <c r="C195" t="n">
-        <v>43.65859213250518</v>
+        <v>30.04330900243309</v>
       </c>
       <c r="D195" t="n">
-        <v>2673.108988542278</v>
+        <v>3160.031127742918</v>
       </c>
       <c r="E195" t="n">
-        <v>6122.755815005004</v>
+        <v>10518.25259157372</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.42030303030303</v>
+        <v>21.3689898989899</v>
       </c>
       <c r="B196" t="n">
-        <v>53.71669678147939</v>
+        <v>54.75677873626779</v>
       </c>
       <c r="C196" t="n">
-        <v>43.67144739318652</v>
+        <v>30.14846272948463</v>
       </c>
       <c r="D196" t="n">
-        <v>2688.238112286577</v>
+        <v>3178.948922529765</v>
       </c>
       <c r="E196" t="n">
-        <v>6155.596557365277</v>
+        <v>10544.31514818437</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>18.62727272727273</v>
+        <v>21.60909090909091</v>
       </c>
       <c r="B197" t="n">
-        <v>53.41202710333145</v>
+        <v>54.46410086264101</v>
       </c>
       <c r="C197" t="n">
-        <v>43.68430265386787</v>
+        <v>30.25361645653616</v>
       </c>
       <c r="D197" t="n">
-        <v>2703.024604238476</v>
+        <v>3197.484882488599</v>
       </c>
       <c r="E197" t="n">
-        <v>6187.633635028729</v>
+        <v>10568.93441840999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>18.83424242424242</v>
+        <v>21.84919191919192</v>
       </c>
       <c r="B198" t="n">
-        <v>53.10735742518352</v>
+        <v>54.17142298901423</v>
       </c>
       <c r="C198" t="n">
-        <v>43.69715791454922</v>
+        <v>30.3587701835877</v>
       </c>
       <c r="D198" t="n">
-        <v>2717.468464397973</v>
+        <v>3215.639007619419</v>
       </c>
       <c r="E198" t="n">
-        <v>6218.867757285368</v>
+        <v>10592.12539959155</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.04121212121212</v>
+        <v>22.08929292929293</v>
       </c>
       <c r="B199" t="n">
-        <v>52.80268774703558</v>
+        <v>53.87874511538745</v>
       </c>
       <c r="C199" t="n">
-        <v>43.71001317523056</v>
+        <v>30.46392391063924</v>
       </c>
       <c r="D199" t="n">
-        <v>2731.569692765069</v>
+        <v>3233.411297922226</v>
       </c>
       <c r="E199" t="n">
-        <v>6249.299632590788</v>
+        <v>10613.90288200197</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.24818181818182</v>
+        <v>22.32939393939394</v>
       </c>
       <c r="B200" t="n">
-        <v>52.49801806888764</v>
+        <v>53.58606724176067</v>
       </c>
       <c r="C200" t="n">
-        <v>43.72286843591191</v>
+        <v>30.56907763769077</v>
       </c>
       <c r="D200" t="n">
-        <v>2745.328289339763</v>
+        <v>3250.80175339702</v>
       </c>
       <c r="E200" t="n">
-        <v>6278.929968567385</v>
+        <v>10634.28145240757</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.45515151515151</v>
+        <v>22.56949494949495</v>
       </c>
       <c r="B201" t="n">
-        <v>52.1933483907397</v>
+        <v>53.29338936813389</v>
       </c>
       <c r="C201" t="n">
-        <v>43.73572369659326</v>
+        <v>30.67423136474231</v>
       </c>
       <c r="D201" t="n">
-        <v>2758.744254122056</v>
+        <v>3267.8103740438</v>
       </c>
       <c r="E201" t="n">
-        <v>6307.759472005593</v>
+        <v>10653.27549755623</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.66212121212121</v>
+        <v>22.80959595959596</v>
       </c>
       <c r="B202" t="n">
-        <v>51.88867871259176</v>
+        <v>53.00071149450712</v>
       </c>
       <c r="C202" t="n">
-        <v>43.74857895727461</v>
+        <v>30.77938509179385</v>
       </c>
       <c r="D202" t="n">
-        <v>2771.817587111947</v>
+        <v>3284.437159862566</v>
       </c>
       <c r="E202" t="n">
-        <v>6335.788848865097</v>
+        <v>10670.8992075941</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.86909090909091</v>
+        <v>23.04969696969697</v>
       </c>
       <c r="B203" t="n">
-        <v>51.58400903444382</v>
+        <v>52.70803362088034</v>
       </c>
       <c r="C203" t="n">
-        <v>43.76143421795595</v>
+        <v>30.88453881884539</v>
       </c>
       <c r="D203" t="n">
-        <v>2784.548288309438</v>
+        <v>3300.68211085332</v>
       </c>
       <c r="E203" t="n">
-        <v>6363.018804276066</v>
+        <v>10687.16657941249</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>20.0760606060606</v>
+        <v>23.28979797979798</v>
       </c>
       <c r="B204" t="n">
-        <v>51.27933935629588</v>
+        <v>52.41535574725356</v>
       </c>
       <c r="C204" t="n">
-        <v>43.7742894786373</v>
+        <v>30.98969254589693</v>
       </c>
       <c r="D204" t="n">
-        <v>2796.936357714526</v>
+        <v>3316.545227016059</v>
       </c>
       <c r="E204" t="n">
-        <v>6389.450042540348</v>
+        <v>10702.09141992657</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>20.2830303030303</v>
+        <v>23.52989898989899</v>
       </c>
       <c r="B205" t="n">
-        <v>50.97466967814794</v>
+        <v>52.12267787362678</v>
       </c>
       <c r="C205" t="n">
-        <v>43.78714473931865</v>
+        <v>31.09484627294846</v>
       </c>
       <c r="D205" t="n">
-        <v>2808.981795327214</v>
+        <v>3332.026508350787</v>
       </c>
       <c r="E205" t="n">
-        <v>6415.083267132715</v>
+        <v>10715.68734928767</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>20.49</v>
+        <v>23.77</v>
       </c>
       <c r="B206" t="n">
-        <v>50.67</v>
+        <v>51.83</v>
       </c>
       <c r="C206" t="n">
-        <v>43.8</v>
+        <v>31.2</v>
       </c>
       <c r="D206" t="n">
-        <v>2820.6846011475</v>
+        <v>3347.1259548575</v>
       </c>
       <c r="E206" t="n">
-        <v>6439.919180702054</v>
+        <v>10727.96780403045</v>
       </c>
     </row>
     <row r="207"/>
@@ -4897,7 +5124,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Rotor 203 - Paralelo</t>
+          <t>Rotor 250+250_3200RPM - Paralelo</t>
         </is>
       </c>
     </row>
@@ -4917,1722 +5144,272 @@
           <t>Eficiência (%)</t>
         </is>
       </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>Potência Hidráulica (W)</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>Potência Mecânica (W)</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0</v>
+        <v>25.48</v>
       </c>
       <c r="B211" t="n">
-        <v>75</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v/>
+        <v>62.69</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>31.0%:0.0%</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.438989898989899</v>
+        <v>25.6</v>
       </c>
       <c r="B212" t="n">
-        <v>74.94050007205649</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.7401904911632537</v>
-      </c>
-      <c r="D212" t="n">
-        <v>89.378441815608</v>
-      </c>
-      <c r="E212" t="n">
-        <v>12075.05944519017</v>
+        <v>62.65</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>31.0%:0.2%</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.877979797979798</v>
+        <v>25.72</v>
       </c>
       <c r="B213" t="n">
-        <v>74.88100014411299</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.480380982326507</v>
-      </c>
-      <c r="D213" t="n">
-        <v>178.6149574139471</v>
-      </c>
-      <c r="E213" t="n">
-        <v>12065.47230384188</v>
+        <v>62.62</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>31.0%:0.4%</t>
+        </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.316969696969697</v>
+        <v>25.84</v>
       </c>
       <c r="B214" t="n">
-        <v>74.82150021616948</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.220571473489761</v>
-      </c>
-      <c r="D214" t="n">
-        <v>267.7095467950174</v>
-      </c>
-      <c r="E214" t="n">
-        <v>12055.88516249359</v>
+        <v>62.58</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>31.0%:0.6%</t>
+        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.755959595959596</v>
+        <v>25.96</v>
       </c>
       <c r="B215" t="n">
-        <v>74.76200028822596</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.960761964653015</v>
-      </c>
-      <c r="D215" t="n">
-        <v>356.6622099588188</v>
-      </c>
-      <c r="E215" t="n">
-        <v>12046.2980211453</v>
+        <v>62.54</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>31.0%:0.8%</t>
+        </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.194949494949495</v>
+        <v>26.08</v>
       </c>
       <c r="B216" t="n">
-        <v>74.70250036028246</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.700952455816269</v>
-      </c>
-      <c r="D216" t="n">
-        <v>445.4729469053514</v>
-      </c>
-      <c r="E216" t="n">
-        <v>12036.71087979701</v>
+        <v>62.51</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>31.0%:0.9%</t>
+        </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.633939393939394</v>
+        <v>26.2</v>
       </c>
       <c r="B217" t="n">
-        <v>74.64300043233895</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.441142946979522</v>
-      </c>
-      <c r="D217" t="n">
-        <v>534.141757634615</v>
-      </c>
-      <c r="E217" t="n">
-        <v>12027.12373844872</v>
+        <v>62.47</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>31.1%:1.1%</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3.072929292929293</v>
+        <v>26.32</v>
       </c>
       <c r="B218" t="n">
-        <v>74.58350050439545</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.181333438142777</v>
-      </c>
-      <c r="D218" t="n">
-        <v>622.6686421466101</v>
-      </c>
-      <c r="E218" t="n">
-        <v>12017.53659710043</v>
+        <v>62.44</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>31.1%:1.3%</t>
+        </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3.511919191919192</v>
+        <v>26.44</v>
       </c>
       <c r="B219" t="n">
-        <v>74.52400057645194</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.92152392930603</v>
-      </c>
-      <c r="D219" t="n">
-        <v>711.053600441336</v>
-      </c>
-      <c r="E219" t="n">
-        <v>12007.94945575214</v>
+        <v>62.4</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>31.1%:1.5%</t>
+        </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3.950909090909091</v>
+        <v>26.56</v>
       </c>
       <c r="B220" t="n">
-        <v>74.46450064850843</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6.661714420469284</v>
-      </c>
-      <c r="D220" t="n">
-        <v>799.2966325187931</v>
-      </c>
-      <c r="E220" t="n">
-        <v>11998.36231440385</v>
+        <v>62.36</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>31.1%:1.7%</t>
+        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>4.38989898989899</v>
+        <v>26.68</v>
       </c>
       <c r="B221" t="n">
-        <v>74.40500072056493</v>
-      </c>
-      <c r="C221" t="n">
-        <v>7.401904911632538</v>
-      </c>
-      <c r="D221" t="n">
-        <v>887.3977383789814</v>
-      </c>
-      <c r="E221" t="n">
-        <v>11988.77517305555</v>
+        <v>62.33</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>31.1%:1.9%</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>4.828888888888889</v>
+        <v>26.8</v>
       </c>
       <c r="B222" t="n">
-        <v>74.34550079262141</v>
-      </c>
-      <c r="C222" t="n">
-        <v>8.142095402795793</v>
-      </c>
-      <c r="D222" t="n">
-        <v>975.3569180219008</v>
-      </c>
-      <c r="E222" t="n">
-        <v>11979.18803170726</v>
+        <v>62.29</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>31.1%:2.1%</t>
+        </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>5.267878787878788</v>
+        <v>26.92</v>
       </c>
       <c r="B223" t="n">
-        <v>74.2860008646779</v>
-      </c>
-      <c r="C223" t="n">
-        <v>8.882285893959045</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1063.174171447551</v>
-      </c>
-      <c r="E223" t="n">
-        <v>11969.60089035897</v>
+        <v>62.25</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>31.1%:2.3%</t>
+        </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5.706868686868686</v>
+        <v>27.05</v>
       </c>
       <c r="B224" t="n">
-        <v>74.2265009367344</v>
-      </c>
-      <c r="C224" t="n">
-        <v>9.622476385122299</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1150.849498655933</v>
-      </c>
-      <c r="E224" t="n">
-        <v>11960.01374901068</v>
+        <v>62.22</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>31.1%:2.5%</t>
+        </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>6.145858585858586</v>
+        <v>27.17</v>
       </c>
       <c r="B225" t="n">
-        <v>74.16700100879089</v>
-      </c>
-      <c r="C225" t="n">
-        <v>10.36266687628555</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1238.382899647046</v>
-      </c>
-      <c r="E225" t="n">
-        <v>11950.4266076624</v>
+        <v>62.18</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>31.1%:2.6%</t>
+        </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>6.584848484848485</v>
+        <v>27.29</v>
       </c>
       <c r="B226" t="n">
-        <v>74.10750108084738</v>
-      </c>
-      <c r="C226" t="n">
-        <v>11.10285736744881</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1325.77437442089</v>
-      </c>
-      <c r="E226" t="n">
-        <v>11940.8394663141</v>
+        <v>62.15</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>31.2%:2.8%</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>7.023838383838384</v>
+        <v>27.41</v>
       </c>
       <c r="B227" t="n">
-        <v>74.04800115290388</v>
-      </c>
-      <c r="C227" t="n">
-        <v>11.84304785861206</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1413.023922977465</v>
-      </c>
-      <c r="E227" t="n">
-        <v>11931.25232496581</v>
+        <v>62.11</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>31.2%:3.0%</t>
+        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>7.462828282828283</v>
+        <v>27.53</v>
       </c>
       <c r="B228" t="n">
-        <v>73.98850122496037</v>
-      </c>
-      <c r="C228" t="n">
-        <v>12.58323834977531</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1500.131545316772</v>
-      </c>
-      <c r="E228" t="n">
-        <v>11921.66518361752</v>
+        <v>62.07</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>31.2%:3.2%</t>
+        </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>7.901818181818181</v>
+        <v>27.65</v>
       </c>
       <c r="B229" t="n">
-        <v>73.92900129701685</v>
-      </c>
-      <c r="C229" t="n">
-        <v>13.32342884093857</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1587.097241438809</v>
-      </c>
-      <c r="E229" t="n">
-        <v>11912.07804226923</v>
+        <v>62.04</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>31.2%:3.4%</t>
+        </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>8.340808080808081</v>
+        <v>27.77</v>
       </c>
       <c r="B230" t="n">
-        <v>73.86950136907335</v>
-      </c>
-      <c r="C230" t="n">
-        <v>14.06361933210182</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1673.921011343578</v>
-      </c>
-      <c r="E230" t="n">
-        <v>11902.49090092094</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>8.77979797979798</v>
-      </c>
-      <c r="B231" t="n">
-        <v>73.81000144112984</v>
-      </c>
-      <c r="C231" t="n">
-        <v>14.80380982326508</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1760.602855031077</v>
-      </c>
-      <c r="E231" t="n">
-        <v>11892.90375957265</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>9.218787878787879</v>
-      </c>
-      <c r="B232" t="n">
-        <v>73.75050151318634</v>
-      </c>
-      <c r="C232" t="n">
-        <v>15.54400031442833</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1847.142772501308</v>
-      </c>
-      <c r="E232" t="n">
-        <v>11883.31661822436</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>9.657777777777778</v>
-      </c>
-      <c r="B233" t="n">
-        <v>73.69100158524283</v>
-      </c>
-      <c r="C233" t="n">
-        <v>16.28419080559159</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1933.54076375427</v>
-      </c>
-      <c r="E233" t="n">
-        <v>11873.72947687607</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>10.09676767676768</v>
-      </c>
-      <c r="B234" t="n">
-        <v>73.63150165729932</v>
-      </c>
-      <c r="C234" t="n">
-        <v>17.02438129675484</v>
-      </c>
-      <c r="D234" t="n">
-        <v>2019.796828789963</v>
-      </c>
-      <c r="E234" t="n">
-        <v>11864.14233552778</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>10.53575757575758</v>
-      </c>
-      <c r="B235" t="n">
-        <v>73.57200172935582</v>
-      </c>
-      <c r="C235" t="n">
-        <v>17.76457178791809</v>
-      </c>
-      <c r="D235" t="n">
-        <v>2105.910967608388</v>
-      </c>
-      <c r="E235" t="n">
-        <v>11854.55519417949</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>10.97474747474747</v>
-      </c>
-      <c r="B236" t="n">
-        <v>73.5125018014123</v>
-      </c>
-      <c r="C236" t="n">
-        <v>18.50476227908134</v>
-      </c>
-      <c r="D236" t="n">
-        <v>2191.883180209543</v>
-      </c>
-      <c r="E236" t="n">
-        <v>11844.96805283119</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>11.41373737373737</v>
-      </c>
-      <c r="B237" t="n">
-        <v>73.45300187346879</v>
-      </c>
-      <c r="C237" t="n">
-        <v>19.2449527702446</v>
-      </c>
-      <c r="D237" t="n">
-        <v>2277.71346659343</v>
-      </c>
-      <c r="E237" t="n">
-        <v>11835.38091148291</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>11.85272727272727</v>
-      </c>
-      <c r="B238" t="n">
-        <v>73.39350194552529</v>
-      </c>
-      <c r="C238" t="n">
-        <v>19.98514326140785</v>
-      </c>
-      <c r="D238" t="n">
-        <v>2363.401826760047</v>
-      </c>
-      <c r="E238" t="n">
-        <v>11825.79377013461</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>12.29171717171717</v>
-      </c>
-      <c r="B239" t="n">
-        <v>73.33400201758178</v>
-      </c>
-      <c r="C239" t="n">
-        <v>20.72533375257111</v>
-      </c>
-      <c r="D239" t="n">
-        <v>2448.948260709397</v>
-      </c>
-      <c r="E239" t="n">
-        <v>11816.20662878633</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>12.73070707070707</v>
-      </c>
-      <c r="B240" t="n">
-        <v>73.27450208963828</v>
-      </c>
-      <c r="C240" t="n">
-        <v>21.46552424373436</v>
-      </c>
-      <c r="D240" t="n">
-        <v>2534.352768441477</v>
-      </c>
-      <c r="E240" t="n">
-        <v>11806.61948743803</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>13.16969696969697</v>
-      </c>
-      <c r="B241" t="n">
-        <v>73.21500216169477</v>
-      </c>
-      <c r="C241" t="n">
-        <v>22.20571473489762</v>
-      </c>
-      <c r="D241" t="n">
-        <v>2619.615349956288</v>
-      </c>
-      <c r="E241" t="n">
-        <v>11797.03234608974</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>13.60868686868687</v>
-      </c>
-      <c r="B242" t="n">
-        <v>73.15550223375126</v>
-      </c>
-      <c r="C242" t="n">
-        <v>22.94590522606087</v>
-      </c>
-      <c r="D242" t="n">
-        <v>2704.73600525383</v>
-      </c>
-      <c r="E242" t="n">
-        <v>11787.44520474145</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>14.04767676767677</v>
-      </c>
-      <c r="B243" t="n">
-        <v>73.09600230580774</v>
-      </c>
-      <c r="C243" t="n">
-        <v>23.68609571722412</v>
-      </c>
-      <c r="D243" t="n">
-        <v>2789.714734334103</v>
-      </c>
-      <c r="E243" t="n">
-        <v>11777.85806339316</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>14.48666666666667</v>
-      </c>
-      <c r="B244" t="n">
-        <v>73.03650237786424</v>
-      </c>
-      <c r="C244" t="n">
-        <v>24.42628620838737</v>
-      </c>
-      <c r="D244" t="n">
-        <v>2874.551537197108</v>
-      </c>
-      <c r="E244" t="n">
-        <v>11768.27092204487</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>14.92565656565657</v>
-      </c>
-      <c r="B245" t="n">
-        <v>72.97700244992073</v>
-      </c>
-      <c r="C245" t="n">
-        <v>25.16647669955063</v>
-      </c>
-      <c r="D245" t="n">
-        <v>2959.246413842844</v>
-      </c>
-      <c r="E245" t="n">
-        <v>11758.68378069658</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>15.36464646464646</v>
-      </c>
-      <c r="B246" t="n">
-        <v>72.91750252197723</v>
-      </c>
-      <c r="C246" t="n">
-        <v>25.90666719071388</v>
-      </c>
-      <c r="D246" t="n">
-        <v>3043.79936427131</v>
-      </c>
-      <c r="E246" t="n">
-        <v>11749.09663934829</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>15.80363636363636</v>
-      </c>
-      <c r="B247" t="n">
-        <v>72.78058050383352</v>
-      </c>
-      <c r="C247" t="n">
-        <v>26.57776560788609</v>
-      </c>
-      <c r="D247" t="n">
-        <v>3124.886215732237</v>
-      </c>
-      <c r="E247" t="n">
-        <v>11757.52040948479</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>16.24262626262626</v>
-      </c>
-      <c r="B248" t="n">
-        <v>72.63248752586102</v>
-      </c>
-      <c r="C248" t="n">
-        <v>27.23889497383474</v>
-      </c>
-      <c r="D248" t="n">
-        <v>3205.153508428827</v>
-      </c>
-      <c r="E248" t="n">
-        <v>11766.82648656507</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>16.68161616161616</v>
-      </c>
-      <c r="B249" t="n">
-        <v>72.48439454788853</v>
-      </c>
-      <c r="C249" t="n">
-        <v>27.90002433978338</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3285.067552358666</v>
-      </c>
-      <c r="E249" t="n">
-        <v>11774.42539960226</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>17.12060606060606</v>
-      </c>
-      <c r="B250" t="n">
-        <v>72.33630156991603</v>
-      </c>
-      <c r="C250" t="n">
-        <v>28.56115370573202</v>
-      </c>
-      <c r="D250" t="n">
-        <v>3364.628347521756</v>
-      </c>
-      <c r="E250" t="n">
-        <v>11780.43570013945</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>17.55959595959596</v>
-      </c>
-      <c r="B251" t="n">
-        <v>72.18820859194354</v>
-      </c>
-      <c r="C251" t="n">
-        <v>29.22228307168066</v>
-      </c>
-      <c r="D251" t="n">
-        <v>3443.835893918098</v>
-      </c>
-      <c r="E251" t="n">
-        <v>11784.96521120734</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>17.99858585858586</v>
-      </c>
-      <c r="B252" t="n">
-        <v>72.04011561397104</v>
-      </c>
-      <c r="C252" t="n">
-        <v>29.88341243762931</v>
-      </c>
-      <c r="D252" t="n">
-        <v>3522.69019154769</v>
-      </c>
-      <c r="E252" t="n">
-        <v>11788.11221409207</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>18.43757575757576</v>
-      </c>
-      <c r="B253" t="n">
-        <v>71.89202263599854</v>
-      </c>
-      <c r="C253" t="n">
-        <v>30.54454180357795</v>
-      </c>
-      <c r="D253" t="n">
-        <v>3601.191240410532</v>
-      </c>
-      <c r="E253" t="n">
-        <v>11789.96648097924</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>18.87656565656566</v>
-      </c>
-      <c r="B254" t="n">
-        <v>71.75790392403296</v>
-      </c>
-      <c r="C254" t="n">
-        <v>31.15733370572081</v>
-      </c>
-      <c r="D254" t="n">
-        <v>3680.055701313006</v>
-      </c>
-      <c r="E254" t="n">
-        <v>11811.20225520873</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>19.31555555555556</v>
-      </c>
-      <c r="B255" t="n">
-        <v>71.6547311827957</v>
-      </c>
-      <c r="C255" t="n">
-        <v>31.66308243727599</v>
-      </c>
-      <c r="D255" t="n">
-        <v>3760.224197727145</v>
-      </c>
-      <c r="E255" t="n">
-        <v>11875.73637271761</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>19.75454545454545</v>
-      </c>
-      <c r="B256" t="n">
-        <v>71.55155844155844</v>
-      </c>
-      <c r="C256" t="n">
-        <v>32.16883116883117</v>
-      </c>
-      <c r="D256" t="n">
-        <v>3840.146594399734</v>
-      </c>
-      <c r="E256" t="n">
-        <v>11937.4762926435</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>20.19353535353535</v>
-      </c>
-      <c r="B257" t="n">
-        <v>71.44838570032118</v>
-      </c>
-      <c r="C257" t="n">
-        <v>32.67457990038636</v>
-      </c>
-      <c r="D257" t="n">
-        <v>3919.822891330775</v>
-      </c>
-      <c r="E257" t="n">
-        <v>11996.5517637288</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>20.63252525252525</v>
-      </c>
-      <c r="B258" t="n">
-        <v>71.34521295908392</v>
-      </c>
-      <c r="C258" t="n">
-        <v>33.18032863194153</v>
-      </c>
-      <c r="D258" t="n">
-        <v>3999.253088520268</v>
-      </c>
-      <c r="E258" t="n">
-        <v>12053.08462397303</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>21.07151515151515</v>
-      </c>
-      <c r="B259" t="n">
-        <v>71.24204021784666</v>
-      </c>
-      <c r="C259" t="n">
-        <v>33.68607736349672</v>
-      </c>
-      <c r="D259" t="n">
-        <v>4078.437185968211</v>
-      </c>
-      <c r="E259" t="n">
-        <v>12107.18939447587</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>21.51050505050505</v>
-      </c>
-      <c r="B260" t="n">
-        <v>71.13886747660941</v>
-      </c>
-      <c r="C260" t="n">
-        <v>34.1918260950519</v>
-      </c>
-      <c r="D260" t="n">
-        <v>4157.375183674606</v>
-      </c>
-      <c r="E260" t="n">
-        <v>12158.97382057709</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>21.94949494949495</v>
-      </c>
-      <c r="B261" t="n">
-        <v>71.03569473537215</v>
-      </c>
-      <c r="C261" t="n">
-        <v>34.69757482660709</v>
-      </c>
-      <c r="D261" t="n">
-        <v>4236.067081639452</v>
-      </c>
-      <c r="E261" t="n">
-        <v>12208.53936567093</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>22.38848484848485</v>
-      </c>
-      <c r="B262" t="n">
-        <v>70.9325219941349</v>
-      </c>
-      <c r="C262" t="n">
-        <v>35.20332355816227</v>
-      </c>
-      <c r="D262" t="n">
-        <v>4314.51287986275</v>
-      </c>
-      <c r="E262" t="n">
-        <v>12255.98166245409</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>22.82747474747475</v>
-      </c>
-      <c r="B263" t="n">
-        <v>70.82934925289764</v>
-      </c>
-      <c r="C263" t="n">
-        <v>35.70907228971745</v>
-      </c>
-      <c r="D263" t="n">
-        <v>4392.7125783445</v>
-      </c>
-      <c r="E263" t="n">
-        <v>12301.39092582754</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>23.26646464646464</v>
-      </c>
-      <c r="B264" t="n">
-        <v>70.67904958677686</v>
-      </c>
-      <c r="C264" t="n">
-        <v>36.16299357208448</v>
-      </c>
-      <c r="D264" t="n">
-        <v>4467.687241144736</v>
-      </c>
-      <c r="E264" t="n">
-        <v>12354.30698578423</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>23.70545454545455</v>
-      </c>
-      <c r="B265" t="n">
-        <v>70.46492689129052</v>
-      </c>
-      <c r="C265" t="n">
-        <v>36.54672600127146</v>
-      </c>
-      <c r="D265" t="n">
-        <v>4538.192960488453</v>
-      </c>
-      <c r="E265" t="n">
-        <v>12417.50891811915</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>24.14444444444445</v>
-      </c>
-      <c r="B266" t="n">
-        <v>70.25080419580419</v>
-      </c>
-      <c r="C266" t="n">
-        <v>36.93045843045843</v>
-      </c>
-      <c r="D266" t="n">
-        <v>4608.18792922705</v>
-      </c>
-      <c r="E266" t="n">
-        <v>12478.01442244335</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>24.58343434343434</v>
-      </c>
-      <c r="B267" t="n">
-        <v>70.03668150031785</v>
-      </c>
-      <c r="C267" t="n">
-        <v>37.31419085964541</v>
-      </c>
-      <c r="D267" t="n">
-        <v>4677.672147360524</v>
-      </c>
-      <c r="E267" t="n">
-        <v>12535.90668749925</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>25.02242424242424</v>
-      </c>
-      <c r="B268" t="n">
-        <v>69.82255880483153</v>
-      </c>
-      <c r="C268" t="n">
-        <v>37.69792328883238</v>
-      </c>
-      <c r="D268" t="n">
-        <v>4746.645614888878</v>
-      </c>
-      <c r="E268" t="n">
-        <v>12591.26551486995</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>25.46141414141414</v>
-      </c>
-      <c r="B269" t="n">
-        <v>69.60843610934521</v>
-      </c>
-      <c r="C269" t="n">
-        <v>38.08165571801936</v>
-      </c>
-      <c r="D269" t="n">
-        <v>4815.108331812114</v>
-      </c>
-      <c r="E269" t="n">
-        <v>12644.1674896339</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>25.90040404040404</v>
-      </c>
-      <c r="B270" t="n">
-        <v>69.39431341385887</v>
-      </c>
-      <c r="C270" t="n">
-        <v>38.46538814720633</v>
-      </c>
-      <c r="D270" t="n">
-        <v>4883.060298130225</v>
-      </c>
-      <c r="E270" t="n">
-        <v>12694.68614080494</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>26.33939393939394</v>
-      </c>
-      <c r="B271" t="n">
-        <v>69.18019071837254</v>
-      </c>
-      <c r="C271" t="n">
-        <v>38.8491205763933</v>
-      </c>
-      <c r="D271" t="n">
-        <v>4950.501513843218</v>
-      </c>
-      <c r="E271" t="n">
-        <v>12742.89209226372</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>26.77838383838384</v>
-      </c>
-      <c r="B272" t="n">
-        <v>68.9660680228862</v>
-      </c>
-      <c r="C272" t="n">
-        <v>39.23285300558028</v>
-      </c>
-      <c r="D272" t="n">
-        <v>5017.43197895109</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12788.85320483177</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>27.21737373737374</v>
-      </c>
-      <c r="B273" t="n">
-        <v>68.75194532739988</v>
-      </c>
-      <c r="C273" t="n">
-        <v>39.61658543476725</v>
-      </c>
-      <c r="D273" t="n">
-        <v>5083.851693453841</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12832.63471008859</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>27.65636363636364</v>
-      </c>
-      <c r="B274" t="n">
-        <v>68.53782263191354</v>
-      </c>
-      <c r="C274" t="n">
-        <v>40.00031786395423</v>
-      </c>
-      <c r="D274" t="n">
-        <v>5149.760657351469</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12874.2993364863</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>28.09535353535354</v>
-      </c>
-      <c r="B275" t="n">
-        <v>68.32369993642722</v>
-      </c>
-      <c r="C275" t="n">
-        <v>40.3840502931412</v>
-      </c>
-      <c r="D275" t="n">
-        <v>5215.158870643981</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12913.90742827427</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>28.53434343434343</v>
-      </c>
-      <c r="B276" t="n">
-        <v>68.10957724094088</v>
-      </c>
-      <c r="C276" t="n">
-        <v>40.76778272232818</v>
-      </c>
-      <c r="D276" t="n">
-        <v>5280.046333331368</v>
-      </c>
-      <c r="E276" t="n">
-        <v>12951.51705770726</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>28.97333333333333</v>
-      </c>
-      <c r="B277" t="n">
-        <v>67.86313725490197</v>
-      </c>
-      <c r="C277" t="n">
-        <v>41.09803921568627</v>
-      </c>
-      <c r="D277" t="n">
-        <v>5341.879174493987</v>
-      </c>
-      <c r="E277" t="n">
-        <v>12997.89302954167</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>29.41232323232323</v>
-      </c>
-      <c r="B278" t="n">
-        <v>67.56716668951964</v>
-      </c>
-      <c r="C278" t="n">
-        <v>41.34633666986608</v>
-      </c>
-      <c r="D278" t="n">
-        <v>5399.166281829866</v>
-      </c>
-      <c r="E278" t="n">
-        <v>13058.39094026647</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>29.85131313131313</v>
-      </c>
-      <c r="B279" t="n">
-        <v>67.2711961241373</v>
-      </c>
-      <c r="C279" t="n">
-        <v>41.59463412404589</v>
-      </c>
-      <c r="D279" t="n">
-        <v>5455.747405407118</v>
-      </c>
-      <c r="E279" t="n">
-        <v>13116.46927614912</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>30.29030303030303</v>
-      </c>
-      <c r="B280" t="n">
-        <v>66.97522555875497</v>
-      </c>
-      <c r="C280" t="n">
-        <v>41.84293157822569</v>
-      </c>
-      <c r="D280" t="n">
-        <v>5511.622545225739</v>
-      </c>
-      <c r="E280" t="n">
-        <v>13172.17111072086</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>30.72929292929293</v>
-      </c>
-      <c r="B281" t="n">
-        <v>66.67925499337264</v>
-      </c>
-      <c r="C281" t="n">
-        <v>42.0912290324055</v>
-      </c>
-      <c r="D281" t="n">
-        <v>5566.791701285735</v>
-      </c>
-      <c r="E281" t="n">
-        <v>13225.53850114458</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>31.16828282828283</v>
-      </c>
-      <c r="B282" t="n">
-        <v>66.38328442799032</v>
-      </c>
-      <c r="C282" t="n">
-        <v>42.33952648658531</v>
-      </c>
-      <c r="D282" t="n">
-        <v>5621.254873587104</v>
-      </c>
-      <c r="E282" t="n">
-        <v>13276.61251801699</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>31.60727272727273</v>
-      </c>
-      <c r="B283" t="n">
-        <v>66.08731386260799</v>
-      </c>
-      <c r="C283" t="n">
-        <v>42.58782394076512</v>
-      </c>
-      <c r="D283" t="n">
-        <v>5675.012062129844</v>
-      </c>
-      <c r="E283" t="n">
-        <v>13325.43327412818</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>32.04626262626262</v>
-      </c>
-      <c r="B284" t="n">
-        <v>65.79134329722565</v>
-      </c>
-      <c r="C284" t="n">
-        <v>42.83612139494493</v>
-      </c>
-      <c r="D284" t="n">
-        <v>5728.063266913956</v>
-      </c>
-      <c r="E284" t="n">
-        <v>13372.03995222108</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>32.48525252525253</v>
-      </c>
-      <c r="B285" t="n">
-        <v>65.49537273184332</v>
-      </c>
-      <c r="C285" t="n">
-        <v>43.08441884912473</v>
-      </c>
-      <c r="D285" t="n">
-        <v>5780.40848793944</v>
-      </c>
-      <c r="E285" t="n">
-        <v>13416.4708317909</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>32.92424242424242</v>
-      </c>
-      <c r="B286" t="n">
-        <v>65.19940216646098</v>
-      </c>
-      <c r="C286" t="n">
-        <v>43.33271630330454</v>
-      </c>
-      <c r="D286" t="n">
-        <v>5832.047725206296</v>
-      </c>
-      <c r="E286" t="n">
-        <v>13458.76331496336</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>33.36323232323232</v>
-      </c>
-      <c r="B287" t="n">
-        <v>64.88809974747474</v>
-      </c>
-      <c r="C287" t="n">
-        <v>43.50419625946969</v>
-      </c>
-      <c r="D287" t="n">
-        <v>5881.591267864188</v>
-      </c>
-      <c r="E287" t="n">
-        <v>13519.5952886589</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>33.80222222222222</v>
-      </c>
-      <c r="B288" t="n">
-        <v>64.54513888888889</v>
-      </c>
-      <c r="C288" t="n">
-        <v>43.51705729166667</v>
-      </c>
-      <c r="D288" t="n">
-        <v>5927.484911413387</v>
-      </c>
-      <c r="E288" t="n">
-        <v>13621.06098232997</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>34.24121212121212</v>
-      </c>
-      <c r="B289" t="n">
-        <v>64.20217803030303</v>
-      </c>
-      <c r="C289" t="n">
-        <v>43.52991832386363</v>
-      </c>
-      <c r="D289" t="n">
-        <v>5972.560484436912</v>
-      </c>
-      <c r="E289" t="n">
-        <v>13720.58739003579</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>34.68020202020202</v>
-      </c>
-      <c r="B290" t="n">
-        <v>63.85921717171718</v>
-      </c>
-      <c r="C290" t="n">
-        <v>43.54277935606061</v>
-      </c>
-      <c r="D290" t="n">
-        <v>6016.817986934761</v>
-      </c>
-      <c r="E290" t="n">
-        <v>13818.17623017052</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>35.11919191919192</v>
-      </c>
-      <c r="B291" t="n">
-        <v>63.51625631313131</v>
-      </c>
-      <c r="C291" t="n">
-        <v>43.55564038825757</v>
-      </c>
-      <c r="D291" t="n">
-        <v>6060.257418906936</v>
-      </c>
-      <c r="E291" t="n">
-        <v>13913.8292190987</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>35.55818181818182</v>
-      </c>
-      <c r="B292" t="n">
-        <v>63.17329545454545</v>
-      </c>
-      <c r="C292" t="n">
-        <v>43.56850142045455</v>
-      </c>
-      <c r="D292" t="n">
-        <v>6102.878780353434</v>
-      </c>
-      <c r="E292" t="n">
-        <v>14007.54807115825</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>35.99717171717172</v>
-      </c>
-      <c r="B293" t="n">
-        <v>62.8303345959596</v>
-      </c>
-      <c r="C293" t="n">
-        <v>43.58136245265151</v>
-      </c>
-      <c r="D293" t="n">
-        <v>6144.68207127426</v>
-      </c>
-      <c r="E293" t="n">
-        <v>14099.33449866346</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>36.43616161616161</v>
-      </c>
-      <c r="B294" t="n">
-        <v>62.48737373737374</v>
-      </c>
-      <c r="C294" t="n">
-        <v>43.59422348484848</v>
-      </c>
-      <c r="D294" t="n">
-        <v>6185.667291669408</v>
-      </c>
-      <c r="E294" t="n">
-        <v>14189.19021190797</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>36.87515151515152</v>
-      </c>
-      <c r="B295" t="n">
-        <v>62.14441287878788</v>
-      </c>
-      <c r="C295" t="n">
-        <v>43.60708451704545</v>
-      </c>
-      <c r="D295" t="n">
-        <v>6225.834441538882</v>
-      </c>
-      <c r="E295" t="n">
-        <v>14277.11691916776</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>37.31414141414141</v>
-      </c>
-      <c r="B296" t="n">
-        <v>61.80145202020202</v>
-      </c>
-      <c r="C296" t="n">
-        <v>43.61994554924242</v>
-      </c>
-      <c r="D296" t="n">
-        <v>6265.183520882682</v>
-      </c>
-      <c r="E296" t="n">
-        <v>14363.11632670411</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>37.75313131313131</v>
-      </c>
-      <c r="B297" t="n">
-        <v>61.45849116161616</v>
-      </c>
-      <c r="C297" t="n">
-        <v>43.63280658143939</v>
-      </c>
-      <c r="D297" t="n">
-        <v>6303.714529700806</v>
-      </c>
-      <c r="E297" t="n">
-        <v>14447.19013876658</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>38.19212121212122</v>
-      </c>
-      <c r="B298" t="n">
-        <v>61.1155303030303</v>
-      </c>
-      <c r="C298" t="n">
-        <v>43.64566761363636</v>
-      </c>
-      <c r="D298" t="n">
-        <v>6341.427467993255</v>
-      </c>
-      <c r="E298" t="n">
-        <v>14529.34005759596</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>38.63111111111111</v>
-      </c>
-      <c r="B299" t="n">
-        <v>60.77256944444444</v>
-      </c>
-      <c r="C299" t="n">
-        <v>43.65852864583333</v>
-      </c>
-      <c r="D299" t="n">
-        <v>6378.322335760031</v>
-      </c>
-      <c r="E299" t="n">
-        <v>14609.56778342727</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>39.07010101010101</v>
-      </c>
-      <c r="B300" t="n">
-        <v>60.42960858585858</v>
-      </c>
-      <c r="C300" t="n">
-        <v>43.6713896780303</v>
-      </c>
-      <c r="D300" t="n">
-        <v>6414.39913300113</v>
-      </c>
-      <c r="E300" t="n">
-        <v>14687.87501449264</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>39.50909090909091</v>
-      </c>
-      <c r="B301" t="n">
-        <v>60.08664772727273</v>
-      </c>
-      <c r="C301" t="n">
-        <v>43.68425071022727</v>
-      </c>
-      <c r="D301" t="n">
-        <v>6449.657859716554</v>
-      </c>
-      <c r="E301" t="n">
-        <v>14764.26344702434</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>39.94808080808081</v>
-      </c>
-      <c r="B302" t="n">
-        <v>59.74368686868686</v>
-      </c>
-      <c r="C302" t="n">
-        <v>43.69711174242424</v>
-      </c>
-      <c r="D302" t="n">
-        <v>6484.098515906305</v>
-      </c>
-      <c r="E302" t="n">
-        <v>14838.73477525766</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>40.38707070707071</v>
-      </c>
-      <c r="B303" t="n">
-        <v>59.40072601010101</v>
-      </c>
-      <c r="C303" t="n">
-        <v>43.70997277462121</v>
-      </c>
-      <c r="D303" t="n">
-        <v>6517.721101570378</v>
-      </c>
-      <c r="E303" t="n">
-        <v>14911.29069143389</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>40.82606060606061</v>
-      </c>
-      <c r="B304" t="n">
-        <v>59.05776515151515</v>
-      </c>
-      <c r="C304" t="n">
-        <v>43.72283380681818</v>
-      </c>
-      <c r="D304" t="n">
-        <v>6550.525616708777</v>
-      </c>
-      <c r="E304" t="n">
-        <v>14981.93288580321</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>41.2650505050505</v>
-      </c>
-      <c r="B305" t="n">
-        <v>58.71480429292929</v>
-      </c>
-      <c r="C305" t="n">
-        <v>43.73569483901515</v>
-      </c>
-      <c r="D305" t="n">
-        <v>6582.512061321503</v>
-      </c>
-      <c r="E305" t="n">
-        <v>15050.66304662768</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>41.70404040404041</v>
-      </c>
-      <c r="B306" t="n">
-        <v>58.37184343434343</v>
-      </c>
-      <c r="C306" t="n">
-        <v>43.74855587121212</v>
-      </c>
-      <c r="D306" t="n">
-        <v>6613.680435408552</v>
-      </c>
-      <c r="E306" t="n">
-        <v>15117.48286018409</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>42.1430303030303</v>
-      </c>
-      <c r="B307" t="n">
-        <v>58.02888257575758</v>
-      </c>
-      <c r="C307" t="n">
-        <v>43.76141690340908</v>
-      </c>
-      <c r="D307" t="n">
-        <v>6644.030738969926</v>
-      </c>
-      <c r="E307" t="n">
-        <v>15182.39401076693</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>42.5820202020202</v>
-      </c>
-      <c r="B308" t="n">
-        <v>57.68592171717172</v>
-      </c>
-      <c r="C308" t="n">
-        <v>43.77427793560606</v>
-      </c>
-      <c r="D308" t="n">
-        <v>6673.562972005627</v>
-      </c>
-      <c r="E308" t="n">
-        <v>15245.39818069127</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>43.0210101010101</v>
-      </c>
-      <c r="B309" t="n">
-        <v>57.34296085858586</v>
-      </c>
-      <c r="C309" t="n">
-        <v>43.78713896780302</v>
-      </c>
-      <c r="D309" t="n">
-        <v>6702.27713451565</v>
-      </c>
-      <c r="E309" t="n">
-        <v>15306.4970502957</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>43.46</v>
-      </c>
-      <c r="B310" t="n">
-        <v>57</v>
-      </c>
-      <c r="C310" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="D310" t="n">
-        <v>6730.173226499999</v>
-      </c>
-      <c r="E310" t="n">
-        <v>15365.6922979452</v>
+        <v>62</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>31.2%:3.6%</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="A209:C209"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6644,7 +5421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6702,180 +5479,136 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rotor 203</t>
+          <t>Rotor 250</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.26699295202165</v>
+        <v>15.85232458421988</v>
       </c>
       <c r="C3" t="n">
-        <v>69.08527610624462</v>
+        <v>69.07383770789006</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0192184475903</v>
+        <v>20.42616229210994</v>
       </c>
       <c r="E3" t="n">
-        <v>2490.116471095818</v>
+        <v>2974.8714717515</v>
       </c>
       <c r="F3" t="n">
-        <v>6381.769215701961</v>
+        <v>14564.02543565714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rotor 203_3300RPM</t>
+          <t>Rotor 250_3200RPM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.698421773196554</v>
+        <v>8.977186773433107</v>
       </c>
       <c r="C4" t="n">
-        <v>63.9043450171817</v>
+        <v>59.51348847197381</v>
       </c>
       <c r="D4" t="n">
-        <v>30.57827491409152</v>
+        <v>15.617455316768</v>
       </c>
       <c r="E4" t="n">
-        <v>1510.193215836279</v>
+        <v>1451.500980967564</v>
       </c>
       <c r="F4" t="n">
-        <v>4938.778332260761</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rotor 203 - Paralelo</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15.74785591569847</v>
-      </c>
-      <c r="C5" t="n">
-        <v>72.79939800434268</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.49375890918445</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3114.661721702865</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11756.20919771834</v>
-      </c>
-    </row>
+        <v>9294.094021893123</v>
+      </c>
+    </row>
+    <row r="5"/>
     <row r="6"/>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Pontos de Interseção - Curva do Sistema 2</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Pontos de Interseção - Curva do Sistema 2</t>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Rotor</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Vazão (m³/h)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Altura (m)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Eficiência (%)</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Potência Hidráulica (W)</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Potência Mecânica (W)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Rotor</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Vazão (m³/h)</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Altura (m)</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Eficiência (%)</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Potência Hidráulica (W)</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Potência Mecânica (W)</t>
-        </is>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rotor 250</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13.46414946434981</v>
+      </c>
+      <c r="C9" t="n">
+        <v>70.15310015304291</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.00242450261054</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2566.182014259687</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13504.49788082119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rotor 203</t>
+          <t>Rotor 250_3200RPM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.21952733376174</v>
+        <v>4.270312068057108</v>
       </c>
       <c r="C10" t="n">
-        <v>71.39068300440692</v>
+        <v>61.02190934841519</v>
       </c>
       <c r="D10" t="n">
-        <v>32.95743625290724</v>
+        <v>8.674071388241</v>
       </c>
       <c r="E10" t="n">
-        <v>1982.138565402944</v>
+        <v>707.9573111234711</v>
       </c>
       <c r="F10" t="n">
-        <v>6014.237728300531</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Rotor 203_3300RPM</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.898823238296862</v>
-      </c>
-      <c r="C11" t="n">
-        <v>66.18680564087356</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.79083964177695</v>
-      </c>
-      <c r="E11" t="n">
-        <v>341.4425367484507</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5027.9870348861</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Rotor 203 - Paralelo</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.95695491473462</v>
-      </c>
-      <c r="C12" t="n">
-        <v>73.37937511207552</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.1608837732231</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2383.725627722605</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11823.51753293959</v>
+        <v>8161.764867225014</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6916,7 +5649,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H = 60.00 + 0.0516 × Q²</t>
+          <t>H = 55.00 + 0.0560 × Q²</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6926,7 +5659,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>H = 66.00 + 0.0516 × Q²</t>
+          <t>H = 60.00 + 0.0560 × Q²</t>
         </is>
       </c>
     </row>
@@ -6958,1399 +5691,1399 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4828888888888889</v>
+        <v>0.3085555555555556</v>
       </c>
       <c r="B6" t="n">
-        <v>60.01203217463704</v>
+        <v>55.0053315657284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4828888888888889</v>
+        <v>0.3085555555555556</v>
       </c>
       <c r="D6" t="n">
-        <v>66.01203217463704</v>
+        <v>60.0053315657284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9657777777777778</v>
+        <v>0.6171111111111112</v>
       </c>
       <c r="B7" t="n">
-        <v>60.04812869854815</v>
+        <v>55.02132626291358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9657777777777778</v>
+        <v>0.6171111111111112</v>
       </c>
       <c r="D7" t="n">
-        <v>66.04812869854815</v>
+        <v>60.02132626291358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.448666666666667</v>
+        <v>0.9256666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>60.10828957173333</v>
+        <v>55.04798409155556</v>
       </c>
       <c r="C8" t="n">
-        <v>1.448666666666667</v>
+        <v>0.9256666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>66.10828957173334</v>
+        <v>60.04798409155556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.931555555555556</v>
+        <v>1.234222222222222</v>
       </c>
       <c r="B9" t="n">
-        <v>60.19251479419259</v>
+        <v>55.08530505165432</v>
       </c>
       <c r="C9" t="n">
-        <v>1.931555555555556</v>
+        <v>1.234222222222222</v>
       </c>
       <c r="D9" t="n">
-        <v>66.19251479419259</v>
+        <v>60.08530505165432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.414444444444444</v>
+        <v>1.542777777777778</v>
       </c>
       <c r="B10" t="n">
-        <v>60.30080436592593</v>
+        <v>55.13328914320988</v>
       </c>
       <c r="C10" t="n">
-        <v>2.414444444444444</v>
+        <v>1.542777777777778</v>
       </c>
       <c r="D10" t="n">
-        <v>66.30080436592593</v>
+        <v>60.13328914320988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.897333333333334</v>
+        <v>1.851333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>60.43315828693333</v>
+        <v>55.19193636622222</v>
       </c>
       <c r="C11" t="n">
-        <v>2.897333333333334</v>
+        <v>1.851333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>66.43315828693333</v>
+        <v>60.19193636622222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.380222222222223</v>
+        <v>2.159888888888889</v>
       </c>
       <c r="B12" t="n">
-        <v>60.58957655721481</v>
+        <v>55.26124672069136</v>
       </c>
       <c r="C12" t="n">
-        <v>3.380222222222223</v>
+        <v>2.159888888888889</v>
       </c>
       <c r="D12" t="n">
-        <v>66.58957655721481</v>
+        <v>60.26124672069136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.863111111111111</v>
+        <v>2.468444444444445</v>
       </c>
       <c r="B13" t="n">
-        <v>60.77005917677037</v>
+        <v>55.34122020661729</v>
       </c>
       <c r="C13" t="n">
-        <v>3.863111111111111</v>
+        <v>2.468444444444445</v>
       </c>
       <c r="D13" t="n">
-        <v>66.77005917677037</v>
+        <v>60.34122020661729</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.346</v>
+        <v>2.777</v>
       </c>
       <c r="B14" t="n">
-        <v>60.9746061456</v>
+        <v>55.431856824</v>
       </c>
       <c r="C14" t="n">
-        <v>4.346</v>
+        <v>2.777</v>
       </c>
       <c r="D14" t="n">
-        <v>66.97460614560001</v>
+        <v>60.431856824</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.828888888888889</v>
+        <v>3.085555555555556</v>
       </c>
       <c r="B15" t="n">
-        <v>61.2032174637037</v>
+        <v>55.53315657283951</v>
       </c>
       <c r="C15" t="n">
-        <v>4.828888888888889</v>
+        <v>3.085555555555556</v>
       </c>
       <c r="D15" t="n">
-        <v>67.20321746370371</v>
+        <v>60.53315657283951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.311777777777778</v>
+        <v>3.394111111111112</v>
       </c>
       <c r="B16" t="n">
-        <v>61.45589313108148</v>
+        <v>55.64511945313581</v>
       </c>
       <c r="C16" t="n">
-        <v>5.311777777777778</v>
+        <v>3.394111111111112</v>
       </c>
       <c r="D16" t="n">
-        <v>67.45589313108148</v>
+        <v>60.64511945313581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.794666666666667</v>
+        <v>3.702666666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>61.73263314773333</v>
+        <v>55.76774546488889</v>
       </c>
       <c r="C17" t="n">
-        <v>5.794666666666667</v>
+        <v>3.702666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>67.73263314773334</v>
+        <v>60.76774546488889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.277555555555556</v>
+        <v>4.011222222222223</v>
       </c>
       <c r="B18" t="n">
-        <v>62.03343751365926</v>
+        <v>55.90103460809877</v>
       </c>
       <c r="C18" t="n">
-        <v>6.277555555555556</v>
+        <v>4.011222222222223</v>
       </c>
       <c r="D18" t="n">
-        <v>68.03343751365927</v>
+        <v>60.90103460809877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.760444444444445</v>
+        <v>4.319777777777778</v>
       </c>
       <c r="B19" t="n">
-        <v>62.35830622885926</v>
+        <v>56.04498688276544</v>
       </c>
       <c r="C19" t="n">
-        <v>6.760444444444445</v>
+        <v>4.319777777777778</v>
       </c>
       <c r="D19" t="n">
-        <v>68.35830622885926</v>
+        <v>61.04498688276544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.243333333333334</v>
+        <v>4.628333333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>62.70723929333333</v>
+        <v>56.19960228888889</v>
       </c>
       <c r="C20" t="n">
-        <v>7.243333333333334</v>
+        <v>4.628333333333334</v>
       </c>
       <c r="D20" t="n">
-        <v>68.70723929333333</v>
+        <v>61.19960228888889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.726222222222223</v>
+        <v>4.936888888888889</v>
       </c>
       <c r="B21" t="n">
-        <v>63.08023670708148</v>
+        <v>56.36488082646913</v>
       </c>
       <c r="C21" t="n">
-        <v>7.726222222222223</v>
+        <v>4.936888888888889</v>
       </c>
       <c r="D21" t="n">
-        <v>69.08023670708148</v>
+        <v>61.36488082646913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.209111111111111</v>
+        <v>5.245444444444445</v>
       </c>
       <c r="B22" t="n">
-        <v>63.4772984701037</v>
+        <v>56.54082249550617</v>
       </c>
       <c r="C22" t="n">
-        <v>8.209111111111111</v>
+        <v>5.245444444444445</v>
       </c>
       <c r="D22" t="n">
-        <v>69.4772984701037</v>
+        <v>61.54082249550617</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.692</v>
+        <v>5.554</v>
       </c>
       <c r="B23" t="n">
-        <v>63.8984245824</v>
+        <v>56.727427296</v>
       </c>
       <c r="C23" t="n">
-        <v>8.692</v>
+        <v>5.554</v>
       </c>
       <c r="D23" t="n">
-        <v>69.8984245824</v>
+        <v>61.727427296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.174888888888889</v>
+        <v>5.862555555555556</v>
       </c>
       <c r="B24" t="n">
-        <v>64.34361504397037</v>
+        <v>56.92469522795061</v>
       </c>
       <c r="C24" t="n">
-        <v>9.174888888888889</v>
+        <v>5.862555555555556</v>
       </c>
       <c r="D24" t="n">
-        <v>70.34361504397037</v>
+        <v>61.92469522795061</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.657777777777778</v>
+        <v>6.171111111111111</v>
       </c>
       <c r="B25" t="n">
-        <v>64.81286985481482</v>
+        <v>57.13262629135802</v>
       </c>
       <c r="C25" t="n">
-        <v>9.657777777777778</v>
+        <v>6.171111111111111</v>
       </c>
       <c r="D25" t="n">
-        <v>70.81286985481482</v>
+        <v>62.13262629135802</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.14066666666667</v>
+        <v>6.479666666666668</v>
       </c>
       <c r="B26" t="n">
-        <v>65.30618901493334</v>
+        <v>57.35122048622222</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14066666666667</v>
+        <v>6.479666666666668</v>
       </c>
       <c r="D26" t="n">
-        <v>71.30618901493334</v>
+        <v>62.35122048622222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.62355555555556</v>
+        <v>6.788222222222223</v>
       </c>
       <c r="B27" t="n">
-        <v>65.82357252432593</v>
+        <v>57.58047781254321</v>
       </c>
       <c r="C27" t="n">
-        <v>10.62355555555556</v>
+        <v>6.788222222222223</v>
       </c>
       <c r="D27" t="n">
-        <v>71.82357252432593</v>
+        <v>62.58047781254321</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.10644444444445</v>
+        <v>7.096777777777779</v>
       </c>
       <c r="B28" t="n">
-        <v>66.3650203829926</v>
+        <v>57.82039827032099</v>
       </c>
       <c r="C28" t="n">
-        <v>11.10644444444445</v>
+        <v>7.096777777777779</v>
       </c>
       <c r="D28" t="n">
-        <v>72.3650203829926</v>
+        <v>62.82039827032099</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.58933333333333</v>
+        <v>7.405333333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>66.93053259093334</v>
+        <v>58.07098185955556</v>
       </c>
       <c r="C29" t="n">
-        <v>11.58933333333333</v>
+        <v>7.405333333333334</v>
       </c>
       <c r="D29" t="n">
-        <v>72.93053259093334</v>
+        <v>63.07098185955556</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12.07222222222222</v>
+        <v>7.713888888888889</v>
       </c>
       <c r="B30" t="n">
-        <v>67.52010914814815</v>
+        <v>58.33222858024691</v>
       </c>
       <c r="C30" t="n">
-        <v>12.07222222222222</v>
+        <v>7.713888888888889</v>
       </c>
       <c r="D30" t="n">
-        <v>73.52010914814815</v>
+        <v>63.33222858024691</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12.55511111111111</v>
+        <v>8.022444444444446</v>
       </c>
       <c r="B31" t="n">
-        <v>68.13375005463703</v>
+        <v>58.60413843239506</v>
       </c>
       <c r="C31" t="n">
-        <v>12.55511111111111</v>
+        <v>8.022444444444446</v>
       </c>
       <c r="D31" t="n">
-        <v>74.13375005463703</v>
+        <v>63.60413843239506</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13.038</v>
+        <v>8.331000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>68.7714553104</v>
+        <v>58.886711416</v>
       </c>
       <c r="C32" t="n">
-        <v>13.038</v>
+        <v>8.331000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>74.7714553104</v>
+        <v>63.886711416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13.52088888888889</v>
+        <v>8.639555555555557</v>
       </c>
       <c r="B33" t="n">
-        <v>69.43322491543704</v>
+        <v>59.17994753106173</v>
       </c>
       <c r="C33" t="n">
-        <v>13.52088888888889</v>
+        <v>8.639555555555557</v>
       </c>
       <c r="D33" t="n">
-        <v>75.43322491543704</v>
+        <v>64.17994753106173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14.00377777777778</v>
+        <v>8.948111111111112</v>
       </c>
       <c r="B34" t="n">
-        <v>70.11905886974814</v>
+        <v>59.48384677758025</v>
       </c>
       <c r="C34" t="n">
-        <v>14.00377777777778</v>
+        <v>8.948111111111112</v>
       </c>
       <c r="D34" t="n">
-        <v>76.11905886974814</v>
+        <v>64.48384677758025</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14.48666666666667</v>
+        <v>9.256666666666668</v>
       </c>
       <c r="B35" t="n">
-        <v>70.82895717333334</v>
+        <v>59.79840915555555</v>
       </c>
       <c r="C35" t="n">
-        <v>14.48666666666667</v>
+        <v>9.256666666666668</v>
       </c>
       <c r="D35" t="n">
-        <v>76.82895717333334</v>
+        <v>64.79840915555556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.96955555555556</v>
+        <v>9.565222222222223</v>
       </c>
       <c r="B36" t="n">
-        <v>71.5629198261926</v>
+        <v>60.12363466498766</v>
       </c>
       <c r="C36" t="n">
-        <v>14.96955555555556</v>
+        <v>9.565222222222223</v>
       </c>
       <c r="D36" t="n">
-        <v>77.5629198261926</v>
+        <v>65.12363466498766</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15.45244444444445</v>
+        <v>9.873777777777779</v>
       </c>
       <c r="B37" t="n">
-        <v>72.32094682832593</v>
+        <v>60.45952330587654</v>
       </c>
       <c r="C37" t="n">
-        <v>15.45244444444445</v>
+        <v>9.873777777777779</v>
       </c>
       <c r="D37" t="n">
-        <v>78.32094682832593</v>
+        <v>65.45952330587654</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.93533333333333</v>
+        <v>10.18233333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>73.10303817973333</v>
+        <v>60.80607507822222</v>
       </c>
       <c r="C38" t="n">
-        <v>15.93533333333333</v>
+        <v>10.18233333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>79.10303817973333</v>
+        <v>65.80607507822222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16.41822222222222</v>
+        <v>10.49088888888889</v>
       </c>
       <c r="B39" t="n">
-        <v>73.90919388041482</v>
+        <v>61.16328998202469</v>
       </c>
       <c r="C39" t="n">
-        <v>16.41822222222222</v>
+        <v>10.49088888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>79.90919388041482</v>
+        <v>66.16328998202469</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16.90111111111111</v>
+        <v>10.79944444444445</v>
       </c>
       <c r="B40" t="n">
-        <v>74.73941393037038</v>
+        <v>61.53116801728395</v>
       </c>
       <c r="C40" t="n">
-        <v>16.90111111111111</v>
+        <v>10.79944444444445</v>
       </c>
       <c r="D40" t="n">
-        <v>80.73941393037038</v>
+        <v>66.53116801728395</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17.384</v>
+        <v>11.108</v>
       </c>
       <c r="B41" t="n">
-        <v>75.5936983296</v>
+        <v>61.909709184</v>
       </c>
       <c r="C41" t="n">
-        <v>17.384</v>
+        <v>11.108</v>
       </c>
       <c r="D41" t="n">
-        <v>81.5936983296</v>
+        <v>66.90970918400001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17.86688888888889</v>
+        <v>11.41655555555556</v>
       </c>
       <c r="B42" t="n">
-        <v>76.47204707810371</v>
+        <v>62.29891348217284</v>
       </c>
       <c r="C42" t="n">
-        <v>17.86688888888889</v>
+        <v>11.41655555555556</v>
       </c>
       <c r="D42" t="n">
-        <v>82.47204707810371</v>
+        <v>67.29891348217284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18.34977777777778</v>
+        <v>11.72511111111111</v>
       </c>
       <c r="B43" t="n">
-        <v>77.37446017588148</v>
+        <v>62.69878091180247</v>
       </c>
       <c r="C43" t="n">
-        <v>18.34977777777778</v>
+        <v>11.72511111111111</v>
       </c>
       <c r="D43" t="n">
-        <v>83.37446017588148</v>
+        <v>67.69878091180247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18.83266666666667</v>
+        <v>12.03366666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>78.30093762293333</v>
+        <v>63.10931147288889</v>
       </c>
       <c r="C44" t="n">
-        <v>18.83266666666667</v>
+        <v>12.03366666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>84.30093762293333</v>
+        <v>68.10931147288889</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19.31555555555556</v>
+        <v>12.34222222222222</v>
       </c>
       <c r="B45" t="n">
-        <v>79.25147941925925</v>
+        <v>63.5305051654321</v>
       </c>
       <c r="C45" t="n">
-        <v>19.31555555555556</v>
+        <v>12.34222222222222</v>
       </c>
       <c r="D45" t="n">
-        <v>85.25147941925925</v>
+        <v>68.5305051654321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19.79844444444445</v>
+        <v>12.65077777777778</v>
       </c>
       <c r="B46" t="n">
-        <v>80.22608556485926</v>
+        <v>63.9623619894321</v>
       </c>
       <c r="C46" t="n">
-        <v>19.79844444444445</v>
+        <v>12.65077777777778</v>
       </c>
       <c r="D46" t="n">
-        <v>86.22608556485926</v>
+        <v>68.9623619894321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20.28133333333334</v>
+        <v>12.95933333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>81.22475605973334</v>
+        <v>64.4048819448889</v>
       </c>
       <c r="C47" t="n">
-        <v>20.28133333333334</v>
+        <v>12.95933333333334</v>
       </c>
       <c r="D47" t="n">
-        <v>87.22475605973334</v>
+        <v>69.4048819448889</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20.76422222222222</v>
+        <v>13.26788888888889</v>
       </c>
       <c r="B48" t="n">
-        <v>82.24749090388148</v>
+        <v>64.85806503180247</v>
       </c>
       <c r="C48" t="n">
-        <v>20.76422222222222</v>
+        <v>13.26788888888889</v>
       </c>
       <c r="D48" t="n">
-        <v>88.24749090388148</v>
+        <v>69.85806503180247</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21.24711111111111</v>
+        <v>13.57644444444445</v>
       </c>
       <c r="B49" t="n">
-        <v>83.2942900973037</v>
+        <v>65.32191125017285</v>
       </c>
       <c r="C49" t="n">
-        <v>21.24711111111111</v>
+        <v>13.57644444444445</v>
       </c>
       <c r="D49" t="n">
-        <v>89.2942900973037</v>
+        <v>70.32191125017285</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21.73</v>
+        <v>13.885</v>
       </c>
       <c r="B50" t="n">
-        <v>84.36515364</v>
+        <v>65.7964206</v>
       </c>
       <c r="C50" t="n">
-        <v>21.73</v>
+        <v>13.885</v>
       </c>
       <c r="D50" t="n">
-        <v>90.36515364</v>
+        <v>70.7964206</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22.21288888888889</v>
+        <v>14.19355555555556</v>
       </c>
       <c r="B51" t="n">
-        <v>85.46008153197037</v>
+        <v>66.28159308128396</v>
       </c>
       <c r="C51" t="n">
-        <v>22.21288888888889</v>
+        <v>14.19355555555556</v>
       </c>
       <c r="D51" t="n">
-        <v>91.46008153197037</v>
+        <v>71.28159308128396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22.69577777777778</v>
+        <v>14.50211111111111</v>
       </c>
       <c r="B52" t="n">
-        <v>86.57907377321482</v>
+        <v>66.77742869402469</v>
       </c>
       <c r="C52" t="n">
-        <v>22.69577777777778</v>
+        <v>14.50211111111111</v>
       </c>
       <c r="D52" t="n">
-        <v>92.57907377321482</v>
+        <v>71.77742869402469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>23.17866666666667</v>
+        <v>14.81066666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>87.72213036373333</v>
+        <v>67.28392743822222</v>
       </c>
       <c r="C53" t="n">
-        <v>23.17866666666667</v>
+        <v>14.81066666666667</v>
       </c>
       <c r="D53" t="n">
-        <v>93.72213036373333</v>
+        <v>72.28392743822222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>23.66155555555556</v>
+        <v>15.11922222222222</v>
       </c>
       <c r="B54" t="n">
-        <v>88.88925130352592</v>
+        <v>67.80108931387655</v>
       </c>
       <c r="C54" t="n">
-        <v>23.66155555555556</v>
+        <v>15.11922222222222</v>
       </c>
       <c r="D54" t="n">
-        <v>94.88925130352592</v>
+        <v>72.80108931387655</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24.14444444444445</v>
+        <v>15.42777777777778</v>
       </c>
       <c r="B55" t="n">
-        <v>90.08043659259259</v>
+        <v>68.32891432098765</v>
       </c>
       <c r="C55" t="n">
-        <v>24.14444444444445</v>
+        <v>15.42777777777778</v>
       </c>
       <c r="D55" t="n">
-        <v>96.08043659259259</v>
+        <v>73.32891432098765</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>24.62733333333334</v>
+        <v>15.73633333333333</v>
       </c>
       <c r="B56" t="n">
-        <v>91.29568623093334</v>
+        <v>68.86740245955556</v>
       </c>
       <c r="C56" t="n">
-        <v>24.62733333333334</v>
+        <v>15.73633333333333</v>
       </c>
       <c r="D56" t="n">
-        <v>97.29568623093334</v>
+        <v>73.86740245955556</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>25.11022222222222</v>
+        <v>16.04488888888889</v>
       </c>
       <c r="B57" t="n">
-        <v>92.53500021854815</v>
+        <v>69.41655372958026</v>
       </c>
       <c r="C57" t="n">
-        <v>25.11022222222222</v>
+        <v>16.04488888888889</v>
       </c>
       <c r="D57" t="n">
-        <v>98.53500021854815</v>
+        <v>74.41655372958026</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>25.59311111111111</v>
+        <v>16.35344444444445</v>
       </c>
       <c r="B58" t="n">
-        <v>93.79837855543704</v>
+        <v>69.97636813106173</v>
       </c>
       <c r="C58" t="n">
-        <v>25.59311111111111</v>
+        <v>16.35344444444445</v>
       </c>
       <c r="D58" t="n">
-        <v>99.79837855543704</v>
+        <v>74.97636813106173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>26.076</v>
+        <v>16.662</v>
       </c>
       <c r="B59" t="n">
-        <v>95.0858212416</v>
+        <v>70.546845664</v>
       </c>
       <c r="C59" t="n">
-        <v>26.076</v>
+        <v>16.662</v>
       </c>
       <c r="D59" t="n">
-        <v>101.0858212416</v>
+        <v>75.546845664</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26.55888888888889</v>
+        <v>16.97055555555556</v>
       </c>
       <c r="B60" t="n">
-        <v>96.39732827703705</v>
+        <v>71.12798632839507</v>
       </c>
       <c r="C60" t="n">
-        <v>26.55888888888889</v>
+        <v>16.97055555555556</v>
       </c>
       <c r="D60" t="n">
-        <v>102.397328277037</v>
+        <v>76.12798632839507</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>27.04177777777778</v>
+        <v>17.27911111111111</v>
       </c>
       <c r="B61" t="n">
-        <v>97.73289966174816</v>
+        <v>71.71979012424691</v>
       </c>
       <c r="C61" t="n">
-        <v>27.04177777777778</v>
+        <v>17.27911111111111</v>
       </c>
       <c r="D61" t="n">
-        <v>103.7328996617482</v>
+        <v>76.71979012424691</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27.52466666666667</v>
+        <v>17.58766666666667</v>
       </c>
       <c r="B62" t="n">
-        <v>99.09253539573334</v>
+        <v>72.32225705155555</v>
       </c>
       <c r="C62" t="n">
-        <v>27.52466666666667</v>
+        <v>17.58766666666667</v>
       </c>
       <c r="D62" t="n">
-        <v>105.0925353957333</v>
+        <v>77.32225705155555</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>28.00755555555556</v>
+        <v>17.89622222222222</v>
       </c>
       <c r="B63" t="n">
-        <v>100.4762354789926</v>
+        <v>72.93538711032099</v>
       </c>
       <c r="C63" t="n">
-        <v>28.00755555555556</v>
+        <v>17.89622222222222</v>
       </c>
       <c r="D63" t="n">
-        <v>106.4762354789926</v>
+        <v>77.93538711032099</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>28.49044444444445</v>
+        <v>18.20477777777778</v>
       </c>
       <c r="B64" t="n">
-        <v>101.8839999115259</v>
+        <v>73.5591803005432</v>
       </c>
       <c r="C64" t="n">
-        <v>28.49044444444445</v>
+        <v>18.20477777777778</v>
       </c>
       <c r="D64" t="n">
-        <v>107.8839999115259</v>
+        <v>78.5591803005432</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>28.97333333333334</v>
+        <v>18.51333333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>103.3158286933333</v>
+        <v>74.19363662222223</v>
       </c>
       <c r="C65" t="n">
-        <v>28.97333333333334</v>
+        <v>18.51333333333334</v>
       </c>
       <c r="D65" t="n">
-        <v>109.3158286933333</v>
+        <v>79.19363662222223</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>29.45622222222222</v>
+        <v>18.82188888888889</v>
       </c>
       <c r="B66" t="n">
-        <v>104.7717218244148</v>
+        <v>74.83875607535802</v>
       </c>
       <c r="C66" t="n">
-        <v>29.45622222222222</v>
+        <v>18.82188888888889</v>
       </c>
       <c r="D66" t="n">
-        <v>110.7717218244148</v>
+        <v>79.83875607535802</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>29.93911111111111</v>
+        <v>19.13044444444445</v>
       </c>
       <c r="B67" t="n">
-        <v>106.2516793047704</v>
+        <v>75.49453865995062</v>
       </c>
       <c r="C67" t="n">
-        <v>29.93911111111111</v>
+        <v>19.13044444444445</v>
       </c>
       <c r="D67" t="n">
-        <v>112.2516793047704</v>
+        <v>80.49453865995062</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>30.422</v>
+        <v>19.439</v>
       </c>
       <c r="B68" t="n">
-        <v>107.7557011344</v>
+        <v>76.160984376</v>
       </c>
       <c r="C68" t="n">
-        <v>30.422</v>
+        <v>19.439</v>
       </c>
       <c r="D68" t="n">
-        <v>113.7557011344</v>
+        <v>81.160984376</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>30.90488888888889</v>
+        <v>19.74755555555556</v>
       </c>
       <c r="B69" t="n">
-        <v>109.2837873133037</v>
+        <v>76.83809322350618</v>
       </c>
       <c r="C69" t="n">
-        <v>30.90488888888889</v>
+        <v>19.74755555555556</v>
       </c>
       <c r="D69" t="n">
-        <v>115.2837873133037</v>
+        <v>81.83809322350618</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>31.38777777777778</v>
+        <v>20.05611111111111</v>
       </c>
       <c r="B70" t="n">
-        <v>110.8359378414815</v>
+        <v>77.52586520246915</v>
       </c>
       <c r="C70" t="n">
-        <v>31.38777777777778</v>
+        <v>20.05611111111111</v>
       </c>
       <c r="D70" t="n">
-        <v>116.8359378414815</v>
+        <v>82.52586520246915</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>31.87066666666667</v>
+        <v>20.36466666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>112.4121527189333</v>
+        <v>78.22430031288889</v>
       </c>
       <c r="C71" t="n">
-        <v>31.87066666666667</v>
+        <v>20.36466666666667</v>
       </c>
       <c r="D71" t="n">
-        <v>118.4121527189333</v>
+        <v>83.22430031288889</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>32.35355555555556</v>
+        <v>20.67322222222223</v>
       </c>
       <c r="B72" t="n">
-        <v>114.0124319456593</v>
+        <v>78.93339855476543</v>
       </c>
       <c r="C72" t="n">
-        <v>32.35355555555556</v>
+        <v>20.67322222222223</v>
       </c>
       <c r="D72" t="n">
-        <v>120.0124319456593</v>
+        <v>83.93339855476543</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>32.83644444444445</v>
+        <v>20.98177777777778</v>
       </c>
       <c r="B73" t="n">
-        <v>115.6367755216593</v>
+        <v>79.65315992809877</v>
       </c>
       <c r="C73" t="n">
-        <v>32.83644444444445</v>
+        <v>20.98177777777778</v>
       </c>
       <c r="D73" t="n">
-        <v>121.6367755216593</v>
+        <v>84.65315992809877</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>33.31933333333333</v>
+        <v>21.29033333333334</v>
       </c>
       <c r="B74" t="n">
-        <v>117.2851834469333</v>
+        <v>80.3835844328889</v>
       </c>
       <c r="C74" t="n">
-        <v>33.31933333333333</v>
+        <v>21.29033333333334</v>
       </c>
       <c r="D74" t="n">
-        <v>123.2851834469333</v>
+        <v>85.3835844328889</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>33.80222222222223</v>
+        <v>21.59888888888889</v>
       </c>
       <c r="B75" t="n">
-        <v>118.9576557214815</v>
+        <v>81.12467206913581</v>
       </c>
       <c r="C75" t="n">
-        <v>33.80222222222223</v>
+        <v>21.59888888888889</v>
       </c>
       <c r="D75" t="n">
-        <v>124.9576557214815</v>
+        <v>86.12467206913581</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>34.28511111111111</v>
+        <v>21.90744444444445</v>
       </c>
       <c r="B76" t="n">
-        <v>120.6541923453037</v>
+        <v>81.87642283683951</v>
       </c>
       <c r="C76" t="n">
-        <v>34.28511111111111</v>
+        <v>21.90744444444445</v>
       </c>
       <c r="D76" t="n">
-        <v>126.6541923453037</v>
+        <v>86.87642283683951</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>34.768</v>
+        <v>22.216</v>
       </c>
       <c r="B77" t="n">
-        <v>122.3747933184</v>
+        <v>82.638836736</v>
       </c>
       <c r="C77" t="n">
-        <v>34.768</v>
+        <v>22.216</v>
       </c>
       <c r="D77" t="n">
-        <v>128.3747933184</v>
+        <v>87.638836736</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>35.25088888888889</v>
+        <v>22.52455555555556</v>
       </c>
       <c r="B78" t="n">
-        <v>124.1194586407704</v>
+        <v>83.41191376661729</v>
       </c>
       <c r="C78" t="n">
-        <v>35.25088888888889</v>
+        <v>22.52455555555556</v>
       </c>
       <c r="D78" t="n">
-        <v>130.1194586407704</v>
+        <v>88.41191376661729</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>35.73377777777778</v>
+        <v>22.83311111111111</v>
       </c>
       <c r="B79" t="n">
-        <v>125.8881883124148</v>
+        <v>84.19565392869136</v>
       </c>
       <c r="C79" t="n">
-        <v>35.73377777777778</v>
+        <v>22.83311111111111</v>
       </c>
       <c r="D79" t="n">
-        <v>131.8881883124148</v>
+        <v>89.19565392869136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>36.21666666666667</v>
+        <v>23.14166666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>127.6809823333333</v>
+        <v>84.99005722222223</v>
       </c>
       <c r="C80" t="n">
-        <v>36.21666666666667</v>
+        <v>23.14166666666667</v>
       </c>
       <c r="D80" t="n">
-        <v>133.6809823333334</v>
+        <v>89.99005722222223</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>36.69955555555556</v>
+        <v>23.45022222222222</v>
       </c>
       <c r="B81" t="n">
-        <v>129.4978407035259</v>
+        <v>85.79512364720988</v>
       </c>
       <c r="C81" t="n">
-        <v>36.69955555555556</v>
+        <v>23.45022222222222</v>
       </c>
       <c r="D81" t="n">
-        <v>135.4978407035259</v>
+        <v>90.79512364720988</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>37.18244444444445</v>
+        <v>23.75877777777778</v>
       </c>
       <c r="B82" t="n">
-        <v>131.3387634229926</v>
+        <v>86.61085320365433</v>
       </c>
       <c r="C82" t="n">
-        <v>37.18244444444445</v>
+        <v>23.75877777777778</v>
       </c>
       <c r="D82" t="n">
-        <v>137.3387634229926</v>
+        <v>91.61085320365433</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>37.66533333333334</v>
+        <v>24.06733333333333</v>
       </c>
       <c r="B83" t="n">
-        <v>133.2037504917333</v>
+        <v>87.43724589155556</v>
       </c>
       <c r="C83" t="n">
-        <v>37.66533333333334</v>
+        <v>24.06733333333333</v>
       </c>
       <c r="D83" t="n">
-        <v>139.2037504917333</v>
+        <v>92.43724589155556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>38.14822222222222</v>
+        <v>24.37588888888889</v>
       </c>
       <c r="B84" t="n">
-        <v>135.0928019097481</v>
+        <v>88.27430171091359</v>
       </c>
       <c r="C84" t="n">
-        <v>38.14822222222222</v>
+        <v>24.37588888888889</v>
       </c>
       <c r="D84" t="n">
-        <v>141.0928019097481</v>
+        <v>93.27430171091359</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>38.63111111111111</v>
+        <v>24.68444444444444</v>
       </c>
       <c r="B85" t="n">
-        <v>137.005917677037</v>
+        <v>89.1220206617284</v>
       </c>
       <c r="C85" t="n">
-        <v>38.63111111111111</v>
+        <v>24.68444444444444</v>
       </c>
       <c r="D85" t="n">
-        <v>143.005917677037</v>
+        <v>94.1220206617284</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>39.114</v>
+        <v>24.993</v>
       </c>
       <c r="B86" t="n">
-        <v>138.9430977936</v>
+        <v>89.980402744</v>
       </c>
       <c r="C86" t="n">
-        <v>39.114</v>
+        <v>24.993</v>
       </c>
       <c r="D86" t="n">
-        <v>144.9430977936</v>
+        <v>94.980402744</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>39.59688888888889</v>
+        <v>25.30155555555556</v>
       </c>
       <c r="B87" t="n">
-        <v>140.904342259437</v>
+        <v>90.8494479577284</v>
       </c>
       <c r="C87" t="n">
-        <v>39.59688888888889</v>
+        <v>25.30155555555556</v>
       </c>
       <c r="D87" t="n">
-        <v>146.904342259437</v>
+        <v>95.8494479577284</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>40.07977777777778</v>
+        <v>25.61011111111111</v>
       </c>
       <c r="B88" t="n">
-        <v>142.8896510745481</v>
+        <v>91.72915630291359</v>
       </c>
       <c r="C88" t="n">
-        <v>40.07977777777778</v>
+        <v>25.61011111111111</v>
       </c>
       <c r="D88" t="n">
-        <v>148.8896510745481</v>
+        <v>96.72915630291359</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>40.56266666666667</v>
+        <v>25.91866666666667</v>
       </c>
       <c r="B89" t="n">
-        <v>144.8990242389334</v>
+        <v>92.61952777955557</v>
       </c>
       <c r="C89" t="n">
-        <v>40.56266666666667</v>
+        <v>25.91866666666667</v>
       </c>
       <c r="D89" t="n">
-        <v>150.8990242389334</v>
+        <v>97.61952777955557</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>41.04555555555556</v>
+        <v>26.22722222222222</v>
       </c>
       <c r="B90" t="n">
-        <v>146.9324617525926</v>
+        <v>93.52056238765434</v>
       </c>
       <c r="C90" t="n">
-        <v>41.04555555555556</v>
+        <v>26.22722222222222</v>
       </c>
       <c r="D90" t="n">
-        <v>152.9324617525926</v>
+        <v>98.52056238765434</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>41.52844444444445</v>
+        <v>26.53577777777778</v>
       </c>
       <c r="B91" t="n">
-        <v>148.9899636155259</v>
+        <v>94.43226012720989</v>
       </c>
       <c r="C91" t="n">
-        <v>41.52844444444445</v>
+        <v>26.53577777777778</v>
       </c>
       <c r="D91" t="n">
-        <v>154.9899636155259</v>
+        <v>99.43226012720989</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>42.01133333333333</v>
+        <v>26.84433333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>151.0715298277333</v>
+        <v>95.35462099822223</v>
       </c>
       <c r="C92" t="n">
-        <v>42.01133333333333</v>
+        <v>26.84433333333333</v>
       </c>
       <c r="D92" t="n">
-        <v>157.0715298277333</v>
+        <v>100.3546209982222</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>42.49422222222223</v>
+        <v>27.15288888888889</v>
       </c>
       <c r="B93" t="n">
-        <v>153.1771603892148</v>
+        <v>96.28764500069137</v>
       </c>
       <c r="C93" t="n">
-        <v>42.49422222222223</v>
+        <v>27.15288888888889</v>
       </c>
       <c r="D93" t="n">
-        <v>159.1771603892148</v>
+        <v>101.2876450006914</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>42.97711111111111</v>
+        <v>27.46144444444445</v>
       </c>
       <c r="B94" t="n">
-        <v>155.3068552999704</v>
+        <v>97.23133213461729</v>
       </c>
       <c r="C94" t="n">
-        <v>42.97711111111111</v>
+        <v>27.46144444444445</v>
       </c>
       <c r="D94" t="n">
-        <v>161.3068552999704</v>
+        <v>102.2313321346173</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43.46</v>
+        <v>27.77</v>
       </c>
       <c r="B95" t="n">
-        <v>157.46061456</v>
+        <v>98.18568240000002</v>
       </c>
       <c r="C95" t="n">
-        <v>43.46</v>
+        <v>27.77</v>
       </c>
       <c r="D95" t="n">
-        <v>163.46061456</v>
+        <v>103.1856824</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43.94288888888889</v>
+        <v>28.07855555555556</v>
       </c>
       <c r="B96" t="n">
-        <v>159.6384381693037</v>
+        <v>99.1506957968395</v>
       </c>
       <c r="C96" t="n">
-        <v>43.94288888888889</v>
+        <v>28.07855555555556</v>
       </c>
       <c r="D96" t="n">
-        <v>165.6384381693037</v>
+        <v>104.1506957968395</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>44.42577777777778</v>
+        <v>28.38711111111111</v>
       </c>
       <c r="B97" t="n">
-        <v>161.8403261278815</v>
+        <v>100.1263723251358</v>
       </c>
       <c r="C97" t="n">
-        <v>44.42577777777778</v>
+        <v>28.38711111111111</v>
       </c>
       <c r="D97" t="n">
-        <v>167.8403261278815</v>
+        <v>105.1263723251358</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>44.90866666666667</v>
+        <v>28.69566666666667</v>
       </c>
       <c r="B98" t="n">
-        <v>164.0662784357334</v>
+        <v>101.1127119848889</v>
       </c>
       <c r="C98" t="n">
-        <v>44.90866666666667</v>
+        <v>28.69566666666667</v>
       </c>
       <c r="D98" t="n">
-        <v>170.0662784357334</v>
+        <v>106.1127119848889</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>45.39155555555556</v>
+        <v>29.00422222222223</v>
       </c>
       <c r="B99" t="n">
-        <v>166.3162950928593</v>
+        <v>102.1097147760988</v>
       </c>
       <c r="C99" t="n">
-        <v>45.39155555555556</v>
+        <v>29.00422222222223</v>
       </c>
       <c r="D99" t="n">
-        <v>172.3162950928593</v>
+        <v>107.1097147760988</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>45.87444444444445</v>
+        <v>29.31277777777778</v>
       </c>
       <c r="B100" t="n">
-        <v>168.5903760992593</v>
+        <v>103.1173806987654</v>
       </c>
       <c r="C100" t="n">
-        <v>45.87444444444445</v>
+        <v>29.31277777777778</v>
       </c>
       <c r="D100" t="n">
-        <v>174.5903760992593</v>
+        <v>108.1173806987654</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>46.35733333333334</v>
+        <v>29.62133333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>170.8885214549333</v>
+        <v>104.1357097528889</v>
       </c>
       <c r="C101" t="n">
-        <v>46.35733333333334</v>
+        <v>29.62133333333334</v>
       </c>
       <c r="D101" t="n">
-        <v>176.8885214549333</v>
+        <v>109.1357097528889</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>46.84022222222222</v>
+        <v>29.92988888888889</v>
       </c>
       <c r="B102" t="n">
-        <v>173.2107311598815</v>
+        <v>105.1647019384692</v>
       </c>
       <c r="C102" t="n">
-        <v>46.84022222222222</v>
+        <v>29.92988888888889</v>
       </c>
       <c r="D102" t="n">
-        <v>179.2107311598815</v>
+        <v>110.1647019384692</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>47.32311111111112</v>
+        <v>30.23844444444445</v>
       </c>
       <c r="B103" t="n">
-        <v>175.5570052141037</v>
+        <v>106.2043572555062</v>
       </c>
       <c r="C103" t="n">
-        <v>47.32311111111112</v>
+        <v>30.23844444444445</v>
       </c>
       <c r="D103" t="n">
-        <v>181.5570052141037</v>
+        <v>111.2043572555062</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>47.806</v>
+        <v>30.547</v>
       </c>
       <c r="B104" t="n">
-        <v>177.9273436176</v>
+        <v>107.254675704</v>
       </c>
       <c r="C104" t="n">
-        <v>47.806</v>
+        <v>30.547</v>
       </c>
       <c r="D104" t="n">
-        <v>183.9273436176</v>
+        <v>112.254675704</v>
       </c>
     </row>
   </sheetData>
@@ -8362,7 +7095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8385,7 +7118,7 @@
     <row r="41">
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>H = 60.00 + 0.0516 × Q²</t>
+          <t>H = 55.00 + 0.0560 × Q²</t>
         </is>
       </c>
     </row>
@@ -8399,12 +7132,12 @@
     <row r="44">
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>H = 66.00 + 0.0516 × Q²</t>
+          <t>H = 60.00 + 0.0560 × Q²</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>